--- a/api/data/gates_db.xlsx
+++ b/api/data/gates_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\belux\belux-gate-manager-api\api\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA9A7AA-FBF1-4C2B-8E8F-9A0EAFB0430F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB977BB-E3C0-4E84-8EAA-BFD6C126A46F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A18B69D9-28ED-47D3-8556-C314F1DB8CFD}"/>
+    <workbookView xWindow="21030" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{A18B69D9-28ED-47D3-8556-C314F1DB8CFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="689">
   <si>
     <t>505335.23N</t>
   </si>
@@ -3202,6 +3202,15 @@
   </si>
   <si>
     <t>0042914.71E</t>
+  </si>
+  <si>
+    <t>apron-P8</t>
+  </si>
+  <si>
+    <t>MNT1</t>
+  </si>
+  <si>
+    <t>MNT2</t>
   </si>
 </sst>
 </file>
@@ -3637,10 +3646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A74C131-8C0C-4CF6-B99D-A6421F63E231}">
-  <dimension ref="A1:O284"/>
+  <dimension ref="A1:O286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A284" sqref="A284:XFD284"/>
+    <sheetView tabSelected="1" topLeftCell="A259" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C291" sqref="C291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19037,6 +19046,40 @@
         <v>6.1972882396987803</v>
       </c>
     </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>426</v>
+      </c>
+      <c r="B285" t="s">
+        <v>686</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="K285">
+        <v>49.617411383833499</v>
+      </c>
+      <c r="O285">
+        <v>6.1998207863052102</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>426</v>
+      </c>
+      <c r="B286" t="s">
+        <v>686</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="K286">
+        <v>49.617793692219699</v>
+      </c>
+      <c r="O286">
+        <v>6.2009902293549599</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/api/data/gates_db.xlsx
+++ b/api/data/gates_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\belux\belux-gate-manager-api\api\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB977BB-E3C0-4E84-8EAA-BFD6C126A46F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7279F4E2-DCF1-49E3-A188-BA9017860486}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21030" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{A18B69D9-28ED-47D3-8556-C314F1DB8CFD}"/>
+    <workbookView xWindow="7200" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{A18B69D9-28ED-47D3-8556-C314F1DB8CFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="677">
   <si>
     <t>505335.23N</t>
   </si>
@@ -2637,24 +2637,6 @@
     <t>0061310.81E</t>
   </si>
   <si>
-    <t>V43A</t>
-  </si>
-  <si>
-    <t>493757.11N</t>
-  </si>
-  <si>
-    <t>0061311.68E</t>
-  </si>
-  <si>
-    <t>V43B</t>
-  </si>
-  <si>
-    <t>493757.63N</t>
-  </si>
-  <si>
-    <t>0061310.10E</t>
-  </si>
-  <si>
     <t>A02</t>
   </si>
   <si>
@@ -2821,24 +2803,6 @@
   </si>
   <si>
     <t>0061333.26E</t>
-  </si>
-  <si>
-    <t>Z12A</t>
-  </si>
-  <si>
-    <t>493804.47N</t>
-  </si>
-  <si>
-    <t>0061332.56E</t>
-  </si>
-  <si>
-    <t>Z12B</t>
-  </si>
-  <si>
-    <t>493805.69N</t>
-  </si>
-  <si>
-    <t>0061331.69E</t>
   </si>
   <si>
     <t>apron-P7-Z</t>
@@ -3646,10 +3610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A74C131-8C0C-4CF6-B99D-A6421F63E231}">
-  <dimension ref="A1:O286"/>
+  <dimension ref="A1:O282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C291" sqref="C291"/>
+    <sheetView tabSelected="1" topLeftCell="A214" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B225" sqref="B225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9201,7 +9165,7 @@
         <v>49</v>
       </c>
       <c r="E98" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="F98" t="str">
         <f t="shared" si="17"/>
@@ -14183,11 +14147,11 @@
         <v>421</v>
       </c>
       <c r="F195" t="str">
-        <f t="shared" ref="F195:F227" si="44">SUBSTITUTE( SUBSTITUTE(D195,"N",""),",",".")</f>
+        <f t="shared" ref="F195:F225" si="44">SUBSTITUTE( SUBSTITUTE(D195,"N",""),",",".")</f>
         <v/>
       </c>
       <c r="G195" t="str">
-        <f t="shared" ref="G195:G227" si="45">SUBSTITUTE( SUBSTITUTE(E195,"E",""),",",".")</f>
+        <f t="shared" ref="G195:G225" si="45">SUBSTITUTE( SUBSTITUTE(E195,"E",""),",",".")</f>
         <v/>
       </c>
       <c r="K195">
@@ -14252,10 +14216,10 @@
         <v>426</v>
       </c>
       <c r="B198" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D198" t="s">
         <v>427</v>
@@ -14272,15 +14236,15 @@
         <v>0061305.79</v>
       </c>
       <c r="H198">
-        <f t="shared" ref="H198:H227" si="46">_xlfn.FLOOR.MATH(F198/10000)</f>
+        <f t="shared" ref="H198:H225" si="46">_xlfn.FLOOR.MATH(F198/10000)</f>
         <v>49</v>
       </c>
       <c r="I198">
-        <f t="shared" ref="I198:I227" si="47">_xlfn.FLOOR.MATH((F198-H198*10000)/100)</f>
+        <f t="shared" ref="I198:I225" si="47">_xlfn.FLOOR.MATH((F198-H198*10000)/100)</f>
         <v>38</v>
       </c>
       <c r="J198">
-        <f t="shared" ref="J198:J227" si="48">(F198-(H198*10000)-(I198*100))</f>
+        <f t="shared" ref="J198:J225" si="48">(F198-(H198*10000)-(I198*100))</f>
         <v>3.6699999999837019</v>
       </c>
       <c r="K198">
@@ -14309,10 +14273,10 @@
         <v>426</v>
       </c>
       <c r="B199" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="D199" t="s">
         <v>429</v>
@@ -14341,23 +14305,23 @@
         <v>2.3400000000256114</v>
       </c>
       <c r="K199">
-        <f t="shared" ref="K199:K227" si="53" xml:space="preserve"> H199 + (I199/60) + (J199/3600)</f>
+        <f t="shared" ref="K199:K225" si="53" xml:space="preserve"> H199 + (I199/60) + (J199/3600)</f>
         <v>49.63398333333334</v>
       </c>
       <c r="L199">
-        <f t="shared" ref="L199:L227" si="54">_xlfn.FLOOR.MATH(G199/10000)</f>
+        <f t="shared" ref="L199:L225" si="54">_xlfn.FLOOR.MATH(G199/10000)</f>
         <v>6</v>
       </c>
       <c r="M199">
-        <f t="shared" ref="M199:M227" si="55">_xlfn.FLOOR.MATH((G199-L199*10000)/100)</f>
+        <f t="shared" ref="M199:M225" si="55">_xlfn.FLOOR.MATH((G199-L199*10000)/100)</f>
         <v>13</v>
       </c>
       <c r="N199">
-        <f t="shared" ref="N199:N227" si="56">(G199-(L199*10000)-(M199*100))</f>
+        <f t="shared" ref="N199:N225" si="56">(G199-(L199*10000)-(M199*100))</f>
         <v>4.0199999999967986</v>
       </c>
       <c r="O199">
-        <f t="shared" ref="O199:O227" si="57" xml:space="preserve"> L199 + (M199/60) + (N199/3600)</f>
+        <f t="shared" ref="O199:O225" si="57" xml:space="preserve"> L199 + (M199/60) + (N199/3600)</f>
         <v>6.2177833333333323</v>
       </c>
     </row>
@@ -14366,10 +14330,10 @@
         <v>426</v>
       </c>
       <c r="B200" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="D200" t="s">
         <v>431</v>
@@ -14423,10 +14387,10 @@
         <v>426</v>
       </c>
       <c r="B201" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="D201" t="s">
         <v>433</v>
@@ -14480,7 +14444,7 @@
         <v>426</v>
       </c>
       <c r="B202" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>435</v>
@@ -14537,10 +14501,10 @@
         <v>426</v>
       </c>
       <c r="B203" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="D203" t="s">
         <v>438</v>
@@ -14594,7 +14558,7 @@
         <v>426</v>
       </c>
       <c r="B204" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>440</v>
@@ -14651,10 +14615,10 @@
         <v>426</v>
       </c>
       <c r="B205" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="D205" t="s">
         <v>443</v>
@@ -14708,10 +14672,10 @@
         <v>426</v>
       </c>
       <c r="B206" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="D206" t="s">
         <v>445</v>
@@ -14765,10 +14729,10 @@
         <v>426</v>
       </c>
       <c r="B207" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="D207" t="s">
         <v>447</v>
@@ -14822,10 +14786,10 @@
         <v>426</v>
       </c>
       <c r="B208" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="D208" t="s">
         <v>449</v>
@@ -14879,10 +14843,10 @@
         <v>426</v>
       </c>
       <c r="B209" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="D209" t="s">
         <v>451</v>
@@ -14936,10 +14900,10 @@
         <v>426</v>
       </c>
       <c r="B210" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="D210" t="s">
         <v>453</v>
@@ -14993,10 +14957,10 @@
         <v>426</v>
       </c>
       <c r="B211" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="D211" t="s">
         <v>455</v>
@@ -15050,10 +15014,10 @@
         <v>426</v>
       </c>
       <c r="B212" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="D212" t="s">
         <v>457</v>
@@ -15107,10 +15071,10 @@
         <v>426</v>
       </c>
       <c r="B213" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D213" t="s">
         <v>459</v>
@@ -15164,7 +15128,7 @@
         <v>426</v>
       </c>
       <c r="B214" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>461</v>
@@ -15221,7 +15185,7 @@
         <v>426</v>
       </c>
       <c r="B215" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>464</v>
@@ -15278,7 +15242,7 @@
         <v>426</v>
       </c>
       <c r="B216" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>467</v>
@@ -15335,7 +15299,7 @@
         <v>426</v>
       </c>
       <c r="B217" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>470</v>
@@ -15392,7 +15356,7 @@
         <v>426</v>
       </c>
       <c r="B218" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>473</v>
@@ -15449,7 +15413,7 @@
         <v>426</v>
       </c>
       <c r="B219" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>476</v>
@@ -15506,7 +15470,7 @@
         <v>426</v>
       </c>
       <c r="B220" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>479</v>
@@ -15563,7 +15527,7 @@
         <v>426</v>
       </c>
       <c r="B221" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>482</v>
@@ -15620,7 +15584,7 @@
         <v>426</v>
       </c>
       <c r="B222" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>485</v>
@@ -15677,7 +15641,7 @@
         <v>426</v>
       </c>
       <c r="B223" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>488</v>
@@ -15734,7 +15698,7 @@
         <v>426</v>
       </c>
       <c r="B224" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>491</v>
@@ -15791,7 +15755,7 @@
         <v>426</v>
       </c>
       <c r="B225" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>494</v>
@@ -15848,56 +15812,56 @@
         <v>426</v>
       </c>
       <c r="B226" t="s">
-        <v>522</v>
+        <v>553</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>497</v>
+        <v>517</v>
       </c>
       <c r="D226" t="s">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="E226" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="F226" t="str">
-        <f t="shared" si="44"/>
-        <v>493757.11</v>
+        <f t="shared" ref="F226:F237" si="58">SUBSTITUTE( SUBSTITUTE(D226,"N",""),",",".")</f>
+        <v>493817.23</v>
       </c>
       <c r="G226" t="str">
-        <f t="shared" si="45"/>
-        <v>0061311.68</v>
+        <f t="shared" ref="G226:G237" si="59">SUBSTITUTE( SUBSTITUTE(E226,"E",""),",",".")</f>
+        <v>0061339.81</v>
       </c>
       <c r="H226">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="H226:H237" si="60">_xlfn.FLOOR.MATH(F226/10000)</f>
         <v>49</v>
       </c>
       <c r="I226">
-        <f t="shared" si="47"/>
-        <v>37</v>
+        <f t="shared" ref="I226:I237" si="61">_xlfn.FLOOR.MATH((F226-H226*10000)/100)</f>
+        <v>38</v>
       </c>
       <c r="J226">
-        <f t="shared" si="48"/>
-        <v>57.10999999998603</v>
+        <f t="shared" ref="J226:J237" si="62">(F226-(H226*10000)-(I226*100))</f>
+        <v>17.229999999981374</v>
       </c>
       <c r="K226">
-        <f t="shared" si="53"/>
-        <v>49.632530555555554</v>
+        <f t="shared" ref="K226:K237" si="63" xml:space="preserve"> H226 + (I226/60) + (J226/3600)</f>
+        <v>49.638119444444442</v>
       </c>
       <c r="L226">
-        <f t="shared" si="54"/>
+        <f t="shared" ref="L226:L237" si="64">_xlfn.FLOOR.MATH(G226/10000)</f>
         <v>6</v>
       </c>
       <c r="M226">
-        <f t="shared" si="55"/>
+        <f t="shared" ref="M226:M237" si="65">_xlfn.FLOOR.MATH((G226-L226*10000)/100)</f>
         <v>13</v>
       </c>
       <c r="N226">
-        <f t="shared" si="56"/>
-        <v>11.680000000000291</v>
+        <f t="shared" ref="N226:N237" si="66">(G226-(L226*10000)-(M226*100))</f>
+        <v>39.809999999997672</v>
       </c>
       <c r="O226">
-        <f t="shared" si="57"/>
-        <v>6.2199111111111112</v>
+        <f t="shared" ref="O226:O237" si="67" xml:space="preserve"> L226 + (M226/60) + (N226/3600)</f>
+        <v>6.2277249999999995</v>
       </c>
     </row>
     <row r="227" spans="1:15" x14ac:dyDescent="0.25">
@@ -15905,56 +15869,56 @@
         <v>426</v>
       </c>
       <c r="B227" t="s">
+        <v>553</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="D227" t="s">
+        <v>521</v>
+      </c>
+      <c r="E227" t="s">
         <v>522</v>
       </c>
-      <c r="C227" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="D227" t="s">
-        <v>501</v>
-      </c>
-      <c r="E227" t="s">
-        <v>502</v>
-      </c>
       <c r="F227" t="str">
-        <f t="shared" si="44"/>
-        <v>493757.63</v>
+        <f t="shared" si="58"/>
+        <v>493815.12</v>
       </c>
       <c r="G227" t="str">
-        <f t="shared" si="45"/>
-        <v>0061310.10</v>
+        <f t="shared" si="59"/>
+        <v>0061341.66</v>
       </c>
       <c r="H227">
-        <f t="shared" si="46"/>
+        <f t="shared" si="60"/>
         <v>49</v>
       </c>
       <c r="I227">
-        <f t="shared" si="47"/>
-        <v>37</v>
+        <f t="shared" si="61"/>
+        <v>38</v>
       </c>
       <c r="J227">
-        <f t="shared" si="48"/>
-        <v>57.630000000004657</v>
+        <f t="shared" si="62"/>
+        <v>15.119999999995343</v>
       </c>
       <c r="K227">
-        <f t="shared" si="53"/>
-        <v>49.632674999999999</v>
+        <f t="shared" si="63"/>
+        <v>49.63753333333333</v>
       </c>
       <c r="L227">
-        <f t="shared" si="54"/>
+        <f t="shared" si="64"/>
         <v>6</v>
       </c>
       <c r="M227">
-        <f t="shared" si="55"/>
+        <f t="shared" si="65"/>
         <v>13</v>
       </c>
       <c r="N227">
-        <f t="shared" si="56"/>
-        <v>10.099999999998545</v>
+        <f t="shared" si="66"/>
+        <v>41.660000000003492</v>
       </c>
       <c r="O227">
-        <f t="shared" si="57"/>
-        <v>6.2194722222222216</v>
+        <f t="shared" si="67"/>
+        <v>6.2282388888888898</v>
       </c>
     </row>
     <row r="228" spans="1:15" x14ac:dyDescent="0.25">
@@ -15962,7 +15926,7 @@
         <v>426</v>
       </c>
       <c r="B228" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>523</v>
@@ -15974,44 +15938,44 @@
         <v>525</v>
       </c>
       <c r="F228" t="str">
-        <f t="shared" ref="F228:F241" si="58">SUBSTITUTE( SUBSTITUTE(D228,"N",""),",",".")</f>
-        <v>493817.23</v>
+        <f t="shared" si="58"/>
+        <v>493813.01</v>
       </c>
       <c r="G228" t="str">
-        <f t="shared" ref="G228:G241" si="59">SUBSTITUTE( SUBSTITUTE(E228,"E",""),",",".")</f>
-        <v>0061339.81</v>
+        <f t="shared" si="59"/>
+        <v>0061343.53</v>
       </c>
       <c r="H228">
-        <f t="shared" ref="H228:H241" si="60">_xlfn.FLOOR.MATH(F228/10000)</f>
+        <f t="shared" si="60"/>
         <v>49</v>
       </c>
       <c r="I228">
-        <f t="shared" ref="I228:I241" si="61">_xlfn.FLOOR.MATH((F228-H228*10000)/100)</f>
+        <f t="shared" si="61"/>
         <v>38</v>
       </c>
       <c r="J228">
-        <f t="shared" ref="J228:J241" si="62">(F228-(H228*10000)-(I228*100))</f>
-        <v>17.229999999981374</v>
+        <f t="shared" si="62"/>
+        <v>13.010000000009313</v>
       </c>
       <c r="K228">
-        <f t="shared" ref="K228:K241" si="63" xml:space="preserve"> H228 + (I228/60) + (J228/3600)</f>
-        <v>49.638119444444442</v>
+        <f t="shared" si="63"/>
+        <v>49.636947222222226</v>
       </c>
       <c r="L228">
-        <f t="shared" ref="L228:L241" si="64">_xlfn.FLOOR.MATH(G228/10000)</f>
+        <f t="shared" si="64"/>
         <v>6</v>
       </c>
       <c r="M228">
-        <f t="shared" ref="M228:M241" si="65">_xlfn.FLOOR.MATH((G228-L228*10000)/100)</f>
+        <f t="shared" si="65"/>
         <v>13</v>
       </c>
       <c r="N228">
-        <f t="shared" ref="N228:N241" si="66">(G228-(L228*10000)-(M228*100))</f>
-        <v>39.809999999997672</v>
+        <f t="shared" si="66"/>
+        <v>43.529999999998836</v>
       </c>
       <c r="O228">
-        <f t="shared" ref="O228:O241" si="67" xml:space="preserve"> L228 + (M228/60) + (N228/3600)</f>
-        <v>6.2277249999999995</v>
+        <f t="shared" si="67"/>
+        <v>6.2287583333333334</v>
       </c>
     </row>
     <row r="229" spans="1:15" x14ac:dyDescent="0.25">
@@ -16019,7 +15983,7 @@
         <v>426</v>
       </c>
       <c r="B229" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>526</v>
@@ -16032,11 +15996,11 @@
       </c>
       <c r="F229" t="str">
         <f t="shared" si="58"/>
-        <v>493815.12</v>
+        <v>493810.91</v>
       </c>
       <c r="G229" t="str">
         <f t="shared" si="59"/>
-        <v>0061341.66</v>
+        <v>0061345.38</v>
       </c>
       <c r="H229">
         <f t="shared" si="60"/>
@@ -16048,11 +16012,11 @@
       </c>
       <c r="J229">
         <f t="shared" si="62"/>
-        <v>15.119999999995343</v>
+        <v>10.909999999974389</v>
       </c>
       <c r="K229">
         <f t="shared" si="63"/>
-        <v>49.63753333333333</v>
+        <v>49.63636388888888</v>
       </c>
       <c r="L229">
         <f t="shared" si="64"/>
@@ -16064,11 +16028,11 @@
       </c>
       <c r="N229">
         <f t="shared" si="66"/>
-        <v>41.660000000003492</v>
+        <v>45.379999999997381</v>
       </c>
       <c r="O229">
         <f t="shared" si="67"/>
-        <v>6.2282388888888898</v>
+        <v>6.2292722222222219</v>
       </c>
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.25">
@@ -16076,7 +16040,7 @@
         <v>426</v>
       </c>
       <c r="B230" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>529</v>
@@ -16089,11 +16053,11 @@
       </c>
       <c r="F230" t="str">
         <f t="shared" si="58"/>
-        <v>493813.01</v>
+        <v>493807.17</v>
       </c>
       <c r="G230" t="str">
         <f t="shared" si="59"/>
-        <v>0061343.53</v>
+        <v>0061335.63</v>
       </c>
       <c r="H230">
         <f t="shared" si="60"/>
@@ -16105,11 +16069,11 @@
       </c>
       <c r="J230">
         <f t="shared" si="62"/>
-        <v>13.010000000009313</v>
+        <v>7.1699999999837019</v>
       </c>
       <c r="K230">
         <f t="shared" si="63"/>
-        <v>49.636947222222226</v>
+        <v>49.635324999999995</v>
       </c>
       <c r="L230">
         <f t="shared" si="64"/>
@@ -16121,11 +16085,11 @@
       </c>
       <c r="N230">
         <f t="shared" si="66"/>
-        <v>43.529999999998836</v>
+        <v>35.629999999997381</v>
       </c>
       <c r="O230">
         <f t="shared" si="67"/>
-        <v>6.2287583333333334</v>
+        <v>6.2265638888888883</v>
       </c>
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.25">
@@ -16133,7 +16097,7 @@
         <v>426</v>
       </c>
       <c r="B231" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>532</v>
@@ -16146,11 +16110,11 @@
       </c>
       <c r="F231" t="str">
         <f t="shared" si="58"/>
-        <v>493810.91</v>
+        <v>493809.30</v>
       </c>
       <c r="G231" t="str">
         <f t="shared" si="59"/>
-        <v>0061345.38</v>
+        <v>0061333.75</v>
       </c>
       <c r="H231">
         <f t="shared" si="60"/>
@@ -16162,11 +16126,11 @@
       </c>
       <c r="J231">
         <f t="shared" si="62"/>
-        <v>10.909999999974389</v>
+        <v>9.2999999999883585</v>
       </c>
       <c r="K231">
         <f t="shared" si="63"/>
-        <v>49.63636388888888</v>
+        <v>49.63591666666666</v>
       </c>
       <c r="L231">
         <f t="shared" si="64"/>
@@ -16178,11 +16142,11 @@
       </c>
       <c r="N231">
         <f t="shared" si="66"/>
-        <v>45.379999999997381</v>
+        <v>33.75</v>
       </c>
       <c r="O231">
         <f t="shared" si="67"/>
-        <v>6.2292722222222219</v>
+        <v>6.2260416666666671</v>
       </c>
     </row>
     <row r="232" spans="1:15" x14ac:dyDescent="0.25">
@@ -16190,7 +16154,7 @@
         <v>426</v>
       </c>
       <c r="B232" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>535</v>
@@ -16203,11 +16167,11 @@
       </c>
       <c r="F232" t="str">
         <f t="shared" si="58"/>
-        <v>493807.17</v>
+        <v>493811.43</v>
       </c>
       <c r="G232" t="str">
         <f t="shared" si="59"/>
-        <v>0061335.63</v>
+        <v>0061331.86</v>
       </c>
       <c r="H232">
         <f t="shared" si="60"/>
@@ -16219,11 +16183,11 @@
       </c>
       <c r="J232">
         <f t="shared" si="62"/>
-        <v>7.1699999999837019</v>
+        <v>11.429999999993015</v>
       </c>
       <c r="K232">
         <f t="shared" si="63"/>
-        <v>49.635324999999995</v>
+        <v>49.636508333333332</v>
       </c>
       <c r="L232">
         <f t="shared" si="64"/>
@@ -16235,11 +16199,11 @@
       </c>
       <c r="N232">
         <f t="shared" si="66"/>
-        <v>35.629999999997381</v>
+        <v>31.860000000000582</v>
       </c>
       <c r="O232">
         <f t="shared" si="67"/>
-        <v>6.2265638888888883</v>
+        <v>6.2255166666666666</v>
       </c>
     </row>
     <row r="233" spans="1:15" x14ac:dyDescent="0.25">
@@ -16247,7 +16211,7 @@
         <v>426</v>
       </c>
       <c r="B233" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>538</v>
@@ -16260,11 +16224,11 @@
       </c>
       <c r="F233" t="str">
         <f t="shared" si="58"/>
-        <v>493809.30</v>
+        <v>493813.56</v>
       </c>
       <c r="G233" t="str">
         <f t="shared" si="59"/>
-        <v>0061333.75</v>
+        <v>0061329.98</v>
       </c>
       <c r="H233">
         <f t="shared" si="60"/>
@@ -16276,11 +16240,11 @@
       </c>
       <c r="J233">
         <f t="shared" si="62"/>
-        <v>9.2999999999883585</v>
+        <v>13.559999999997672</v>
       </c>
       <c r="K233">
         <f t="shared" si="63"/>
-        <v>49.63591666666666</v>
+        <v>49.637099999999997</v>
       </c>
       <c r="L233">
         <f t="shared" si="64"/>
@@ -16292,11 +16256,11 @@
       </c>
       <c r="N233">
         <f t="shared" si="66"/>
-        <v>33.75</v>
+        <v>29.980000000003201</v>
       </c>
       <c r="O233">
         <f t="shared" si="67"/>
-        <v>6.2260416666666671</v>
+        <v>6.2249944444444454</v>
       </c>
     </row>
     <row r="234" spans="1:15" x14ac:dyDescent="0.25">
@@ -16304,7 +16268,7 @@
         <v>426</v>
       </c>
       <c r="B234" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>541</v>
@@ -16317,11 +16281,11 @@
       </c>
       <c r="F234" t="str">
         <f t="shared" si="58"/>
-        <v>493811.43</v>
+        <v>493812.55</v>
       </c>
       <c r="G234" t="str">
         <f t="shared" si="59"/>
-        <v>0061331.86</v>
+        <v>0061327.16</v>
       </c>
       <c r="H234">
         <f t="shared" si="60"/>
@@ -16333,11 +16297,11 @@
       </c>
       <c r="J234">
         <f t="shared" si="62"/>
-        <v>11.429999999993015</v>
+        <v>12.549999999988358</v>
       </c>
       <c r="K234">
         <f t="shared" si="63"/>
-        <v>49.636508333333332</v>
+        <v>49.636819444444441</v>
       </c>
       <c r="L234">
         <f t="shared" si="64"/>
@@ -16349,11 +16313,11 @@
       </c>
       <c r="N234">
         <f t="shared" si="66"/>
-        <v>31.860000000000582</v>
+        <v>27.160000000003492</v>
       </c>
       <c r="O234">
         <f t="shared" si="67"/>
-        <v>6.2255166666666666</v>
+        <v>6.2242111111111118</v>
       </c>
     </row>
     <row r="235" spans="1:15" x14ac:dyDescent="0.25">
@@ -16361,7 +16325,7 @@
         <v>426</v>
       </c>
       <c r="B235" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>544</v>
@@ -16374,11 +16338,11 @@
       </c>
       <c r="F235" t="str">
         <f t="shared" si="58"/>
-        <v>493813.56</v>
+        <v>493810.26</v>
       </c>
       <c r="G235" t="str">
         <f t="shared" si="59"/>
-        <v>0061329.98</v>
+        <v>0061329.18</v>
       </c>
       <c r="H235">
         <f t="shared" si="60"/>
@@ -16390,11 +16354,11 @@
       </c>
       <c r="J235">
         <f t="shared" si="62"/>
-        <v>13.559999999997672</v>
+        <v>10.260000000009313</v>
       </c>
       <c r="K235">
         <f t="shared" si="63"/>
-        <v>49.637099999999997</v>
+        <v>49.636183333333335</v>
       </c>
       <c r="L235">
         <f t="shared" si="64"/>
@@ -16406,11 +16370,11 @@
       </c>
       <c r="N235">
         <f t="shared" si="66"/>
-        <v>29.980000000003201</v>
+        <v>29.180000000000291</v>
       </c>
       <c r="O235">
         <f t="shared" si="67"/>
-        <v>6.2249944444444454</v>
+        <v>6.2247722222222226</v>
       </c>
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.25">
@@ -16418,7 +16382,7 @@
         <v>426</v>
       </c>
       <c r="B236" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>547</v>
@@ -16431,11 +16395,11 @@
       </c>
       <c r="F236" t="str">
         <f t="shared" si="58"/>
-        <v>493812.55</v>
+        <v>493807.98</v>
       </c>
       <c r="G236" t="str">
         <f t="shared" si="59"/>
-        <v>0061327.16</v>
+        <v>0061331.20</v>
       </c>
       <c r="H236">
         <f t="shared" si="60"/>
@@ -16447,11 +16411,11 @@
       </c>
       <c r="J236">
         <f t="shared" si="62"/>
-        <v>12.549999999988358</v>
+        <v>7.9799999999813735</v>
       </c>
       <c r="K236">
         <f t="shared" si="63"/>
-        <v>49.636819444444441</v>
+        <v>49.635549999999995</v>
       </c>
       <c r="L236">
         <f t="shared" si="64"/>
@@ -16463,11 +16427,11 @@
       </c>
       <c r="N236">
         <f t="shared" si="66"/>
-        <v>27.160000000003492</v>
+        <v>31.19999999999709</v>
       </c>
       <c r="O236">
         <f t="shared" si="67"/>
-        <v>6.2242111111111118</v>
+        <v>6.2253333333333325</v>
       </c>
     </row>
     <row r="237" spans="1:15" x14ac:dyDescent="0.25">
@@ -16475,7 +16439,7 @@
         <v>426</v>
       </c>
       <c r="B237" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>550</v>
@@ -16488,11 +16452,11 @@
       </c>
       <c r="F237" t="str">
         <f t="shared" si="58"/>
-        <v>493810.26</v>
+        <v>493805.71</v>
       </c>
       <c r="G237" t="str">
         <f t="shared" si="59"/>
-        <v>0061329.18</v>
+        <v>0061333.26</v>
       </c>
       <c r="H237">
         <f t="shared" si="60"/>
@@ -16504,11 +16468,11 @@
       </c>
       <c r="J237">
         <f t="shared" si="62"/>
-        <v>10.260000000009313</v>
+        <v>5.7100000000209548</v>
       </c>
       <c r="K237">
         <f t="shared" si="63"/>
-        <v>49.636183333333335</v>
+        <v>49.634919444444449</v>
       </c>
       <c r="L237">
         <f t="shared" si="64"/>
@@ -16520,11 +16484,11 @@
       </c>
       <c r="N237">
         <f t="shared" si="66"/>
-        <v>29.180000000000291</v>
+        <v>33.260000000002037</v>
       </c>
       <c r="O237">
         <f t="shared" si="67"/>
-        <v>6.2247722222222226</v>
+        <v>6.2259055555555562</v>
       </c>
     </row>
     <row r="238" spans="1:15" x14ac:dyDescent="0.25">
@@ -16532,56 +16496,56 @@
         <v>426</v>
       </c>
       <c r="B238" t="s">
-        <v>566</v>
+        <v>671</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>553</v>
+        <v>666</v>
       </c>
       <c r="D238" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E238" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F238" t="str">
-        <f t="shared" si="58"/>
-        <v>493807.98</v>
+        <f t="shared" ref="F238:F276" si="68">SUBSTITUTE( SUBSTITUTE(D238,"N",""),",",".")</f>
+        <v>493746.13</v>
       </c>
       <c r="G238" t="str">
-        <f t="shared" si="59"/>
-        <v>0061331.20</v>
+        <f t="shared" ref="G238:G276" si="69">SUBSTITUTE( SUBSTITUTE(E238,"E",""),",",".")</f>
+        <v>0061229.23</v>
       </c>
       <c r="H238">
-        <f t="shared" si="60"/>
+        <f t="shared" ref="H238:H276" si="70">_xlfn.FLOOR.MATH(F238/10000)</f>
         <v>49</v>
       </c>
       <c r="I238">
-        <f t="shared" si="61"/>
-        <v>38</v>
+        <f t="shared" ref="I238:I276" si="71">_xlfn.FLOOR.MATH((F238-H238*10000)/100)</f>
+        <v>37</v>
       </c>
       <c r="J238">
-        <f t="shared" si="62"/>
-        <v>7.9799999999813735</v>
+        <f t="shared" ref="J238:J276" si="72">(F238-(H238*10000)-(I238*100))</f>
+        <v>46.130000000004657</v>
       </c>
       <c r="K238">
-        <f t="shared" si="63"/>
-        <v>49.635549999999995</v>
+        <f t="shared" ref="K238:K276" si="73" xml:space="preserve"> H238 + (I238/60) + (J238/3600)</f>
+        <v>49.62948055555556</v>
       </c>
       <c r="L238">
-        <f t="shared" si="64"/>
+        <f t="shared" ref="L238:L276" si="74">_xlfn.FLOOR.MATH(G238/10000)</f>
         <v>6</v>
       </c>
       <c r="M238">
-        <f t="shared" si="65"/>
-        <v>13</v>
+        <f t="shared" ref="M238:M276" si="75">_xlfn.FLOOR.MATH((G238-L238*10000)/100)</f>
+        <v>12</v>
       </c>
       <c r="N238">
-        <f t="shared" si="66"/>
-        <v>31.19999999999709</v>
+        <f t="shared" ref="N238:N276" si="76">(G238-(L238*10000)-(M238*100))</f>
+        <v>29.230000000003201</v>
       </c>
       <c r="O238">
-        <f t="shared" si="67"/>
-        <v>6.2253333333333325</v>
+        <f t="shared" ref="O238:O276" si="77" xml:space="preserve"> L238 + (M238/60) + (N238/3600)</f>
+        <v>6.2081194444444456</v>
       </c>
     </row>
     <row r="239" spans="1:15" x14ac:dyDescent="0.25">
@@ -16589,10 +16553,10 @@
         <v>426</v>
       </c>
       <c r="B239" t="s">
-        <v>566</v>
+        <v>671</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="D239" t="s">
         <v>557</v>
@@ -16601,44 +16565,44 @@
         <v>558</v>
       </c>
       <c r="F239" t="str">
-        <f t="shared" si="58"/>
-        <v>493805.71</v>
+        <f t="shared" si="68"/>
+        <v>493747.18</v>
       </c>
       <c r="G239" t="str">
-        <f t="shared" si="59"/>
-        <v>0061333.26</v>
+        <f t="shared" si="69"/>
+        <v>0061232.60</v>
       </c>
       <c r="H239">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>49</v>
       </c>
       <c r="I239">
-        <f t="shared" si="61"/>
-        <v>38</v>
+        <f t="shared" si="71"/>
+        <v>37</v>
       </c>
       <c r="J239">
-        <f t="shared" si="62"/>
-        <v>5.7100000000209548</v>
+        <f t="shared" si="72"/>
+        <v>47.179999999993015</v>
       </c>
       <c r="K239">
-        <f t="shared" si="63"/>
-        <v>49.634919444444449</v>
+        <f t="shared" si="73"/>
+        <v>49.629772222222222</v>
       </c>
       <c r="L239">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>6</v>
       </c>
       <c r="M239">
-        <f t="shared" si="65"/>
-        <v>13</v>
+        <f t="shared" si="75"/>
+        <v>12</v>
       </c>
       <c r="N239">
-        <f t="shared" si="66"/>
-        <v>33.260000000002037</v>
+        <f t="shared" si="76"/>
+        <v>32.599999999998545</v>
       </c>
       <c r="O239">
-        <f t="shared" si="67"/>
-        <v>6.2259055555555562</v>
+        <f t="shared" si="77"/>
+        <v>6.2090555555555556</v>
       </c>
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.25">
@@ -16646,56 +16610,56 @@
         <v>426</v>
       </c>
       <c r="B240" t="s">
-        <v>566</v>
+        <v>671</v>
       </c>
       <c r="C240" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="D240" t="s">
         <v>559</v>
       </c>
-      <c r="D240" t="s">
+      <c r="E240" t="s">
         <v>560</v>
       </c>
-      <c r="E240" t="s">
-        <v>561</v>
-      </c>
       <c r="F240" t="str">
-        <f t="shared" si="58"/>
-        <v>493804.47</v>
+        <f t="shared" si="68"/>
+        <v>493748.14</v>
       </c>
       <c r="G240" t="str">
-        <f t="shared" si="59"/>
-        <v>0061332.56</v>
+        <f t="shared" si="69"/>
+        <v>0061236.04</v>
       </c>
       <c r="H240">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>49</v>
       </c>
       <c r="I240">
-        <f t="shared" si="61"/>
-        <v>38</v>
+        <f t="shared" si="71"/>
+        <v>37</v>
       </c>
       <c r="J240">
-        <f t="shared" si="62"/>
-        <v>4.4699999999720603</v>
+        <f t="shared" si="72"/>
+        <v>48.14000000001397</v>
       </c>
       <c r="K240">
-        <f t="shared" si="63"/>
-        <v>49.634574999999991</v>
+        <f t="shared" si="73"/>
+        <v>49.63003888888889</v>
       </c>
       <c r="L240">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>6</v>
       </c>
       <c r="M240">
-        <f t="shared" si="65"/>
-        <v>13</v>
+        <f t="shared" si="75"/>
+        <v>12</v>
       </c>
       <c r="N240">
-        <f t="shared" si="66"/>
-        <v>32.559999999997672</v>
+        <f t="shared" si="76"/>
+        <v>36.040000000000873</v>
       </c>
       <c r="O240">
-        <f t="shared" si="67"/>
-        <v>6.225711111111111</v>
+        <f t="shared" si="77"/>
+        <v>6.2100111111111111</v>
       </c>
     </row>
     <row r="241" spans="1:15" x14ac:dyDescent="0.25">
@@ -16703,56 +16667,56 @@
         <v>426</v>
       </c>
       <c r="B241" t="s">
-        <v>566</v>
+        <v>671</v>
       </c>
       <c r="C241" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="D241" t="s">
+        <v>561</v>
+      </c>
+      <c r="E241" t="s">
         <v>562</v>
       </c>
-      <c r="D241" t="s">
-        <v>563</v>
-      </c>
-      <c r="E241" t="s">
-        <v>564</v>
-      </c>
       <c r="F241" t="str">
-        <f t="shared" si="58"/>
-        <v>493805.69</v>
+        <f t="shared" si="68"/>
+        <v>493749.19</v>
       </c>
       <c r="G241" t="str">
-        <f t="shared" si="59"/>
-        <v>0061331.69</v>
+        <f t="shared" si="69"/>
+        <v>0061239.42</v>
       </c>
       <c r="H241">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>49</v>
       </c>
       <c r="I241">
-        <f t="shared" si="61"/>
-        <v>38</v>
+        <f t="shared" si="71"/>
+        <v>37</v>
       </c>
       <c r="J241">
-        <f t="shared" si="62"/>
-        <v>5.6900000000023283</v>
+        <f t="shared" si="72"/>
+        <v>49.190000000002328</v>
       </c>
       <c r="K241">
-        <f t="shared" si="63"/>
-        <v>49.634913888888889</v>
+        <f t="shared" si="73"/>
+        <v>49.63033055555556</v>
       </c>
       <c r="L241">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>6</v>
       </c>
       <c r="M241">
-        <f t="shared" si="65"/>
-        <v>13</v>
+        <f t="shared" si="75"/>
+        <v>12</v>
       </c>
       <c r="N241">
-        <f t="shared" si="66"/>
-        <v>31.690000000002328</v>
+        <f t="shared" si="76"/>
+        <v>39.419999999998254</v>
       </c>
       <c r="O241">
-        <f t="shared" si="67"/>
-        <v>6.2254694444444452</v>
+        <f t="shared" si="77"/>
+        <v>6.2109499999999995</v>
       </c>
     </row>
     <row r="242" spans="1:15" x14ac:dyDescent="0.25">
@@ -16760,56 +16724,56 @@
         <v>426</v>
       </c>
       <c r="B242" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="D242" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E242" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="F242" t="str">
-        <f t="shared" ref="F242:F280" si="68">SUBSTITUTE( SUBSTITUTE(D242,"N",""),",",".")</f>
-        <v>493746.13</v>
+        <f t="shared" si="68"/>
+        <v>493750.26</v>
       </c>
       <c r="G242" t="str">
-        <f t="shared" ref="G242:G280" si="69">SUBSTITUTE( SUBSTITUTE(E242,"E",""),",",".")</f>
-        <v>0061229.23</v>
+        <f t="shared" si="69"/>
+        <v>0061242.83</v>
       </c>
       <c r="H242">
-        <f t="shared" ref="H242:H280" si="70">_xlfn.FLOOR.MATH(F242/10000)</f>
+        <f t="shared" si="70"/>
         <v>49</v>
       </c>
       <c r="I242">
-        <f t="shared" ref="I242:I280" si="71">_xlfn.FLOOR.MATH((F242-H242*10000)/100)</f>
+        <f t="shared" si="71"/>
         <v>37</v>
       </c>
       <c r="J242">
-        <f t="shared" ref="J242:J280" si="72">(F242-(H242*10000)-(I242*100))</f>
-        <v>46.130000000004657</v>
+        <f t="shared" si="72"/>
+        <v>50.260000000009313</v>
       </c>
       <c r="K242">
-        <f t="shared" ref="K242:K280" si="73" xml:space="preserve"> H242 + (I242/60) + (J242/3600)</f>
-        <v>49.62948055555556</v>
+        <f t="shared" si="73"/>
+        <v>49.630627777777782</v>
       </c>
       <c r="L242">
-        <f t="shared" ref="L242:L280" si="74">_xlfn.FLOOR.MATH(G242/10000)</f>
+        <f t="shared" si="74"/>
         <v>6</v>
       </c>
       <c r="M242">
-        <f t="shared" ref="M242:M280" si="75">_xlfn.FLOOR.MATH((G242-L242*10000)/100)</f>
+        <f t="shared" si="75"/>
         <v>12</v>
       </c>
       <c r="N242">
-        <f t="shared" ref="N242:N280" si="76">(G242-(L242*10000)-(M242*100))</f>
-        <v>29.230000000003201</v>
+        <f t="shared" si="76"/>
+        <v>42.830000000001746</v>
       </c>
       <c r="O242">
-        <f t="shared" ref="O242:O280" si="77" xml:space="preserve"> L242 + (M242/60) + (N242/3600)</f>
-        <v>6.2081194444444456</v>
+        <f t="shared" si="77"/>
+        <v>6.2118972222222233</v>
       </c>
     </row>
     <row r="243" spans="1:15" x14ac:dyDescent="0.25">
@@ -16817,24 +16781,24 @@
         <v>426</v>
       </c>
       <c r="B243" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>679</v>
+        <v>565</v>
       </c>
       <c r="D243" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E243" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="F243" t="str">
         <f t="shared" si="68"/>
-        <v>493747.18</v>
+        <v>493748.90</v>
       </c>
       <c r="G243" t="str">
         <f t="shared" si="69"/>
-        <v>0061232.60</v>
+        <v>0061245.40</v>
       </c>
       <c r="H243">
         <f t="shared" si="70"/>
@@ -16846,11 +16810,11 @@
       </c>
       <c r="J243">
         <f t="shared" si="72"/>
-        <v>47.179999999993015</v>
+        <v>48.900000000023283</v>
       </c>
       <c r="K243">
         <f t="shared" si="73"/>
-        <v>49.629772222222222</v>
+        <v>49.630250000000004</v>
       </c>
       <c r="L243">
         <f t="shared" si="74"/>
@@ -16862,11 +16826,11 @@
       </c>
       <c r="N243">
         <f t="shared" si="76"/>
-        <v>32.599999999998545</v>
+        <v>45.400000000001455</v>
       </c>
       <c r="O243">
         <f t="shared" si="77"/>
-        <v>6.2090555555555556</v>
+        <v>6.2126111111111113</v>
       </c>
     </row>
     <row r="244" spans="1:15" x14ac:dyDescent="0.25">
@@ -16874,24 +16838,24 @@
         <v>426</v>
       </c>
       <c r="B244" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>680</v>
+        <v>568</v>
       </c>
       <c r="D244" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E244" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F244" t="str">
         <f t="shared" si="68"/>
-        <v>493748.14</v>
+        <v>493749.26</v>
       </c>
       <c r="G244" t="str">
         <f t="shared" si="69"/>
-        <v>0061236.04</v>
+        <v>0061246.54</v>
       </c>
       <c r="H244">
         <f t="shared" si="70"/>
@@ -16903,11 +16867,11 @@
       </c>
       <c r="J244">
         <f t="shared" si="72"/>
-        <v>48.14000000001397</v>
+        <v>49.260000000009313</v>
       </c>
       <c r="K244">
         <f t="shared" si="73"/>
-        <v>49.63003888888889</v>
+        <v>49.63035</v>
       </c>
       <c r="L244">
         <f t="shared" si="74"/>
@@ -16919,11 +16883,11 @@
       </c>
       <c r="N244">
         <f t="shared" si="76"/>
-        <v>36.040000000000873</v>
+        <v>46.540000000000873</v>
       </c>
       <c r="O244">
         <f t="shared" si="77"/>
-        <v>6.2100111111111111</v>
+        <v>6.2129277777777778</v>
       </c>
     </row>
     <row r="245" spans="1:15" x14ac:dyDescent="0.25">
@@ -16931,24 +16895,24 @@
         <v>426</v>
       </c>
       <c r="B245" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>681</v>
+        <v>571</v>
       </c>
       <c r="D245" t="s">
+        <v>572</v>
+      </c>
+      <c r="E245" t="s">
         <v>573</v>
-      </c>
-      <c r="E245" t="s">
-        <v>574</v>
       </c>
       <c r="F245" t="str">
         <f t="shared" si="68"/>
-        <v>493749.19</v>
+        <v>493749.07</v>
       </c>
       <c r="G245" t="str">
         <f t="shared" si="69"/>
-        <v>0061239.42</v>
+        <v>0061245.14</v>
       </c>
       <c r="H245">
         <f t="shared" si="70"/>
@@ -16960,11 +16924,11 @@
       </c>
       <c r="J245">
         <f t="shared" si="72"/>
-        <v>49.190000000002328</v>
+        <v>49.070000000006985</v>
       </c>
       <c r="K245">
         <f t="shared" si="73"/>
-        <v>49.63033055555556</v>
+        <v>49.630297222222225</v>
       </c>
       <c r="L245">
         <f t="shared" si="74"/>
@@ -16976,11 +16940,11 @@
       </c>
       <c r="N245">
         <f t="shared" si="76"/>
-        <v>39.419999999998254</v>
+        <v>45.139999999999418</v>
       </c>
       <c r="O245">
         <f t="shared" si="77"/>
-        <v>6.2109499999999995</v>
+        <v>6.2125388888888891</v>
       </c>
     </row>
     <row r="246" spans="1:15" x14ac:dyDescent="0.25">
@@ -16988,10 +16952,10 @@
         <v>426</v>
       </c>
       <c r="B246" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>682</v>
+        <v>574</v>
       </c>
       <c r="D246" t="s">
         <v>575</v>
@@ -17001,11 +16965,11 @@
       </c>
       <c r="F246" t="str">
         <f t="shared" si="68"/>
-        <v>493750.26</v>
+        <v>493749.46</v>
       </c>
       <c r="G246" t="str">
         <f t="shared" si="69"/>
-        <v>0061242.83</v>
+        <v>0061246.38</v>
       </c>
       <c r="H246">
         <f t="shared" si="70"/>
@@ -17017,11 +16981,11 @@
       </c>
       <c r="J246">
         <f t="shared" si="72"/>
-        <v>50.260000000009313</v>
+        <v>49.460000000020955</v>
       </c>
       <c r="K246">
         <f t="shared" si="73"/>
-        <v>49.630627777777782</v>
+        <v>49.630405555555562</v>
       </c>
       <c r="L246">
         <f t="shared" si="74"/>
@@ -17033,11 +16997,11 @@
       </c>
       <c r="N246">
         <f t="shared" si="76"/>
-        <v>42.830000000001746</v>
+        <v>46.379999999997381</v>
       </c>
       <c r="O246">
         <f t="shared" si="77"/>
-        <v>6.2118972222222233</v>
+        <v>6.2128833333333331</v>
       </c>
     </row>
     <row r="247" spans="1:15" x14ac:dyDescent="0.25">
@@ -17045,7 +17009,7 @@
         <v>426</v>
       </c>
       <c r="B247" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>577</v>
@@ -17058,11 +17022,11 @@
       </c>
       <c r="F247" t="str">
         <f t="shared" si="68"/>
-        <v>493748.90</v>
+        <v>493749.74</v>
       </c>
       <c r="G247" t="str">
         <f t="shared" si="69"/>
-        <v>0061245.40</v>
+        <v>0061244.79</v>
       </c>
       <c r="H247">
         <f t="shared" si="70"/>
@@ -17074,11 +17038,11 @@
       </c>
       <c r="J247">
         <f t="shared" si="72"/>
-        <v>48.900000000023283</v>
+        <v>49.739999999990687</v>
       </c>
       <c r="K247">
         <f t="shared" si="73"/>
-        <v>49.630250000000004</v>
+        <v>49.630483333333331</v>
       </c>
       <c r="L247">
         <f t="shared" si="74"/>
@@ -17090,11 +17054,11 @@
       </c>
       <c r="N247">
         <f t="shared" si="76"/>
-        <v>45.400000000001455</v>
+        <v>44.790000000000873</v>
       </c>
       <c r="O247">
         <f t="shared" si="77"/>
-        <v>6.2126111111111113</v>
+        <v>6.2124416666666669</v>
       </c>
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.25">
@@ -17102,7 +17066,7 @@
         <v>426</v>
       </c>
       <c r="B248" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>580</v>
@@ -17115,11 +17079,11 @@
       </c>
       <c r="F248" t="str">
         <f t="shared" si="68"/>
-        <v>493749.26</v>
+        <v>493750.06</v>
       </c>
       <c r="G248" t="str">
         <f t="shared" si="69"/>
-        <v>0061246.54</v>
+        <v>0061245.84</v>
       </c>
       <c r="H248">
         <f t="shared" si="70"/>
@@ -17131,11 +17095,11 @@
       </c>
       <c r="J248">
         <f t="shared" si="72"/>
-        <v>49.260000000009313</v>
+        <v>50.059999999997672</v>
       </c>
       <c r="K248">
         <f t="shared" si="73"/>
-        <v>49.63035</v>
+        <v>49.63057222222222</v>
       </c>
       <c r="L248">
         <f t="shared" si="74"/>
@@ -17147,11 +17111,11 @@
       </c>
       <c r="N248">
         <f t="shared" si="76"/>
-        <v>46.540000000000873</v>
+        <v>45.839999999996508</v>
       </c>
       <c r="O248">
         <f t="shared" si="77"/>
-        <v>6.2129277777777778</v>
+        <v>6.2127333333333326</v>
       </c>
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.25">
@@ -17159,7 +17123,7 @@
         <v>426</v>
       </c>
       <c r="B249" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>583</v>
@@ -17172,11 +17136,11 @@
       </c>
       <c r="F249" t="str">
         <f t="shared" si="68"/>
-        <v>493749.07</v>
+        <v>493750.75</v>
       </c>
       <c r="G249" t="str">
         <f t="shared" si="69"/>
-        <v>0061245.14</v>
+        <v>0061244.06</v>
       </c>
       <c r="H249">
         <f t="shared" si="70"/>
@@ -17188,11 +17152,11 @@
       </c>
       <c r="J249">
         <f t="shared" si="72"/>
-        <v>49.070000000006985</v>
+        <v>50.75</v>
       </c>
       <c r="K249">
         <f t="shared" si="73"/>
-        <v>49.630297222222225</v>
+        <v>49.630763888888886</v>
       </c>
       <c r="L249">
         <f t="shared" si="74"/>
@@ -17204,11 +17168,11 @@
       </c>
       <c r="N249">
         <f t="shared" si="76"/>
-        <v>45.139999999999418</v>
+        <v>44.059999999997672</v>
       </c>
       <c r="O249">
         <f t="shared" si="77"/>
-        <v>6.2125388888888891</v>
+        <v>6.212238888888888</v>
       </c>
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.25">
@@ -17216,7 +17180,7 @@
         <v>426</v>
       </c>
       <c r="B250" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>586</v>
@@ -17229,11 +17193,11 @@
       </c>
       <c r="F250" t="str">
         <f t="shared" si="68"/>
-        <v>493749.46</v>
+        <v>493751.20</v>
       </c>
       <c r="G250" t="str">
         <f t="shared" si="69"/>
-        <v>0061246.38</v>
+        <v>0061245.51</v>
       </c>
       <c r="H250">
         <f t="shared" si="70"/>
@@ -17245,11 +17209,11 @@
       </c>
       <c r="J250">
         <f t="shared" si="72"/>
-        <v>49.460000000020955</v>
+        <v>51.200000000011642</v>
       </c>
       <c r="K250">
         <f t="shared" si="73"/>
-        <v>49.630405555555562</v>
+        <v>49.63088888888889</v>
       </c>
       <c r="L250">
         <f t="shared" si="74"/>
@@ -17261,11 +17225,11 @@
       </c>
       <c r="N250">
         <f t="shared" si="76"/>
-        <v>46.379999999997381</v>
+        <v>45.510000000002037</v>
       </c>
       <c r="O250">
         <f t="shared" si="77"/>
-        <v>6.2128833333333331</v>
+        <v>6.2126416666666673</v>
       </c>
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.25">
@@ -17273,7 +17237,7 @@
         <v>426</v>
       </c>
       <c r="B251" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>589</v>
@@ -17286,11 +17250,11 @@
       </c>
       <c r="F251" t="str">
         <f t="shared" si="68"/>
-        <v>493749.74</v>
+        <v>493750.54</v>
       </c>
       <c r="G251" t="str">
         <f t="shared" si="69"/>
-        <v>0061244.79</v>
+        <v>0061244.15</v>
       </c>
       <c r="H251">
         <f t="shared" si="70"/>
@@ -17302,11 +17266,11 @@
       </c>
       <c r="J251">
         <f t="shared" si="72"/>
-        <v>49.739999999990687</v>
+        <v>50.539999999979045</v>
       </c>
       <c r="K251">
         <f t="shared" si="73"/>
-        <v>49.630483333333331</v>
+        <v>49.630705555555551</v>
       </c>
       <c r="L251">
         <f t="shared" si="74"/>
@@ -17318,11 +17282,11 @@
       </c>
       <c r="N251">
         <f t="shared" si="76"/>
-        <v>44.790000000000873</v>
+        <v>44.150000000001455</v>
       </c>
       <c r="O251">
         <f t="shared" si="77"/>
-        <v>6.2124416666666669</v>
+        <v>6.2122638888888897</v>
       </c>
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.25">
@@ -17330,7 +17294,7 @@
         <v>426</v>
       </c>
       <c r="B252" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>592</v>
@@ -17343,11 +17307,11 @@
       </c>
       <c r="F252" t="str">
         <f t="shared" si="68"/>
-        <v>493750.06</v>
+        <v>493750.90</v>
       </c>
       <c r="G252" t="str">
         <f t="shared" si="69"/>
-        <v>0061245.84</v>
+        <v>0061245.32</v>
       </c>
       <c r="H252">
         <f t="shared" si="70"/>
@@ -17359,11 +17323,11 @@
       </c>
       <c r="J252">
         <f t="shared" si="72"/>
-        <v>50.059999999997672</v>
+        <v>50.900000000023283</v>
       </c>
       <c r="K252">
         <f t="shared" si="73"/>
-        <v>49.63057222222222</v>
+        <v>49.630805555555561</v>
       </c>
       <c r="L252">
         <f t="shared" si="74"/>
@@ -17375,11 +17339,11 @@
       </c>
       <c r="N252">
         <f t="shared" si="76"/>
-        <v>45.839999999996508</v>
+        <v>45.319999999999709</v>
       </c>
       <c r="O252">
         <f t="shared" si="77"/>
-        <v>6.2127333333333326</v>
+        <v>6.2125888888888889</v>
       </c>
     </row>
     <row r="253" spans="1:15" x14ac:dyDescent="0.25">
@@ -17387,7 +17351,7 @@
         <v>426</v>
       </c>
       <c r="B253" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>595</v>
@@ -17400,11 +17364,11 @@
       </c>
       <c r="F253" t="str">
         <f t="shared" si="68"/>
-        <v>493750.75</v>
+        <v>493747.77</v>
       </c>
       <c r="G253" t="str">
         <f t="shared" si="69"/>
-        <v>0061244.06</v>
+        <v>0061241.71</v>
       </c>
       <c r="H253">
         <f t="shared" si="70"/>
@@ -17416,11 +17380,11 @@
       </c>
       <c r="J253">
         <f t="shared" si="72"/>
-        <v>50.75</v>
+        <v>47.770000000018626</v>
       </c>
       <c r="K253">
         <f t="shared" si="73"/>
-        <v>49.630763888888886</v>
+        <v>49.629936111111114</v>
       </c>
       <c r="L253">
         <f t="shared" si="74"/>
@@ -17432,11 +17396,11 @@
       </c>
       <c r="N253">
         <f t="shared" si="76"/>
-        <v>44.059999999997672</v>
+        <v>41.709999999999127</v>
       </c>
       <c r="O253">
         <f t="shared" si="77"/>
-        <v>6.212238888888888</v>
+        <v>6.211586111111111</v>
       </c>
     </row>
     <row r="254" spans="1:15" x14ac:dyDescent="0.25">
@@ -17444,24 +17408,24 @@
         <v>426</v>
       </c>
       <c r="B254" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>598</v>
       </c>
       <c r="D254" t="s">
+        <v>559</v>
+      </c>
+      <c r="E254" t="s">
         <v>599</v>
-      </c>
-      <c r="E254" t="s">
-        <v>600</v>
       </c>
       <c r="F254" t="str">
         <f t="shared" si="68"/>
-        <v>493751.20</v>
+        <v>493748.14</v>
       </c>
       <c r="G254" t="str">
         <f t="shared" si="69"/>
-        <v>0061245.51</v>
+        <v>0061242.90</v>
       </c>
       <c r="H254">
         <f t="shared" si="70"/>
@@ -17473,11 +17437,11 @@
       </c>
       <c r="J254">
         <f t="shared" si="72"/>
-        <v>51.200000000011642</v>
+        <v>48.14000000001397</v>
       </c>
       <c r="K254">
         <f t="shared" si="73"/>
-        <v>49.63088888888889</v>
+        <v>49.63003888888889</v>
       </c>
       <c r="L254">
         <f t="shared" si="74"/>
@@ -17489,11 +17453,11 @@
       </c>
       <c r="N254">
         <f t="shared" si="76"/>
-        <v>45.510000000002037</v>
+        <v>42.900000000001455</v>
       </c>
       <c r="O254">
         <f t="shared" si="77"/>
-        <v>6.2126416666666673</v>
+        <v>6.2119166666666672</v>
       </c>
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.25">
@@ -17501,24 +17465,24 @@
         <v>426</v>
       </c>
       <c r="B255" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C255" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="D255" t="s">
         <v>601</v>
       </c>
-      <c r="D255" t="s">
+      <c r="E255" t="s">
         <v>602</v>
-      </c>
-      <c r="E255" t="s">
-        <v>603</v>
       </c>
       <c r="F255" t="str">
         <f t="shared" si="68"/>
-        <v>493750.54</v>
+        <v>493748.65</v>
       </c>
       <c r="G255" t="str">
         <f t="shared" si="69"/>
-        <v>0061244.15</v>
+        <v>0061241.07</v>
       </c>
       <c r="H255">
         <f t="shared" si="70"/>
@@ -17530,11 +17494,11 @@
       </c>
       <c r="J255">
         <f t="shared" si="72"/>
-        <v>50.539999999979045</v>
+        <v>48.650000000023283</v>
       </c>
       <c r="K255">
         <f t="shared" si="73"/>
-        <v>49.630705555555551</v>
+        <v>49.630180555555562</v>
       </c>
       <c r="L255">
         <f t="shared" si="74"/>
@@ -17546,11 +17510,11 @@
       </c>
       <c r="N255">
         <f t="shared" si="76"/>
-        <v>44.150000000001455</v>
+        <v>41.069999999999709</v>
       </c>
       <c r="O255">
         <f t="shared" si="77"/>
-        <v>6.2122638888888897</v>
+        <v>6.2114083333333339</v>
       </c>
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.25">
@@ -17558,24 +17522,24 @@
         <v>426</v>
       </c>
       <c r="B256" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C256" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="D256" t="s">
         <v>604</v>
       </c>
-      <c r="D256" t="s">
+      <c r="E256" t="s">
         <v>605</v>
-      </c>
-      <c r="E256" t="s">
-        <v>606</v>
       </c>
       <c r="F256" t="str">
         <f t="shared" si="68"/>
-        <v>493750.90</v>
+        <v>493749.02</v>
       </c>
       <c r="G256" t="str">
         <f t="shared" si="69"/>
-        <v>0061245.32</v>
+        <v>0061242.25</v>
       </c>
       <c r="H256">
         <f t="shared" si="70"/>
@@ -17587,11 +17551,11 @@
       </c>
       <c r="J256">
         <f t="shared" si="72"/>
-        <v>50.900000000023283</v>
+        <v>49.020000000018626</v>
       </c>
       <c r="K256">
         <f t="shared" si="73"/>
-        <v>49.630805555555561</v>
+        <v>49.630283333333338</v>
       </c>
       <c r="L256">
         <f t="shared" si="74"/>
@@ -17603,11 +17567,11 @@
       </c>
       <c r="N256">
         <f t="shared" si="76"/>
-        <v>45.319999999999709</v>
+        <v>42.25</v>
       </c>
       <c r="O256">
         <f t="shared" si="77"/>
-        <v>6.2125888888888889</v>
+        <v>6.2117361111111116</v>
       </c>
     </row>
     <row r="257" spans="1:15" x14ac:dyDescent="0.25">
@@ -17615,24 +17579,24 @@
         <v>426</v>
       </c>
       <c r="B257" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C257" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="D257" t="s">
         <v>607</v>
       </c>
-      <c r="D257" t="s">
+      <c r="E257" t="s">
         <v>608</v>
-      </c>
-      <c r="E257" t="s">
-        <v>609</v>
       </c>
       <c r="F257" t="str">
         <f t="shared" si="68"/>
-        <v>493747.77</v>
+        <v>493749.52</v>
       </c>
       <c r="G257" t="str">
         <f t="shared" si="69"/>
-        <v>0061241.71</v>
+        <v>0061240.42</v>
       </c>
       <c r="H257">
         <f t="shared" si="70"/>
@@ -17644,11 +17608,11 @@
       </c>
       <c r="J257">
         <f t="shared" si="72"/>
-        <v>47.770000000018626</v>
+        <v>49.520000000018626</v>
       </c>
       <c r="K257">
         <f t="shared" si="73"/>
-        <v>49.629936111111114</v>
+        <v>49.630422222222229</v>
       </c>
       <c r="L257">
         <f t="shared" si="74"/>
@@ -17660,11 +17624,11 @@
       </c>
       <c r="N257">
         <f t="shared" si="76"/>
-        <v>41.709999999999127</v>
+        <v>40.419999999998254</v>
       </c>
       <c r="O257">
         <f t="shared" si="77"/>
-        <v>6.211586111111111</v>
+        <v>6.2112277777777773</v>
       </c>
     </row>
     <row r="258" spans="1:15" x14ac:dyDescent="0.25">
@@ -17672,24 +17636,24 @@
         <v>426</v>
       </c>
       <c r="B258" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C258" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D258" t="s">
         <v>610</v>
-      </c>
-      <c r="D258" t="s">
-        <v>571</v>
       </c>
       <c r="E258" t="s">
         <v>611</v>
       </c>
       <c r="F258" t="str">
         <f t="shared" si="68"/>
-        <v>493748.14</v>
+        <v>493749.89</v>
       </c>
       <c r="G258" t="str">
         <f t="shared" si="69"/>
-        <v>0061242.90</v>
+        <v>0061241.61</v>
       </c>
       <c r="H258">
         <f t="shared" si="70"/>
@@ -17701,11 +17665,11 @@
       </c>
       <c r="J258">
         <f t="shared" si="72"/>
-        <v>48.14000000001397</v>
+        <v>49.89000000001397</v>
       </c>
       <c r="K258">
         <f t="shared" si="73"/>
-        <v>49.63003888888889</v>
+        <v>49.630525000000006</v>
       </c>
       <c r="L258">
         <f t="shared" si="74"/>
@@ -17717,11 +17681,11 @@
       </c>
       <c r="N258">
         <f t="shared" si="76"/>
-        <v>42.900000000001455</v>
+        <v>41.610000000000582</v>
       </c>
       <c r="O258">
         <f t="shared" si="77"/>
-        <v>6.2119166666666672</v>
+        <v>6.2115583333333335</v>
       </c>
     </row>
     <row r="259" spans="1:15" x14ac:dyDescent="0.25">
@@ -17729,7 +17693,7 @@
         <v>426</v>
       </c>
       <c r="B259" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>612</v>
@@ -17742,11 +17706,11 @@
       </c>
       <c r="F259" t="str">
         <f t="shared" si="68"/>
-        <v>493748.65</v>
+        <v>493746.72</v>
       </c>
       <c r="G259" t="str">
         <f t="shared" si="69"/>
-        <v>0061241.07</v>
+        <v>0061238.31</v>
       </c>
       <c r="H259">
         <f t="shared" si="70"/>
@@ -17758,11 +17722,11 @@
       </c>
       <c r="J259">
         <f t="shared" si="72"/>
-        <v>48.650000000023283</v>
+        <v>46.71999999997206</v>
       </c>
       <c r="K259">
         <f t="shared" si="73"/>
-        <v>49.630180555555562</v>
+        <v>49.629644444444438</v>
       </c>
       <c r="L259">
         <f t="shared" si="74"/>
@@ -17774,11 +17738,11 @@
       </c>
       <c r="N259">
         <f t="shared" si="76"/>
-        <v>41.069999999999709</v>
+        <v>38.309999999997672</v>
       </c>
       <c r="O259">
         <f t="shared" si="77"/>
-        <v>6.2114083333333339</v>
+        <v>6.2106416666666666</v>
       </c>
     </row>
     <row r="260" spans="1:15" x14ac:dyDescent="0.25">
@@ -17786,7 +17750,7 @@
         <v>426</v>
       </c>
       <c r="B260" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>615</v>
@@ -17799,11 +17763,11 @@
       </c>
       <c r="F260" t="str">
         <f t="shared" si="68"/>
-        <v>493749.02</v>
+        <v>493747.08</v>
       </c>
       <c r="G260" t="str">
         <f t="shared" si="69"/>
-        <v>0061242.25</v>
+        <v>0061239.50</v>
       </c>
       <c r="H260">
         <f t="shared" si="70"/>
@@ -17815,11 +17779,11 @@
       </c>
       <c r="J260">
         <f t="shared" si="72"/>
-        <v>49.020000000018626</v>
+        <v>47.080000000016298</v>
       </c>
       <c r="K260">
         <f t="shared" si="73"/>
-        <v>49.630283333333338</v>
+        <v>49.629744444444448</v>
       </c>
       <c r="L260">
         <f t="shared" si="74"/>
@@ -17831,11 +17795,11 @@
       </c>
       <c r="N260">
         <f t="shared" si="76"/>
-        <v>42.25</v>
+        <v>39.5</v>
       </c>
       <c r="O260">
         <f t="shared" si="77"/>
-        <v>6.2117361111111116</v>
+        <v>6.2109722222222228</v>
       </c>
     </row>
     <row r="261" spans="1:15" x14ac:dyDescent="0.25">
@@ -17843,7 +17807,7 @@
         <v>426</v>
       </c>
       <c r="B261" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>618</v>
@@ -17856,11 +17820,11 @@
       </c>
       <c r="F261" t="str">
         <f t="shared" si="68"/>
-        <v>493749.52</v>
+        <v>493747.59</v>
       </c>
       <c r="G261" t="str">
         <f t="shared" si="69"/>
-        <v>0061240.42</v>
+        <v>0061237.67</v>
       </c>
       <c r="H261">
         <f t="shared" si="70"/>
@@ -17872,11 +17836,11 @@
       </c>
       <c r="J261">
         <f t="shared" si="72"/>
-        <v>49.520000000018626</v>
+        <v>47.590000000025611</v>
       </c>
       <c r="K261">
         <f t="shared" si="73"/>
-        <v>49.630422222222229</v>
+        <v>49.629886111111119</v>
       </c>
       <c r="L261">
         <f t="shared" si="74"/>
@@ -17888,11 +17852,11 @@
       </c>
       <c r="N261">
         <f t="shared" si="76"/>
-        <v>40.419999999998254</v>
+        <v>37.669999999998254</v>
       </c>
       <c r="O261">
         <f t="shared" si="77"/>
-        <v>6.2112277777777773</v>
+        <v>6.2104638888888886</v>
       </c>
     </row>
     <row r="262" spans="1:15" x14ac:dyDescent="0.25">
@@ -17900,7 +17864,7 @@
         <v>426</v>
       </c>
       <c r="B262" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>621</v>
@@ -17913,11 +17877,11 @@
       </c>
       <c r="F262" t="str">
         <f t="shared" si="68"/>
-        <v>493749.89</v>
+        <v>493747.96</v>
       </c>
       <c r="G262" t="str">
         <f t="shared" si="69"/>
-        <v>0061241.61</v>
+        <v>0061238.85</v>
       </c>
       <c r="H262">
         <f t="shared" si="70"/>
@@ -17929,11 +17893,11 @@
       </c>
       <c r="J262">
         <f t="shared" si="72"/>
-        <v>49.89000000001397</v>
+        <v>47.960000000020955</v>
       </c>
       <c r="K262">
         <f t="shared" si="73"/>
-        <v>49.630525000000006</v>
+        <v>49.629988888888896</v>
       </c>
       <c r="L262">
         <f t="shared" si="74"/>
@@ -17945,11 +17909,11 @@
       </c>
       <c r="N262">
         <f t="shared" si="76"/>
-        <v>41.610000000000582</v>
+        <v>38.849999999998545</v>
       </c>
       <c r="O262">
         <f t="shared" si="77"/>
-        <v>6.2115583333333335</v>
+        <v>6.2107916666666663</v>
       </c>
     </row>
     <row r="263" spans="1:15" x14ac:dyDescent="0.25">
@@ -17957,7 +17921,7 @@
         <v>426</v>
       </c>
       <c r="B263" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>624</v>
@@ -17970,11 +17934,11 @@
       </c>
       <c r="F263" t="str">
         <f t="shared" si="68"/>
-        <v>493746.72</v>
+        <v>493748.47</v>
       </c>
       <c r="G263" t="str">
         <f t="shared" si="69"/>
-        <v>0061238.31</v>
+        <v>0061237.02</v>
       </c>
       <c r="H263">
         <f t="shared" si="70"/>
@@ -17986,11 +17950,11 @@
       </c>
       <c r="J263">
         <f t="shared" si="72"/>
-        <v>46.71999999997206</v>
+        <v>48.46999999997206</v>
       </c>
       <c r="K263">
         <f t="shared" si="73"/>
-        <v>49.629644444444438</v>
+        <v>49.630130555555546</v>
       </c>
       <c r="L263">
         <f t="shared" si="74"/>
@@ -18002,11 +17966,11 @@
       </c>
       <c r="N263">
         <f t="shared" si="76"/>
-        <v>38.309999999997672</v>
+        <v>37.019999999996799</v>
       </c>
       <c r="O263">
         <f t="shared" si="77"/>
-        <v>6.2106416666666666</v>
+        <v>6.2102833333333329</v>
       </c>
     </row>
     <row r="264" spans="1:15" x14ac:dyDescent="0.25">
@@ -18014,7 +17978,7 @@
         <v>426</v>
       </c>
       <c r="B264" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>627</v>
@@ -18027,11 +17991,11 @@
       </c>
       <c r="F264" t="str">
         <f t="shared" si="68"/>
-        <v>493747.08</v>
+        <v>493748.84</v>
       </c>
       <c r="G264" t="str">
         <f t="shared" si="69"/>
-        <v>0061239.50</v>
+        <v>0061238.21</v>
       </c>
       <c r="H264">
         <f t="shared" si="70"/>
@@ -18043,11 +18007,11 @@
       </c>
       <c r="J264">
         <f t="shared" si="72"/>
-        <v>47.080000000016298</v>
+        <v>48.840000000025611</v>
       </c>
       <c r="K264">
         <f t="shared" si="73"/>
-        <v>49.629744444444448</v>
+        <v>49.630233333333344</v>
       </c>
       <c r="L264">
         <f t="shared" si="74"/>
@@ -18059,11 +18023,11 @@
       </c>
       <c r="N264">
         <f t="shared" si="76"/>
-        <v>39.5</v>
+        <v>38.209999999999127</v>
       </c>
       <c r="O264">
         <f t="shared" si="77"/>
-        <v>6.2109722222222228</v>
+        <v>6.2106138888888891</v>
       </c>
     </row>
     <row r="265" spans="1:15" x14ac:dyDescent="0.25">
@@ -18071,7 +18035,7 @@
         <v>426</v>
       </c>
       <c r="B265" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>630</v>
@@ -18084,11 +18048,11 @@
       </c>
       <c r="F265" t="str">
         <f t="shared" si="68"/>
-        <v>493747.59</v>
+        <v>493745.66</v>
       </c>
       <c r="G265" t="str">
         <f t="shared" si="69"/>
-        <v>0061237.67</v>
+        <v>0061234.94</v>
       </c>
       <c r="H265">
         <f t="shared" si="70"/>
@@ -18100,11 +18064,11 @@
       </c>
       <c r="J265">
         <f t="shared" si="72"/>
-        <v>47.590000000025611</v>
+        <v>45.659999999974389</v>
       </c>
       <c r="K265">
         <f t="shared" si="73"/>
-        <v>49.629886111111119</v>
+        <v>49.629349999999995</v>
       </c>
       <c r="L265">
         <f t="shared" si="74"/>
@@ -18116,11 +18080,11 @@
       </c>
       <c r="N265">
         <f t="shared" si="76"/>
-        <v>37.669999999998254</v>
+        <v>34.940000000002328</v>
       </c>
       <c r="O265">
         <f t="shared" si="77"/>
-        <v>6.2104638888888886</v>
+        <v>6.2097055555555567</v>
       </c>
     </row>
     <row r="266" spans="1:15" x14ac:dyDescent="0.25">
@@ -18128,7 +18092,7 @@
         <v>426</v>
       </c>
       <c r="B266" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>633</v>
@@ -18141,11 +18105,11 @@
       </c>
       <c r="F266" t="str">
         <f t="shared" si="68"/>
-        <v>493747.96</v>
+        <v>493746.03</v>
       </c>
       <c r="G266" t="str">
         <f t="shared" si="69"/>
-        <v>0061238.85</v>
+        <v>0061236.12</v>
       </c>
       <c r="H266">
         <f t="shared" si="70"/>
@@ -18157,11 +18121,11 @@
       </c>
       <c r="J266">
         <f t="shared" si="72"/>
-        <v>47.960000000020955</v>
+        <v>46.03000000002794</v>
       </c>
       <c r="K266">
         <f t="shared" si="73"/>
-        <v>49.629988888888896</v>
+        <v>49.629452777777786</v>
       </c>
       <c r="L266">
         <f t="shared" si="74"/>
@@ -18173,11 +18137,11 @@
       </c>
       <c r="N266">
         <f t="shared" si="76"/>
-        <v>38.849999999998545</v>
+        <v>36.120000000002619</v>
       </c>
       <c r="O266">
         <f t="shared" si="77"/>
-        <v>6.2107916666666663</v>
+        <v>6.2100333333333344</v>
       </c>
     </row>
     <row r="267" spans="1:15" x14ac:dyDescent="0.25">
@@ -18185,7 +18149,7 @@
         <v>426</v>
       </c>
       <c r="B267" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>636</v>
@@ -18198,11 +18162,11 @@
       </c>
       <c r="F267" t="str">
         <f t="shared" si="68"/>
-        <v>493748.47</v>
+        <v>493746.54</v>
       </c>
       <c r="G267" t="str">
         <f t="shared" si="69"/>
-        <v>0061237.02</v>
+        <v>0061234.30</v>
       </c>
       <c r="H267">
         <f t="shared" si="70"/>
@@ -18214,11 +18178,11 @@
       </c>
       <c r="J267">
         <f t="shared" si="72"/>
-        <v>48.46999999997206</v>
+        <v>46.539999999979045</v>
       </c>
       <c r="K267">
         <f t="shared" si="73"/>
-        <v>49.630130555555546</v>
+        <v>49.629594444444436</v>
       </c>
       <c r="L267">
         <f t="shared" si="74"/>
@@ -18230,11 +18194,11 @@
       </c>
       <c r="N267">
         <f t="shared" si="76"/>
-        <v>37.019999999996799</v>
+        <v>34.30000000000291</v>
       </c>
       <c r="O267">
         <f t="shared" si="77"/>
-        <v>6.2102833333333329</v>
+        <v>6.2095277777777786</v>
       </c>
     </row>
     <row r="268" spans="1:15" x14ac:dyDescent="0.25">
@@ -18242,7 +18206,7 @@
         <v>426</v>
       </c>
       <c r="B268" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>639</v>
@@ -18255,11 +18219,11 @@
       </c>
       <c r="F268" t="str">
         <f t="shared" si="68"/>
-        <v>493748.84</v>
+        <v>493746.91</v>
       </c>
       <c r="G268" t="str">
         <f t="shared" si="69"/>
-        <v>0061238.21</v>
+        <v>0061235.48</v>
       </c>
       <c r="H268">
         <f t="shared" si="70"/>
@@ -18271,11 +18235,11 @@
       </c>
       <c r="J268">
         <f t="shared" si="72"/>
-        <v>48.840000000025611</v>
+        <v>46.909999999974389</v>
       </c>
       <c r="K268">
         <f t="shared" si="73"/>
-        <v>49.630233333333344</v>
+        <v>49.629697222222212</v>
       </c>
       <c r="L268">
         <f t="shared" si="74"/>
@@ -18287,11 +18251,11 @@
       </c>
       <c r="N268">
         <f t="shared" si="76"/>
-        <v>38.209999999999127</v>
+        <v>35.480000000003201</v>
       </c>
       <c r="O268">
         <f t="shared" si="77"/>
-        <v>6.2106138888888891</v>
+        <v>6.2098555555555564</v>
       </c>
     </row>
     <row r="269" spans="1:15" x14ac:dyDescent="0.25">
@@ -18299,7 +18263,7 @@
         <v>426</v>
       </c>
       <c r="B269" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>642</v>
@@ -18312,11 +18276,11 @@
       </c>
       <c r="F269" t="str">
         <f t="shared" si="68"/>
-        <v>493745.66</v>
+        <v>493747.41</v>
       </c>
       <c r="G269" t="str">
         <f t="shared" si="69"/>
-        <v>0061234.94</v>
+        <v>0061233.65</v>
       </c>
       <c r="H269">
         <f t="shared" si="70"/>
@@ -18328,11 +18292,11 @@
       </c>
       <c r="J269">
         <f t="shared" si="72"/>
-        <v>45.659999999974389</v>
+        <v>47.409999999974389</v>
       </c>
       <c r="K269">
         <f t="shared" si="73"/>
-        <v>49.629349999999995</v>
+        <v>49.629836111111103</v>
       </c>
       <c r="L269">
         <f t="shared" si="74"/>
@@ -18344,11 +18308,11 @@
       </c>
       <c r="N269">
         <f t="shared" si="76"/>
-        <v>34.940000000002328</v>
+        <v>33.650000000001455</v>
       </c>
       <c r="O269">
         <f t="shared" si="77"/>
-        <v>6.2097055555555567</v>
+        <v>6.209347222222223</v>
       </c>
     </row>
     <row r="270" spans="1:15" x14ac:dyDescent="0.25">
@@ -18356,7 +18320,7 @@
         <v>426</v>
       </c>
       <c r="B270" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>645</v>
@@ -18369,11 +18333,11 @@
       </c>
       <c r="F270" t="str">
         <f t="shared" si="68"/>
-        <v>493746.03</v>
+        <v>493747.78</v>
       </c>
       <c r="G270" t="str">
         <f t="shared" si="69"/>
-        <v>0061236.12</v>
+        <v>0061234.83</v>
       </c>
       <c r="H270">
         <f t="shared" si="70"/>
@@ -18385,11 +18349,11 @@
       </c>
       <c r="J270">
         <f t="shared" si="72"/>
-        <v>46.03000000002794</v>
+        <v>47.78000000002794</v>
       </c>
       <c r="K270">
         <f t="shared" si="73"/>
-        <v>49.629452777777786</v>
+        <v>49.629938888888894</v>
       </c>
       <c r="L270">
         <f t="shared" si="74"/>
@@ -18401,11 +18365,11 @@
       </c>
       <c r="N270">
         <f t="shared" si="76"/>
-        <v>36.120000000002619</v>
+        <v>34.830000000001746</v>
       </c>
       <c r="O270">
         <f t="shared" si="77"/>
-        <v>6.2100333333333344</v>
+        <v>6.2096750000000007</v>
       </c>
     </row>
     <row r="271" spans="1:15" x14ac:dyDescent="0.25">
@@ -18413,7 +18377,7 @@
         <v>426</v>
       </c>
       <c r="B271" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>648</v>
@@ -18426,11 +18390,11 @@
       </c>
       <c r="F271" t="str">
         <f t="shared" si="68"/>
-        <v>493746.54</v>
+        <v>493744.61</v>
       </c>
       <c r="G271" t="str">
         <f t="shared" si="69"/>
-        <v>0061234.30</v>
+        <v>0061231.56</v>
       </c>
       <c r="H271">
         <f t="shared" si="70"/>
@@ -18442,11 +18406,11 @@
       </c>
       <c r="J271">
         <f t="shared" si="72"/>
-        <v>46.539999999979045</v>
+        <v>44.60999999998603</v>
       </c>
       <c r="K271">
         <f t="shared" si="73"/>
-        <v>49.629594444444436</v>
+        <v>49.629058333333333</v>
       </c>
       <c r="L271">
         <f t="shared" si="74"/>
@@ -18458,11 +18422,11 @@
       </c>
       <c r="N271">
         <f t="shared" si="76"/>
-        <v>34.30000000000291</v>
+        <v>31.559999999997672</v>
       </c>
       <c r="O271">
         <f t="shared" si="77"/>
-        <v>6.2095277777777786</v>
+        <v>6.2087666666666665</v>
       </c>
     </row>
     <row r="272" spans="1:15" x14ac:dyDescent="0.25">
@@ -18470,7 +18434,7 @@
         <v>426</v>
       </c>
       <c r="B272" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>651</v>
@@ -18483,11 +18447,11 @@
       </c>
       <c r="F272" t="str">
         <f t="shared" si="68"/>
-        <v>493746.91</v>
+        <v>493744.98</v>
       </c>
       <c r="G272" t="str">
         <f t="shared" si="69"/>
-        <v>0061235.48</v>
+        <v>0061232.75</v>
       </c>
       <c r="H272">
         <f t="shared" si="70"/>
@@ -18499,11 +18463,11 @@
       </c>
       <c r="J272">
         <f t="shared" si="72"/>
-        <v>46.909999999974389</v>
+        <v>44.979999999981374</v>
       </c>
       <c r="K272">
         <f t="shared" si="73"/>
-        <v>49.629697222222212</v>
+        <v>49.62916111111111</v>
       </c>
       <c r="L272">
         <f t="shared" si="74"/>
@@ -18515,11 +18479,11 @@
       </c>
       <c r="N272">
         <f t="shared" si="76"/>
-        <v>35.480000000003201</v>
+        <v>32.75</v>
       </c>
       <c r="O272">
         <f t="shared" si="77"/>
-        <v>6.2098555555555564</v>
+        <v>6.2090972222222227</v>
       </c>
     </row>
     <row r="273" spans="1:15" x14ac:dyDescent="0.25">
@@ -18527,7 +18491,7 @@
         <v>426</v>
       </c>
       <c r="B273" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>654</v>
@@ -18540,11 +18504,11 @@
       </c>
       <c r="F273" t="str">
         <f t="shared" si="68"/>
-        <v>493747.41</v>
+        <v>493745.49</v>
       </c>
       <c r="G273" t="str">
         <f t="shared" si="69"/>
-        <v>0061233.65</v>
+        <v>0061230.92</v>
       </c>
       <c r="H273">
         <f t="shared" si="70"/>
@@ -18556,11 +18520,11 @@
       </c>
       <c r="J273">
         <f t="shared" si="72"/>
-        <v>47.409999999974389</v>
+        <v>45.489999999990687</v>
       </c>
       <c r="K273">
         <f t="shared" si="73"/>
-        <v>49.629836111111103</v>
+        <v>49.629302777777774</v>
       </c>
       <c r="L273">
         <f t="shared" si="74"/>
@@ -18572,11 +18536,11 @@
       </c>
       <c r="N273">
         <f t="shared" si="76"/>
-        <v>33.650000000001455</v>
+        <v>30.919999999998254</v>
       </c>
       <c r="O273">
         <f t="shared" si="77"/>
-        <v>6.209347222222223</v>
+        <v>6.2085888888888885</v>
       </c>
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.25">
@@ -18584,7 +18548,7 @@
         <v>426</v>
       </c>
       <c r="B274" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>657</v>
@@ -18597,11 +18561,11 @@
       </c>
       <c r="F274" t="str">
         <f t="shared" si="68"/>
-        <v>493747.78</v>
+        <v>493745.86</v>
       </c>
       <c r="G274" t="str">
         <f t="shared" si="69"/>
-        <v>0061234.83</v>
+        <v>0061232.10</v>
       </c>
       <c r="H274">
         <f t="shared" si="70"/>
@@ -18613,11 +18577,11 @@
       </c>
       <c r="J274">
         <f t="shared" si="72"/>
-        <v>47.78000000002794</v>
+        <v>45.85999999998603</v>
       </c>
       <c r="K274">
         <f t="shared" si="73"/>
-        <v>49.629938888888894</v>
+        <v>49.62940555555555</v>
       </c>
       <c r="L274">
         <f t="shared" si="74"/>
@@ -18629,11 +18593,11 @@
       </c>
       <c r="N274">
         <f t="shared" si="76"/>
-        <v>34.830000000001746</v>
+        <v>32.099999999998545</v>
       </c>
       <c r="O274">
         <f t="shared" si="77"/>
-        <v>6.2096750000000007</v>
+        <v>6.2089166666666662</v>
       </c>
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.25">
@@ -18641,7 +18605,7 @@
         <v>426</v>
       </c>
       <c r="B275" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>660</v>
@@ -18654,11 +18618,11 @@
       </c>
       <c r="F275" t="str">
         <f t="shared" si="68"/>
-        <v>493744.61</v>
+        <v>493746.37</v>
       </c>
       <c r="G275" t="str">
         <f t="shared" si="69"/>
-        <v>0061231.56</v>
+        <v>0061230.27</v>
       </c>
       <c r="H275">
         <f t="shared" si="70"/>
@@ -18670,11 +18634,11 @@
       </c>
       <c r="J275">
         <f t="shared" si="72"/>
-        <v>44.60999999998603</v>
+        <v>46.369999999995343</v>
       </c>
       <c r="K275">
         <f t="shared" si="73"/>
-        <v>49.629058333333333</v>
+        <v>49.629547222222222</v>
       </c>
       <c r="L275">
         <f t="shared" si="74"/>
@@ -18686,11 +18650,11 @@
       </c>
       <c r="N275">
         <f t="shared" si="76"/>
-        <v>31.559999999997672</v>
+        <v>30.269999999996799</v>
       </c>
       <c r="O275">
         <f t="shared" si="77"/>
-        <v>6.2087666666666665</v>
+        <v>6.2084083333333329</v>
       </c>
     </row>
     <row r="276" spans="1:15" x14ac:dyDescent="0.25">
@@ -18698,7 +18662,7 @@
         <v>426</v>
       </c>
       <c r="B276" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>663</v>
@@ -18711,11 +18675,11 @@
       </c>
       <c r="F276" t="str">
         <f t="shared" si="68"/>
-        <v>493744.98</v>
+        <v>493746.73</v>
       </c>
       <c r="G276" t="str">
         <f t="shared" si="69"/>
-        <v>0061232.75</v>
+        <v>0061231.46</v>
       </c>
       <c r="H276">
         <f t="shared" si="70"/>
@@ -18727,11 +18691,11 @@
       </c>
       <c r="J276">
         <f t="shared" si="72"/>
-        <v>44.979999999981374</v>
+        <v>46.729999999981374</v>
       </c>
       <c r="K276">
         <f t="shared" si="73"/>
-        <v>49.62916111111111</v>
+        <v>49.629647222222218</v>
       </c>
       <c r="L276">
         <f t="shared" si="74"/>
@@ -18743,11 +18707,11 @@
       </c>
       <c r="N276">
         <f t="shared" si="76"/>
-        <v>32.75</v>
+        <v>31.459999999999127</v>
       </c>
       <c r="O276">
         <f t="shared" si="77"/>
-        <v>6.2090972222222227</v>
+        <v>6.208738888888889</v>
       </c>
     </row>
     <row r="277" spans="1:15" x14ac:dyDescent="0.25">
@@ -18755,56 +18719,16 @@
         <v>426</v>
       </c>
       <c r="B277" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="D277" t="s">
-        <v>667</v>
-      </c>
-      <c r="E277" t="s">
-        <v>668</v>
-      </c>
-      <c r="F277" t="str">
-        <f t="shared" si="68"/>
-        <v>493745.49</v>
-      </c>
-      <c r="G277" t="str">
-        <f t="shared" si="69"/>
-        <v>0061230.92</v>
-      </c>
-      <c r="H277">
-        <f t="shared" si="70"/>
-        <v>49</v>
-      </c>
-      <c r="I277">
-        <f t="shared" si="71"/>
-        <v>37</v>
-      </c>
-      <c r="J277">
-        <f t="shared" si="72"/>
-        <v>45.489999999990687</v>
+        <v>414</v>
       </c>
       <c r="K277">
-        <f t="shared" si="73"/>
-        <v>49.629302777777774</v>
-      </c>
-      <c r="L277">
-        <f t="shared" si="74"/>
-        <v>6</v>
-      </c>
-      <c r="M277">
-        <f t="shared" si="75"/>
-        <v>12</v>
-      </c>
-      <c r="N277">
-        <f t="shared" si="76"/>
-        <v>30.919999999998254</v>
+        <v>49.624943866443502</v>
       </c>
       <c r="O277">
-        <f t="shared" si="77"/>
-        <v>6.2085888888888885</v>
+        <v>6.1994265807706901</v>
       </c>
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.25">
@@ -18812,56 +18736,16 @@
         <v>426</v>
       </c>
       <c r="B278" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="D278" t="s">
-        <v>670</v>
-      </c>
-      <c r="E278" t="s">
-        <v>671</v>
-      </c>
-      <c r="F278" t="str">
-        <f t="shared" si="68"/>
-        <v>493745.86</v>
-      </c>
-      <c r="G278" t="str">
-        <f t="shared" si="69"/>
-        <v>0061232.10</v>
-      </c>
-      <c r="H278">
-        <f t="shared" si="70"/>
-        <v>49</v>
-      </c>
-      <c r="I278">
-        <f t="shared" si="71"/>
-        <v>37</v>
-      </c>
-      <c r="J278">
-        <f t="shared" si="72"/>
-        <v>45.85999999998603</v>
+        <v>415</v>
       </c>
       <c r="K278">
-        <f t="shared" si="73"/>
-        <v>49.62940555555555</v>
-      </c>
-      <c r="L278">
-        <f t="shared" si="74"/>
-        <v>6</v>
-      </c>
-      <c r="M278">
-        <f t="shared" si="75"/>
-        <v>12</v>
-      </c>
-      <c r="N278">
-        <f t="shared" si="76"/>
-        <v>32.099999999998545</v>
+        <v>49.624679750603597</v>
       </c>
       <c r="O278">
-        <f t="shared" si="77"/>
-        <v>6.2089166666666662</v>
+        <v>6.1989115939364696</v>
       </c>
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.25">
@@ -18869,56 +18753,16 @@
         <v>426</v>
       </c>
       <c r="B279" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="D279" t="s">
-        <v>673</v>
-      </c>
-      <c r="E279" t="s">
-        <v>674</v>
-      </c>
-      <c r="F279" t="str">
-        <f t="shared" si="68"/>
-        <v>493746.37</v>
-      </c>
-      <c r="G279" t="str">
-        <f t="shared" si="69"/>
-        <v>0061230.27</v>
-      </c>
-      <c r="H279">
-        <f t="shared" si="70"/>
-        <v>49</v>
-      </c>
-      <c r="I279">
-        <f t="shared" si="71"/>
-        <v>37</v>
-      </c>
-      <c r="J279">
-        <f t="shared" si="72"/>
-        <v>46.369999999995343</v>
+        <v>416</v>
       </c>
       <c r="K279">
-        <f t="shared" si="73"/>
-        <v>49.629547222222222</v>
-      </c>
-      <c r="L279">
-        <f t="shared" si="74"/>
-        <v>6</v>
-      </c>
-      <c r="M279">
-        <f t="shared" si="75"/>
-        <v>12</v>
-      </c>
-      <c r="N279">
-        <f t="shared" si="76"/>
-        <v>30.269999999996799</v>
+        <v>49.624418610358397</v>
       </c>
       <c r="O279">
-        <f t="shared" si="77"/>
-        <v>6.2084083333333329</v>
+        <v>6.1981143486112096</v>
       </c>
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.25">
@@ -18926,56 +18770,16 @@
         <v>426</v>
       </c>
       <c r="B280" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="D280" t="s">
-        <v>676</v>
-      </c>
-      <c r="E280" t="s">
-        <v>677</v>
-      </c>
-      <c r="F280" t="str">
-        <f t="shared" si="68"/>
-        <v>493746.73</v>
-      </c>
-      <c r="G280" t="str">
-        <f t="shared" si="69"/>
-        <v>0061231.46</v>
-      </c>
-      <c r="H280">
-        <f t="shared" si="70"/>
-        <v>49</v>
-      </c>
-      <c r="I280">
-        <f t="shared" si="71"/>
-        <v>37</v>
-      </c>
-      <c r="J280">
-        <f t="shared" si="72"/>
-        <v>46.729999999981374</v>
+        <v>417</v>
       </c>
       <c r="K280">
-        <f t="shared" si="73"/>
-        <v>49.629647222222218</v>
-      </c>
-      <c r="L280">
-        <f t="shared" si="74"/>
-        <v>6</v>
-      </c>
-      <c r="M280">
-        <f t="shared" si="75"/>
-        <v>12</v>
-      </c>
-      <c r="N280">
-        <f t="shared" si="76"/>
-        <v>31.459999999999127</v>
+        <v>49.624057176372503</v>
       </c>
       <c r="O280">
-        <f t="shared" si="77"/>
-        <v>6.208738888888889</v>
+        <v>6.1972882396987803</v>
       </c>
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.25">
@@ -18983,16 +18787,16 @@
         <v>426</v>
       </c>
       <c r="B281" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>414</v>
+        <v>675</v>
       </c>
       <c r="K281">
-        <v>49.624943866443502</v>
+        <v>49.617411383833499</v>
       </c>
       <c r="O281">
-        <v>6.1994265807706901</v>
+        <v>6.1998207863052102</v>
       </c>
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.25">
@@ -19000,83 +18804,15 @@
         <v>426</v>
       </c>
       <c r="B282" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>415</v>
+        <v>676</v>
       </c>
       <c r="K282">
-        <v>49.624679750603597</v>
+        <v>49.617793692219699</v>
       </c>
       <c r="O282">
-        <v>6.1989115939364696</v>
-      </c>
-    </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>426</v>
-      </c>
-      <c r="B283" t="s">
-        <v>684</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="K283">
-        <v>49.624418610358397</v>
-      </c>
-      <c r="O283">
-        <v>6.1981143486112096</v>
-      </c>
-    </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>426</v>
-      </c>
-      <c r="B284" t="s">
-        <v>684</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="K284">
-        <v>49.624057176372503</v>
-      </c>
-      <c r="O284">
-        <v>6.1972882396987803</v>
-      </c>
-    </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>426</v>
-      </c>
-      <c r="B285" t="s">
-        <v>686</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="K285">
-        <v>49.617411383833499</v>
-      </c>
-      <c r="O285">
-        <v>6.1998207863052102</v>
-      </c>
-    </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>426</v>
-      </c>
-      <c r="B286" t="s">
-        <v>686</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="K286">
-        <v>49.617793692219699</v>
-      </c>
-      <c r="O286">
         <v>6.2009902293549599</v>
       </c>
     </row>

--- a/api/data/gates_db.xlsx
+++ b/api/data/gates_db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\belux\belux-gate-manager-api\api\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7279F4E2-DCF1-49E3-A188-BA9017860486}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CABC5F-F6DB-4C8E-8112-7AEE28C13CB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{A18B69D9-28ED-47D3-8556-C314F1DB8CFD}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{A18B69D9-28ED-47D3-8556-C314F1DB8CFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -2637,48 +2637,9 @@
     <t>0061310.81E</t>
   </si>
   <si>
-    <t>A02</t>
-  </si>
-  <si>
-    <t>A04</t>
-  </si>
-  <si>
-    <t>A06</t>
-  </si>
-  <si>
-    <t>A08</t>
-  </si>
-  <si>
     <t>A12</t>
   </si>
   <si>
-    <t>B01</t>
-  </si>
-  <si>
-    <t>B02</t>
-  </si>
-  <si>
-    <t>B03</t>
-  </si>
-  <si>
-    <t>B04</t>
-  </si>
-  <si>
-    <t>B05</t>
-  </si>
-  <si>
-    <t>B06</t>
-  </si>
-  <si>
-    <t>B07</t>
-  </si>
-  <si>
-    <t>B08</t>
-  </si>
-  <si>
-    <t>B09</t>
-  </si>
-  <si>
     <t>apron-P1-A-nonshengen</t>
   </si>
   <si>
@@ -3175,6 +3136,45 @@
   </si>
   <si>
     <t>MNT2</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>B9</t>
   </si>
 </sst>
 </file>
@@ -3612,8 +3612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A74C131-8C0C-4CF6-B99D-A6421F63E231}">
   <dimension ref="A1:O282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B225" sqref="B225"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C238" sqref="C238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9165,7 +9165,7 @@
         <v>49</v>
       </c>
       <c r="E98" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="F98" t="str">
         <f t="shared" si="17"/>
@@ -14216,10 +14216,10 @@
         <v>426</v>
       </c>
       <c r="B198" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>497</v>
+        <v>664</v>
       </c>
       <c r="D198" t="s">
         <v>427</v>
@@ -14273,10 +14273,10 @@
         <v>426</v>
       </c>
       <c r="B199" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>498</v>
+        <v>665</v>
       </c>
       <c r="D199" t="s">
         <v>429</v>
@@ -14330,10 +14330,10 @@
         <v>426</v>
       </c>
       <c r="B200" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>499</v>
+        <v>666</v>
       </c>
       <c r="D200" t="s">
         <v>431</v>
@@ -14387,10 +14387,10 @@
         <v>426</v>
       </c>
       <c r="B201" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="D201" t="s">
         <v>433</v>
@@ -14444,7 +14444,7 @@
         <v>426</v>
       </c>
       <c r="B202" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>435</v>
@@ -14501,10 +14501,10 @@
         <v>426</v>
       </c>
       <c r="B203" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D203" t="s">
         <v>438</v>
@@ -14558,7 +14558,7 @@
         <v>426</v>
       </c>
       <c r="B204" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>440</v>
@@ -14615,10 +14615,10 @@
         <v>426</v>
       </c>
       <c r="B205" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>502</v>
+        <v>668</v>
       </c>
       <c r="D205" t="s">
         <v>443</v>
@@ -14672,10 +14672,10 @@
         <v>426</v>
       </c>
       <c r="B206" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>503</v>
+        <v>669</v>
       </c>
       <c r="D206" t="s">
         <v>445</v>
@@ -14729,10 +14729,10 @@
         <v>426</v>
       </c>
       <c r="B207" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>504</v>
+        <v>670</v>
       </c>
       <c r="D207" t="s">
         <v>447</v>
@@ -14786,10 +14786,10 @@
         <v>426</v>
       </c>
       <c r="B208" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>505</v>
+        <v>671</v>
       </c>
       <c r="D208" t="s">
         <v>449</v>
@@ -14843,10 +14843,10 @@
         <v>426</v>
       </c>
       <c r="B209" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>506</v>
+        <v>672</v>
       </c>
       <c r="D209" t="s">
         <v>451</v>
@@ -14900,10 +14900,10 @@
         <v>426</v>
       </c>
       <c r="B210" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>507</v>
+        <v>673</v>
       </c>
       <c r="D210" t="s">
         <v>453</v>
@@ -14957,10 +14957,10 @@
         <v>426</v>
       </c>
       <c r="B211" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>508</v>
+        <v>674</v>
       </c>
       <c r="D211" t="s">
         <v>455</v>
@@ -15014,10 +15014,10 @@
         <v>426</v>
       </c>
       <c r="B212" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>509</v>
+        <v>675</v>
       </c>
       <c r="D212" t="s">
         <v>457</v>
@@ -15071,10 +15071,10 @@
         <v>426</v>
       </c>
       <c r="B213" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>510</v>
+        <v>676</v>
       </c>
       <c r="D213" t="s">
         <v>459</v>
@@ -15128,7 +15128,7 @@
         <v>426</v>
       </c>
       <c r="B214" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>461</v>
@@ -15185,7 +15185,7 @@
         <v>426</v>
       </c>
       <c r="B215" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>464</v>
@@ -15242,7 +15242,7 @@
         <v>426</v>
       </c>
       <c r="B216" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>467</v>
@@ -15299,7 +15299,7 @@
         <v>426</v>
       </c>
       <c r="B217" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>470</v>
@@ -15356,7 +15356,7 @@
         <v>426</v>
       </c>
       <c r="B218" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>473</v>
@@ -15413,7 +15413,7 @@
         <v>426</v>
       </c>
       <c r="B219" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>476</v>
@@ -15470,7 +15470,7 @@
         <v>426</v>
       </c>
       <c r="B220" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>479</v>
@@ -15527,7 +15527,7 @@
         <v>426</v>
       </c>
       <c r="B221" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>482</v>
@@ -15584,7 +15584,7 @@
         <v>426</v>
       </c>
       <c r="B222" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>485</v>
@@ -15641,7 +15641,7 @@
         <v>426</v>
       </c>
       <c r="B223" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>488</v>
@@ -15698,7 +15698,7 @@
         <v>426</v>
       </c>
       <c r="B224" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>491</v>
@@ -15755,7 +15755,7 @@
         <v>426</v>
       </c>
       <c r="B225" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>494</v>
@@ -15812,16 +15812,16 @@
         <v>426</v>
       </c>
       <c r="B226" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="D226" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="E226" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="F226" t="str">
         <f t="shared" ref="F226:F237" si="58">SUBSTITUTE( SUBSTITUTE(D226,"N",""),",",".")</f>
@@ -15869,16 +15869,16 @@
         <v>426</v>
       </c>
       <c r="B227" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="D227" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="E227" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="F227" t="str">
         <f t="shared" si="58"/>
@@ -15926,16 +15926,16 @@
         <v>426</v>
       </c>
       <c r="B228" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="D228" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="E228" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="F228" t="str">
         <f t="shared" si="58"/>
@@ -15983,16 +15983,16 @@
         <v>426</v>
       </c>
       <c r="B229" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="D229" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="E229" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="F229" t="str">
         <f t="shared" si="58"/>
@@ -16040,16 +16040,16 @@
         <v>426</v>
       </c>
       <c r="B230" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="D230" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="E230" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="F230" t="str">
         <f t="shared" si="58"/>
@@ -16097,16 +16097,16 @@
         <v>426</v>
       </c>
       <c r="B231" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="D231" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="E231" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="F231" t="str">
         <f t="shared" si="58"/>
@@ -16154,16 +16154,16 @@
         <v>426</v>
       </c>
       <c r="B232" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="D232" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E232" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="F232" t="str">
         <f t="shared" si="58"/>
@@ -16211,16 +16211,16 @@
         <v>426</v>
       </c>
       <c r="B233" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="D233" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="E233" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="F233" t="str">
         <f t="shared" si="58"/>
@@ -16268,16 +16268,16 @@
         <v>426</v>
       </c>
       <c r="B234" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="D234" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="E234" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="F234" t="str">
         <f t="shared" si="58"/>
@@ -16325,16 +16325,16 @@
         <v>426</v>
       </c>
       <c r="B235" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="D235" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="E235" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="F235" t="str">
         <f t="shared" si="58"/>
@@ -16382,16 +16382,16 @@
         <v>426</v>
       </c>
       <c r="B236" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="D236" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="E236" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="F236" t="str">
         <f t="shared" si="58"/>
@@ -16439,16 +16439,16 @@
         <v>426</v>
       </c>
       <c r="B237" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="D237" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="E237" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="F237" t="str">
         <f t="shared" si="58"/>
@@ -16496,16 +16496,16 @@
         <v>426</v>
       </c>
       <c r="B238" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="D238" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="E238" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="F238" t="str">
         <f t="shared" ref="F238:F276" si="68">SUBSTITUTE( SUBSTITUTE(D238,"N",""),",",".")</f>
@@ -16553,16 +16553,16 @@
         <v>426</v>
       </c>
       <c r="B239" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="D239" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="E239" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="F239" t="str">
         <f t="shared" si="68"/>
@@ -16610,16 +16610,16 @@
         <v>426</v>
       </c>
       <c r="B240" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="D240" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="E240" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="F240" t="str">
         <f t="shared" si="68"/>
@@ -16667,16 +16667,16 @@
         <v>426</v>
       </c>
       <c r="B241" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="D241" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="E241" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="F241" t="str">
         <f t="shared" si="68"/>
@@ -16724,16 +16724,16 @@
         <v>426</v>
       </c>
       <c r="B242" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="D242" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="E242" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="F242" t="str">
         <f t="shared" si="68"/>
@@ -16781,16 +16781,16 @@
         <v>426</v>
       </c>
       <c r="B243" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="D243" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="E243" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="F243" t="str">
         <f t="shared" si="68"/>
@@ -16838,16 +16838,16 @@
         <v>426</v>
       </c>
       <c r="B244" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="D244" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="E244" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="F244" t="str">
         <f t="shared" si="68"/>
@@ -16895,16 +16895,16 @@
         <v>426</v>
       </c>
       <c r="B245" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="D245" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="E245" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="F245" t="str">
         <f t="shared" si="68"/>
@@ -16952,16 +16952,16 @@
         <v>426</v>
       </c>
       <c r="B246" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="D246" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="E246" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="F246" t="str">
         <f t="shared" si="68"/>
@@ -17009,16 +17009,16 @@
         <v>426</v>
       </c>
       <c r="B247" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="D247" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="E247" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="F247" t="str">
         <f t="shared" si="68"/>
@@ -17066,16 +17066,16 @@
         <v>426</v>
       </c>
       <c r="B248" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="D248" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="E248" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="F248" t="str">
         <f t="shared" si="68"/>
@@ -17123,16 +17123,16 @@
         <v>426</v>
       </c>
       <c r="B249" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="D249" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="E249" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="F249" t="str">
         <f t="shared" si="68"/>
@@ -17180,16 +17180,16 @@
         <v>426</v>
       </c>
       <c r="B250" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="D250" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="E250" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="F250" t="str">
         <f t="shared" si="68"/>
@@ -17237,16 +17237,16 @@
         <v>426</v>
       </c>
       <c r="B251" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="D251" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="E251" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="F251" t="str">
         <f t="shared" si="68"/>
@@ -17294,16 +17294,16 @@
         <v>426</v>
       </c>
       <c r="B252" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="D252" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="E252" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="F252" t="str">
         <f t="shared" si="68"/>
@@ -17351,16 +17351,16 @@
         <v>426</v>
       </c>
       <c r="B253" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="D253" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="E253" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="F253" t="str">
         <f t="shared" si="68"/>
@@ -17408,16 +17408,16 @@
         <v>426</v>
       </c>
       <c r="B254" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="D254" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="E254" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="F254" t="str">
         <f t="shared" si="68"/>
@@ -17465,16 +17465,16 @@
         <v>426</v>
       </c>
       <c r="B255" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="D255" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="E255" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="F255" t="str">
         <f t="shared" si="68"/>
@@ -17522,16 +17522,16 @@
         <v>426</v>
       </c>
       <c r="B256" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="D256" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="E256" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="F256" t="str">
         <f t="shared" si="68"/>
@@ -17579,16 +17579,16 @@
         <v>426</v>
       </c>
       <c r="B257" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="D257" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="E257" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="F257" t="str">
         <f t="shared" si="68"/>
@@ -17636,16 +17636,16 @@
         <v>426</v>
       </c>
       <c r="B258" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="D258" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="E258" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="F258" t="str">
         <f t="shared" si="68"/>
@@ -17693,16 +17693,16 @@
         <v>426</v>
       </c>
       <c r="B259" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="D259" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="E259" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="F259" t="str">
         <f t="shared" si="68"/>
@@ -17750,16 +17750,16 @@
         <v>426</v>
       </c>
       <c r="B260" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="D260" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="E260" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="F260" t="str">
         <f t="shared" si="68"/>
@@ -17807,16 +17807,16 @@
         <v>426</v>
       </c>
       <c r="B261" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="D261" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="E261" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="F261" t="str">
         <f t="shared" si="68"/>
@@ -17864,16 +17864,16 @@
         <v>426</v>
       </c>
       <c r="B262" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="D262" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="E262" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="F262" t="str">
         <f t="shared" si="68"/>
@@ -17921,16 +17921,16 @@
         <v>426</v>
       </c>
       <c r="B263" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="D263" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="E263" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="F263" t="str">
         <f t="shared" si="68"/>
@@ -17978,16 +17978,16 @@
         <v>426</v>
       </c>
       <c r="B264" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="D264" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="E264" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="F264" t="str">
         <f t="shared" si="68"/>
@@ -18035,16 +18035,16 @@
         <v>426</v>
       </c>
       <c r="B265" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="D265" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="E265" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="F265" t="str">
         <f t="shared" si="68"/>
@@ -18092,16 +18092,16 @@
         <v>426</v>
       </c>
       <c r="B266" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="D266" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="E266" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="F266" t="str">
         <f t="shared" si="68"/>
@@ -18149,16 +18149,16 @@
         <v>426</v>
       </c>
       <c r="B267" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="D267" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="E267" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="F267" t="str">
         <f t="shared" si="68"/>
@@ -18206,16 +18206,16 @@
         <v>426</v>
       </c>
       <c r="B268" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="D268" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="E268" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="F268" t="str">
         <f t="shared" si="68"/>
@@ -18263,16 +18263,16 @@
         <v>426</v>
       </c>
       <c r="B269" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="D269" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="E269" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="F269" t="str">
         <f t="shared" si="68"/>
@@ -18320,16 +18320,16 @@
         <v>426</v>
       </c>
       <c r="B270" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="D270" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="E270" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="F270" t="str">
         <f t="shared" si="68"/>
@@ -18377,16 +18377,16 @@
         <v>426</v>
       </c>
       <c r="B271" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="D271" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="E271" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="F271" t="str">
         <f t="shared" si="68"/>
@@ -18434,16 +18434,16 @@
         <v>426</v>
       </c>
       <c r="B272" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="D272" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="E272" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="F272" t="str">
         <f t="shared" si="68"/>
@@ -18491,16 +18491,16 @@
         <v>426</v>
       </c>
       <c r="B273" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="D273" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="E273" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="F273" t="str">
         <f t="shared" si="68"/>
@@ -18548,16 +18548,16 @@
         <v>426</v>
       </c>
       <c r="B274" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="D274" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="E274" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="F274" t="str">
         <f t="shared" si="68"/>
@@ -18605,16 +18605,16 @@
         <v>426</v>
       </c>
       <c r="B275" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="D275" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="E275" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="F275" t="str">
         <f t="shared" si="68"/>
@@ -18662,16 +18662,16 @@
         <v>426</v>
       </c>
       <c r="B276" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="D276" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="E276" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="F276" t="str">
         <f t="shared" si="68"/>
@@ -18719,7 +18719,7 @@
         <v>426</v>
       </c>
       <c r="B277" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>414</v>
@@ -18736,7 +18736,7 @@
         <v>426</v>
       </c>
       <c r="B278" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>415</v>
@@ -18753,7 +18753,7 @@
         <v>426</v>
       </c>
       <c r="B279" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>416</v>
@@ -18770,7 +18770,7 @@
         <v>426</v>
       </c>
       <c r="B280" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>417</v>
@@ -18787,10 +18787,10 @@
         <v>426</v>
       </c>
       <c r="B281" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="K281">
         <v>49.617411383833499</v>
@@ -18804,10 +18804,10 @@
         <v>426</v>
       </c>
       <c r="B282" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="K282">
         <v>49.617793692219699</v>

--- a/api/data/gates_db.xlsx
+++ b/api/data/gates_db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\belux\belux-gate-manager-api\api\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CABC5F-F6DB-4C8E-8112-7AEE28C13CB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52812827-25A6-4696-AC63-488C16D15744}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{A18B69D9-28ED-47D3-8556-C314F1DB8CFD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A18B69D9-28ED-47D3-8556-C314F1DB8CFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="813">
   <si>
     <t>505335.23N</t>
   </si>
@@ -3175,6 +3175,1188 @@
   </si>
   <si>
     <t>B9</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>1A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502729.69N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042711.40E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>1B</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502729.78N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042711.71E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>2A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502730.37N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042713.74E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>2B</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502730.46N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042714.05E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>3A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502731.01N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042715.96E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>3B</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502731.10N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042716.27E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>4A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502731.66N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042718.28E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>4B</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502731.75N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042718.60E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>17B</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502734.33N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042728.22E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>17C</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502734.98N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042730.48E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>18B</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502733.54N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042728.76E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>18C</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502734.20N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042731.03E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502735.04N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042733.24E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502734.60N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042733.55E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502734.16N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042733.87E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502735.48N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042734.73E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502735.03N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042735.03E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502734.59N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042735.35E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502735.91N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042736.20E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502735.46N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042736.51E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502735.02N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042736.82E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502736.58N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042738.55E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502736.02N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042742.43E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502736.54N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042744.22E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502737.06N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042746.01E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502737.58N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042747.79E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502738.56N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042751.51E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502739.04N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042753.15E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502739.65N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042755.25E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502740.42N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042757.90E</t>
+    </r>
+  </si>
+  <si>
+    <t>EBCI</t>
+  </si>
+  <si>
+    <t>apron-P1</t>
+  </si>
+  <si>
+    <t>apron-P3</t>
+  </si>
+  <si>
+    <t>apron-P4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502800.50N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042750.45E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502800.67N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042750.44E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502801.09N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042752.46E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502801.67N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042754.47E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502802.29N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042756.60E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502802.87N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042758.61E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>55B</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502802.89N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042758.08E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502803.54N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042800.29E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502804.25N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042802.61E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>57B</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502804.08N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042802.16E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502804.97N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042805.07E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502805.55N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042807.08E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502806.13N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042809.08E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502806.71N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042811.09E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502807.29N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042813.09E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502807.88N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042815.10E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502808.59N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042817.57E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502809.17N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042819.57E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502804.65N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042817.39E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502809.89N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042822.04E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502810.54N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042824.40E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>67B</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502810.49N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042824.11E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502810.90N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042826.26E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502811.48N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042828.27E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502812.06N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042830.28E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502812.84N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042832.20E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>502813.42N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0042834.21E</t>
+    </r>
+  </si>
+  <si>
+    <t>apron-P10</t>
+  </si>
+  <si>
+    <t>51B</t>
+  </si>
+  <si>
+    <t>apron-P10-heavy</t>
   </si>
 </sst>
 </file>
@@ -3235,7 +4417,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3294,6 +4476,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3610,10 +4795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A74C131-8C0C-4CF6-B99D-A6421F63E231}">
-  <dimension ref="A1:O282"/>
+  <dimension ref="A1:O339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C238" sqref="C238"/>
+    <sheetView tabSelected="1" topLeftCell="A306" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D327" sqref="D327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16508,7 +17693,7 @@
         <v>543</v>
       </c>
       <c r="F238" t="str">
-        <f t="shared" ref="F238:F276" si="68">SUBSTITUTE( SUBSTITUTE(D238,"N",""),",",".")</f>
+        <f t="shared" ref="F238:F301" si="68">SUBSTITUTE( SUBSTITUTE(D238,"N",""),",",".")</f>
         <v>493746.13</v>
       </c>
       <c r="G238" t="str">
@@ -18724,11 +19909,19 @@
       <c r="C277" s="2" t="s">
         <v>414</v>
       </c>
+      <c r="F277" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+      <c r="G277" t="str">
+        <f t="shared" ref="G277:G312" si="78">SUBSTITUTE( SUBSTITUTE(E277,"E",""),",",".")</f>
+        <v/>
+      </c>
       <c r="K277">
-        <v>49.624943866443502</v>
+        <v>49.624943870000003</v>
       </c>
       <c r="O277">
-        <v>6.1994265807706901</v>
+        <v>6.199426581</v>
       </c>
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.25">
@@ -18741,11 +19934,19 @@
       <c r="C278" s="2" t="s">
         <v>415</v>
       </c>
+      <c r="F278" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+      <c r="G278" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
       <c r="K278">
-        <v>49.624679750603597</v>
+        <v>49.624679749999999</v>
       </c>
       <c r="O278">
-        <v>6.1989115939364696</v>
+        <v>6.1989115940000001</v>
       </c>
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.25">
@@ -18758,11 +19959,19 @@
       <c r="C279" s="2" t="s">
         <v>416</v>
       </c>
+      <c r="F279" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+      <c r="G279" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
       <c r="K279">
-        <v>49.624418610358397</v>
+        <v>49.624418609999999</v>
       </c>
       <c r="O279">
-        <v>6.1981143486112096</v>
+        <v>6.1981143489999999</v>
       </c>
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.25">
@@ -18775,11 +19984,19 @@
       <c r="C280" s="2" t="s">
         <v>417</v>
       </c>
+      <c r="F280" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+      <c r="G280" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
       <c r="K280">
-        <v>49.624057176372503</v>
+        <v>49.624057180000001</v>
       </c>
       <c r="O280">
-        <v>6.1972882396987803</v>
+        <v>6.1972882399999998</v>
       </c>
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.25">
@@ -18792,11 +20009,19 @@
       <c r="C281" s="2" t="s">
         <v>662</v>
       </c>
+      <c r="F281" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+      <c r="G281" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
       <c r="K281">
-        <v>49.617411383833499</v>
+        <v>49.61741138</v>
       </c>
       <c r="O281">
-        <v>6.1998207863052102</v>
+        <v>6.1998207860000001</v>
       </c>
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.25">
@@ -18809,11 +20034,3268 @@
       <c r="C282" s="2" t="s">
         <v>663</v>
       </c>
+      <c r="F282" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+      <c r="G282" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
       <c r="K282">
-        <v>49.617793692219699</v>
+        <v>49.617793689999999</v>
       </c>
       <c r="O282">
-        <v>6.2009902293549599</v>
+        <v>6.2009902290000003</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>749</v>
+      </c>
+      <c r="B283" t="s">
+        <v>750</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="D283" t="s">
+        <v>678</v>
+      </c>
+      <c r="E283" t="s">
+        <v>679</v>
+      </c>
+      <c r="F283" t="str">
+        <f t="shared" si="68"/>
+        <v>502729.69</v>
+      </c>
+      <c r="G283" t="str">
+        <f t="shared" si="78"/>
+        <v>0042711.40</v>
+      </c>
+      <c r="H283">
+        <f t="shared" ref="H283:H312" si="79">_xlfn.FLOOR.MATH(F283/10000)</f>
+        <v>50</v>
+      </c>
+      <c r="I283">
+        <f t="shared" ref="I283:I312" si="80">_xlfn.FLOOR.MATH((F283-H283*10000)/100)</f>
+        <v>27</v>
+      </c>
+      <c r="J283">
+        <f t="shared" ref="J283:J312" si="81">(F283-(H283*10000)-(I283*100))</f>
+        <v>29.690000000002328</v>
+      </c>
+      <c r="K283">
+        <f t="shared" ref="K283:K312" si="82" xml:space="preserve"> H283 + (I283/60) + (J283/3600)</f>
+        <v>50.458247222222226</v>
+      </c>
+      <c r="L283">
+        <f t="shared" ref="L283:L312" si="83">_xlfn.FLOOR.MATH(G283/10000)</f>
+        <v>4</v>
+      </c>
+      <c r="M283">
+        <f t="shared" ref="M283:M312" si="84">_xlfn.FLOOR.MATH((G283-L283*10000)/100)</f>
+        <v>27</v>
+      </c>
+      <c r="N283">
+        <f t="shared" ref="N283:N312" si="85">(G283-(L283*10000)-(M283*100))</f>
+        <v>11.400000000001455</v>
+      </c>
+      <c r="O283">
+        <f t="shared" ref="O283:O312" si="86" xml:space="preserve"> L283 + (M283/60) + (N283/3600)</f>
+        <v>4.4531666666666672</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>749</v>
+      </c>
+      <c r="B284" t="s">
+        <v>750</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="D284" t="s">
+        <v>681</v>
+      </c>
+      <c r="E284" t="s">
+        <v>682</v>
+      </c>
+      <c r="F284" t="str">
+        <f t="shared" si="68"/>
+        <v>502729.78</v>
+      </c>
+      <c r="G284" t="str">
+        <f t="shared" si="78"/>
+        <v>0042711.71</v>
+      </c>
+      <c r="H284">
+        <f t="shared" si="79"/>
+        <v>50</v>
+      </c>
+      <c r="I284">
+        <f t="shared" si="80"/>
+        <v>27</v>
+      </c>
+      <c r="J284">
+        <f t="shared" si="81"/>
+        <v>29.78000000002794</v>
+      </c>
+      <c r="K284">
+        <f t="shared" si="82"/>
+        <v>50.458272222222234</v>
+      </c>
+      <c r="L284">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="M284">
+        <f t="shared" si="84"/>
+        <v>27</v>
+      </c>
+      <c r="N284">
+        <f t="shared" si="85"/>
+        <v>11.709999999999127</v>
+      </c>
+      <c r="O284">
+        <f t="shared" si="86"/>
+        <v>4.4532527777777773</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>749</v>
+      </c>
+      <c r="B285" t="s">
+        <v>750</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="D285" t="s">
+        <v>684</v>
+      </c>
+      <c r="E285" t="s">
+        <v>685</v>
+      </c>
+      <c r="F285" t="str">
+        <f t="shared" si="68"/>
+        <v>502730.37</v>
+      </c>
+      <c r="G285" t="str">
+        <f t="shared" si="78"/>
+        <v>0042713.74</v>
+      </c>
+      <c r="H285">
+        <f t="shared" si="79"/>
+        <v>50</v>
+      </c>
+      <c r="I285">
+        <f t="shared" si="80"/>
+        <v>27</v>
+      </c>
+      <c r="J285">
+        <f t="shared" si="81"/>
+        <v>30.369999999995343</v>
+      </c>
+      <c r="K285">
+        <f t="shared" si="82"/>
+        <v>50.458436111111112</v>
+      </c>
+      <c r="L285">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="M285">
+        <f t="shared" si="84"/>
+        <v>27</v>
+      </c>
+      <c r="N285">
+        <f t="shared" si="85"/>
+        <v>13.739999999997963</v>
+      </c>
+      <c r="O285">
+        <f t="shared" si="86"/>
+        <v>4.4538166666666665</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>749</v>
+      </c>
+      <c r="B286" t="s">
+        <v>750</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D286" t="s">
+        <v>687</v>
+      </c>
+      <c r="E286" t="s">
+        <v>688</v>
+      </c>
+      <c r="F286" t="str">
+        <f t="shared" si="68"/>
+        <v>502730.46</v>
+      </c>
+      <c r="G286" t="str">
+        <f t="shared" si="78"/>
+        <v>0042714.05</v>
+      </c>
+      <c r="H286">
+        <f t="shared" si="79"/>
+        <v>50</v>
+      </c>
+      <c r="I286">
+        <f t="shared" si="80"/>
+        <v>27</v>
+      </c>
+      <c r="J286">
+        <f t="shared" si="81"/>
+        <v>30.460000000020955</v>
+      </c>
+      <c r="K286">
+        <f t="shared" si="82"/>
+        <v>50.45846111111112</v>
+      </c>
+      <c r="L286">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="M286">
+        <f t="shared" si="84"/>
+        <v>27</v>
+      </c>
+      <c r="N286">
+        <f t="shared" si="85"/>
+        <v>14.05000000000291</v>
+      </c>
+      <c r="O286">
+        <f t="shared" si="86"/>
+        <v>4.4539027777777784</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>749</v>
+      </c>
+      <c r="B287" t="s">
+        <v>750</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="D287" t="s">
+        <v>690</v>
+      </c>
+      <c r="E287" t="s">
+        <v>691</v>
+      </c>
+      <c r="F287" t="str">
+        <f t="shared" si="68"/>
+        <v>502731.01</v>
+      </c>
+      <c r="G287" t="str">
+        <f t="shared" si="78"/>
+        <v>0042715.96</v>
+      </c>
+      <c r="H287">
+        <f t="shared" si="79"/>
+        <v>50</v>
+      </c>
+      <c r="I287">
+        <f t="shared" si="80"/>
+        <v>27</v>
+      </c>
+      <c r="J287">
+        <f t="shared" si="81"/>
+        <v>31.010000000009313</v>
+      </c>
+      <c r="K287">
+        <f t="shared" si="82"/>
+        <v>50.458613888888891</v>
+      </c>
+      <c r="L287">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="M287">
+        <f t="shared" si="84"/>
+        <v>27</v>
+      </c>
+      <c r="N287">
+        <f t="shared" si="85"/>
+        <v>15.959999999999127</v>
+      </c>
+      <c r="O287">
+        <f t="shared" si="86"/>
+        <v>4.4544333333333332</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>749</v>
+      </c>
+      <c r="B288" t="s">
+        <v>750</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="D288" t="s">
+        <v>693</v>
+      </c>
+      <c r="E288" t="s">
+        <v>694</v>
+      </c>
+      <c r="F288" t="str">
+        <f t="shared" si="68"/>
+        <v>502731.10</v>
+      </c>
+      <c r="G288" t="str">
+        <f t="shared" si="78"/>
+        <v>0042716.27</v>
+      </c>
+      <c r="H288">
+        <f t="shared" si="79"/>
+        <v>50</v>
+      </c>
+      <c r="I288">
+        <f t="shared" si="80"/>
+        <v>27</v>
+      </c>
+      <c r="J288">
+        <f t="shared" si="81"/>
+        <v>31.099999999976717</v>
+      </c>
+      <c r="K288">
+        <f t="shared" si="82"/>
+        <v>50.458638888888885</v>
+      </c>
+      <c r="L288">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="M288">
+        <f t="shared" si="84"/>
+        <v>27</v>
+      </c>
+      <c r="N288">
+        <f t="shared" si="85"/>
+        <v>16.269999999996799</v>
+      </c>
+      <c r="O288">
+        <f t="shared" si="86"/>
+        <v>4.4545194444444434</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>749</v>
+      </c>
+      <c r="B289" t="s">
+        <v>750</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="D289" t="s">
+        <v>696</v>
+      </c>
+      <c r="E289" t="s">
+        <v>697</v>
+      </c>
+      <c r="F289" t="str">
+        <f t="shared" si="68"/>
+        <v>502731.66</v>
+      </c>
+      <c r="G289" t="str">
+        <f t="shared" si="78"/>
+        <v>0042718.28</v>
+      </c>
+      <c r="H289">
+        <f t="shared" si="79"/>
+        <v>50</v>
+      </c>
+      <c r="I289">
+        <f t="shared" si="80"/>
+        <v>27</v>
+      </c>
+      <c r="J289">
+        <f t="shared" si="81"/>
+        <v>31.659999999974389</v>
+      </c>
+      <c r="K289">
+        <f t="shared" si="82"/>
+        <v>50.458794444444443</v>
+      </c>
+      <c r="L289">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="M289">
+        <f t="shared" si="84"/>
+        <v>27</v>
+      </c>
+      <c r="N289">
+        <f t="shared" si="85"/>
+        <v>18.279999999998836</v>
+      </c>
+      <c r="O289">
+        <f t="shared" si="86"/>
+        <v>4.4550777777777775</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>749</v>
+      </c>
+      <c r="B290" t="s">
+        <v>750</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="D290" t="s">
+        <v>699</v>
+      </c>
+      <c r="E290" t="s">
+        <v>700</v>
+      </c>
+      <c r="F290" t="str">
+        <f t="shared" si="68"/>
+        <v>502731.75</v>
+      </c>
+      <c r="G290" t="str">
+        <f t="shared" si="78"/>
+        <v>0042718.60</v>
+      </c>
+      <c r="H290">
+        <f t="shared" si="79"/>
+        <v>50</v>
+      </c>
+      <c r="I290">
+        <f t="shared" si="80"/>
+        <v>27</v>
+      </c>
+      <c r="J290">
+        <f t="shared" si="81"/>
+        <v>31.75</v>
+      </c>
+      <c r="K290">
+        <f t="shared" si="82"/>
+        <v>50.458819444444444</v>
+      </c>
+      <c r="L290">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="M290">
+        <f t="shared" si="84"/>
+        <v>27</v>
+      </c>
+      <c r="N290">
+        <f t="shared" si="85"/>
+        <v>18.599999999998545</v>
+      </c>
+      <c r="O290">
+        <f t="shared" si="86"/>
+        <v>4.4551666666666661</v>
+      </c>
+    </row>
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>749</v>
+      </c>
+      <c r="B291" t="s">
+        <v>751</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="D291" t="s">
+        <v>702</v>
+      </c>
+      <c r="E291" t="s">
+        <v>703</v>
+      </c>
+      <c r="F291" t="str">
+        <f t="shared" si="68"/>
+        <v>502734.33</v>
+      </c>
+      <c r="G291" t="str">
+        <f t="shared" si="78"/>
+        <v>0042728.22</v>
+      </c>
+      <c r="H291">
+        <f t="shared" si="79"/>
+        <v>50</v>
+      </c>
+      <c r="I291">
+        <f t="shared" si="80"/>
+        <v>27</v>
+      </c>
+      <c r="J291">
+        <f t="shared" si="81"/>
+        <v>34.330000000016298</v>
+      </c>
+      <c r="K291">
+        <f t="shared" si="82"/>
+        <v>50.45953611111112</v>
+      </c>
+      <c r="L291">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="M291">
+        <f t="shared" si="84"/>
+        <v>27</v>
+      </c>
+      <c r="N291">
+        <f t="shared" si="85"/>
+        <v>28.220000000001164</v>
+      </c>
+      <c r="O291">
+        <f t="shared" si="86"/>
+        <v>4.4578388888888894</v>
+      </c>
+    </row>
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>749</v>
+      </c>
+      <c r="B292" t="s">
+        <v>751</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="D292" t="s">
+        <v>705</v>
+      </c>
+      <c r="E292" t="s">
+        <v>706</v>
+      </c>
+      <c r="F292" t="str">
+        <f t="shared" si="68"/>
+        <v>502734.98</v>
+      </c>
+      <c r="G292" t="str">
+        <f t="shared" si="78"/>
+        <v>0042730.48</v>
+      </c>
+      <c r="H292">
+        <f t="shared" si="79"/>
+        <v>50</v>
+      </c>
+      <c r="I292">
+        <f t="shared" si="80"/>
+        <v>27</v>
+      </c>
+      <c r="J292">
+        <f t="shared" si="81"/>
+        <v>34.979999999981374</v>
+      </c>
+      <c r="K292">
+        <f t="shared" si="82"/>
+        <v>50.459716666666665</v>
+      </c>
+      <c r="L292">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="M292">
+        <f t="shared" si="84"/>
+        <v>27</v>
+      </c>
+      <c r="N292">
+        <f t="shared" si="85"/>
+        <v>30.480000000003201</v>
+      </c>
+      <c r="O292">
+        <f t="shared" si="86"/>
+        <v>4.4584666666666681</v>
+      </c>
+    </row>
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>749</v>
+      </c>
+      <c r="B293" t="s">
+        <v>751</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="D293" t="s">
+        <v>708</v>
+      </c>
+      <c r="E293" t="s">
+        <v>709</v>
+      </c>
+      <c r="F293" t="str">
+        <f t="shared" si="68"/>
+        <v>502733.54</v>
+      </c>
+      <c r="G293" t="str">
+        <f t="shared" si="78"/>
+        <v>0042728.76</v>
+      </c>
+      <c r="H293">
+        <f t="shared" si="79"/>
+        <v>50</v>
+      </c>
+      <c r="I293">
+        <f t="shared" si="80"/>
+        <v>27</v>
+      </c>
+      <c r="J293">
+        <f t="shared" si="81"/>
+        <v>33.539999999979045</v>
+      </c>
+      <c r="K293">
+        <f t="shared" si="82"/>
+        <v>50.459316666666666</v>
+      </c>
+      <c r="L293">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="M293">
+        <f t="shared" si="84"/>
+        <v>27</v>
+      </c>
+      <c r="N293">
+        <f t="shared" si="85"/>
+        <v>28.760000000002037</v>
+      </c>
+      <c r="O293">
+        <f t="shared" si="86"/>
+        <v>4.4579888888888899</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>749</v>
+      </c>
+      <c r="B294" t="s">
+        <v>751</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="D294" t="s">
+        <v>711</v>
+      </c>
+      <c r="E294" t="s">
+        <v>712</v>
+      </c>
+      <c r="F294" t="str">
+        <f t="shared" si="68"/>
+        <v>502734.20</v>
+      </c>
+      <c r="G294" t="str">
+        <f t="shared" si="78"/>
+        <v>0042731.03</v>
+      </c>
+      <c r="H294">
+        <f t="shared" si="79"/>
+        <v>50</v>
+      </c>
+      <c r="I294">
+        <f t="shared" si="80"/>
+        <v>27</v>
+      </c>
+      <c r="J294">
+        <f t="shared" si="81"/>
+        <v>34.200000000011642</v>
+      </c>
+      <c r="K294">
+        <f t="shared" si="82"/>
+        <v>50.459500000000006</v>
+      </c>
+      <c r="L294">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="M294">
+        <f t="shared" si="84"/>
+        <v>27</v>
+      </c>
+      <c r="N294">
+        <f t="shared" si="85"/>
+        <v>31.029999999998836</v>
+      </c>
+      <c r="O294">
+        <f t="shared" si="86"/>
+        <v>4.4586194444444445</v>
+      </c>
+    </row>
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>749</v>
+      </c>
+      <c r="B295" t="s">
+        <v>752</v>
+      </c>
+      <c r="C295" s="2">
+        <v>19</v>
+      </c>
+      <c r="D295" t="s">
+        <v>713</v>
+      </c>
+      <c r="E295" t="s">
+        <v>714</v>
+      </c>
+      <c r="F295" t="str">
+        <f t="shared" si="68"/>
+        <v>502735.04</v>
+      </c>
+      <c r="G295" t="str">
+        <f t="shared" si="78"/>
+        <v>0042733.24</v>
+      </c>
+      <c r="H295">
+        <f t="shared" si="79"/>
+        <v>50</v>
+      </c>
+      <c r="I295">
+        <f t="shared" si="80"/>
+        <v>27</v>
+      </c>
+      <c r="J295">
+        <f t="shared" si="81"/>
+        <v>35.039999999979045</v>
+      </c>
+      <c r="K295">
+        <f t="shared" si="82"/>
+        <v>50.459733333333332</v>
+      </c>
+      <c r="L295">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="M295">
+        <f t="shared" si="84"/>
+        <v>27</v>
+      </c>
+      <c r="N295">
+        <f t="shared" si="85"/>
+        <v>33.239999999997963</v>
+      </c>
+      <c r="O295">
+        <f t="shared" si="86"/>
+        <v>4.4592333333333327</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>749</v>
+      </c>
+      <c r="B296" t="s">
+        <v>752</v>
+      </c>
+      <c r="C296" s="2">
+        <v>20</v>
+      </c>
+      <c r="D296" t="s">
+        <v>715</v>
+      </c>
+      <c r="E296" t="s">
+        <v>716</v>
+      </c>
+      <c r="F296" t="str">
+        <f t="shared" si="68"/>
+        <v>502734.60</v>
+      </c>
+      <c r="G296" t="str">
+        <f t="shared" si="78"/>
+        <v>0042733.55</v>
+      </c>
+      <c r="H296">
+        <f t="shared" si="79"/>
+        <v>50</v>
+      </c>
+      <c r="I296">
+        <f t="shared" si="80"/>
+        <v>27</v>
+      </c>
+      <c r="J296">
+        <f t="shared" si="81"/>
+        <v>34.599999999976717</v>
+      </c>
+      <c r="K296">
+        <f t="shared" si="82"/>
+        <v>50.459611111111109</v>
+      </c>
+      <c r="L296">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="M296">
+        <f t="shared" si="84"/>
+        <v>27</v>
+      </c>
+      <c r="N296">
+        <f t="shared" si="85"/>
+        <v>33.55000000000291</v>
+      </c>
+      <c r="O296">
+        <f t="shared" si="86"/>
+        <v>4.4593194444444455</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>749</v>
+      </c>
+      <c r="B297" t="s">
+        <v>752</v>
+      </c>
+      <c r="C297" s="2">
+        <v>21</v>
+      </c>
+      <c r="D297" t="s">
+        <v>717</v>
+      </c>
+      <c r="E297" t="s">
+        <v>718</v>
+      </c>
+      <c r="F297" t="str">
+        <f t="shared" si="68"/>
+        <v>502734.16</v>
+      </c>
+      <c r="G297" t="str">
+        <f t="shared" si="78"/>
+        <v>0042733.87</v>
+      </c>
+      <c r="H297">
+        <f t="shared" si="79"/>
+        <v>50</v>
+      </c>
+      <c r="I297">
+        <f t="shared" si="80"/>
+        <v>27</v>
+      </c>
+      <c r="J297">
+        <f t="shared" si="81"/>
+        <v>34.159999999974389</v>
+      </c>
+      <c r="K297">
+        <f t="shared" si="82"/>
+        <v>50.459488888888885</v>
+      </c>
+      <c r="L297">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="M297">
+        <f t="shared" si="84"/>
+        <v>27</v>
+      </c>
+      <c r="N297">
+        <f t="shared" si="85"/>
+        <v>33.870000000002619</v>
+      </c>
+      <c r="O297">
+        <f t="shared" si="86"/>
+        <v>4.4594083333333341</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>749</v>
+      </c>
+      <c r="B298" t="s">
+        <v>752</v>
+      </c>
+      <c r="C298" s="2">
+        <v>22</v>
+      </c>
+      <c r="D298" t="s">
+        <v>719</v>
+      </c>
+      <c r="E298" t="s">
+        <v>720</v>
+      </c>
+      <c r="F298" t="str">
+        <f t="shared" si="68"/>
+        <v>502735.48</v>
+      </c>
+      <c r="G298" t="str">
+        <f t="shared" si="78"/>
+        <v>0042734.73</v>
+      </c>
+      <c r="H298">
+        <f t="shared" si="79"/>
+        <v>50</v>
+      </c>
+      <c r="I298">
+        <f t="shared" si="80"/>
+        <v>27</v>
+      </c>
+      <c r="J298">
+        <f t="shared" si="81"/>
+        <v>35.479999999981374</v>
+      </c>
+      <c r="K298">
+        <f t="shared" si="82"/>
+        <v>50.459855555555556</v>
+      </c>
+      <c r="L298">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="M298">
+        <f t="shared" si="84"/>
+        <v>27</v>
+      </c>
+      <c r="N298">
+        <f t="shared" si="85"/>
+        <v>34.730000000003201</v>
+      </c>
+      <c r="O298">
+        <f t="shared" si="86"/>
+        <v>4.4596472222222232</v>
+      </c>
+    </row>
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>749</v>
+      </c>
+      <c r="B299" t="s">
+        <v>752</v>
+      </c>
+      <c r="C299" s="2">
+        <v>23</v>
+      </c>
+      <c r="D299" t="s">
+        <v>721</v>
+      </c>
+      <c r="E299" t="s">
+        <v>722</v>
+      </c>
+      <c r="F299" t="str">
+        <f t="shared" si="68"/>
+        <v>502735.03</v>
+      </c>
+      <c r="G299" t="str">
+        <f t="shared" si="78"/>
+        <v>0042735.03</v>
+      </c>
+      <c r="H299">
+        <f t="shared" si="79"/>
+        <v>50</v>
+      </c>
+      <c r="I299">
+        <f t="shared" si="80"/>
+        <v>27</v>
+      </c>
+      <c r="J299">
+        <f t="shared" si="81"/>
+        <v>35.03000000002794</v>
+      </c>
+      <c r="K299">
+        <f t="shared" si="82"/>
+        <v>50.459730555555566</v>
+      </c>
+      <c r="L299">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="M299">
+        <f t="shared" si="84"/>
+        <v>27</v>
+      </c>
+      <c r="N299">
+        <f t="shared" si="85"/>
+        <v>35.029999999998836</v>
+      </c>
+      <c r="O299">
+        <f t="shared" si="86"/>
+        <v>4.4597305555555558</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>749</v>
+      </c>
+      <c r="B300" t="s">
+        <v>752</v>
+      </c>
+      <c r="C300" s="2">
+        <v>24</v>
+      </c>
+      <c r="D300" t="s">
+        <v>723</v>
+      </c>
+      <c r="E300" t="s">
+        <v>724</v>
+      </c>
+      <c r="F300" t="str">
+        <f t="shared" si="68"/>
+        <v>502734.59</v>
+      </c>
+      <c r="G300" t="str">
+        <f t="shared" si="78"/>
+        <v>0042735.35</v>
+      </c>
+      <c r="H300">
+        <f t="shared" si="79"/>
+        <v>50</v>
+      </c>
+      <c r="I300">
+        <f t="shared" si="80"/>
+        <v>27</v>
+      </c>
+      <c r="J300">
+        <f t="shared" si="81"/>
+        <v>34.590000000025611</v>
+      </c>
+      <c r="K300">
+        <f t="shared" si="82"/>
+        <v>50.459608333333343</v>
+      </c>
+      <c r="L300">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="M300">
+        <f t="shared" si="84"/>
+        <v>27</v>
+      </c>
+      <c r="N300">
+        <f t="shared" si="85"/>
+        <v>35.349999999998545</v>
+      </c>
+      <c r="O300">
+        <f t="shared" si="86"/>
+        <v>4.4598194444444443</v>
+      </c>
+    </row>
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>749</v>
+      </c>
+      <c r="B301" t="s">
+        <v>752</v>
+      </c>
+      <c r="C301" s="2">
+        <v>25</v>
+      </c>
+      <c r="D301" t="s">
+        <v>725</v>
+      </c>
+      <c r="E301" t="s">
+        <v>726</v>
+      </c>
+      <c r="F301" t="str">
+        <f t="shared" si="68"/>
+        <v>502735.91</v>
+      </c>
+      <c r="G301" t="str">
+        <f t="shared" si="78"/>
+        <v>0042736.20</v>
+      </c>
+      <c r="H301">
+        <f t="shared" si="79"/>
+        <v>50</v>
+      </c>
+      <c r="I301">
+        <f t="shared" si="80"/>
+        <v>27</v>
+      </c>
+      <c r="J301">
+        <f t="shared" si="81"/>
+        <v>35.909999999974389</v>
+      </c>
+      <c r="K301">
+        <f t="shared" si="82"/>
+        <v>50.459974999999993</v>
+      </c>
+      <c r="L301">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="M301">
+        <f t="shared" si="84"/>
+        <v>27</v>
+      </c>
+      <c r="N301">
+        <f t="shared" si="85"/>
+        <v>36.19999999999709</v>
+      </c>
+      <c r="O301">
+        <f t="shared" si="86"/>
+        <v>4.460055555555555</v>
+      </c>
+    </row>
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>749</v>
+      </c>
+      <c r="B302" t="s">
+        <v>752</v>
+      </c>
+      <c r="C302" s="2">
+        <v>26</v>
+      </c>
+      <c r="D302" t="s">
+        <v>727</v>
+      </c>
+      <c r="E302" t="s">
+        <v>728</v>
+      </c>
+      <c r="F302" t="str">
+        <f t="shared" ref="F302:F312" si="87">SUBSTITUTE( SUBSTITUTE(D302,"N",""),",",".")</f>
+        <v>502735.46</v>
+      </c>
+      <c r="G302" t="str">
+        <f t="shared" si="78"/>
+        <v>0042736.51</v>
+      </c>
+      <c r="H302">
+        <f t="shared" si="79"/>
+        <v>50</v>
+      </c>
+      <c r="I302">
+        <f t="shared" si="80"/>
+        <v>27</v>
+      </c>
+      <c r="J302">
+        <f t="shared" si="81"/>
+        <v>35.460000000020955</v>
+      </c>
+      <c r="K302">
+        <f t="shared" si="82"/>
+        <v>50.45985000000001</v>
+      </c>
+      <c r="L302">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="M302">
+        <f t="shared" si="84"/>
+        <v>27</v>
+      </c>
+      <c r="N302">
+        <f t="shared" si="85"/>
+        <v>36.510000000002037</v>
+      </c>
+      <c r="O302">
+        <f t="shared" si="86"/>
+        <v>4.4601416666666678</v>
+      </c>
+    </row>
+    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>749</v>
+      </c>
+      <c r="B303" t="s">
+        <v>752</v>
+      </c>
+      <c r="C303" s="2">
+        <v>27</v>
+      </c>
+      <c r="D303" t="s">
+        <v>729</v>
+      </c>
+      <c r="E303" t="s">
+        <v>730</v>
+      </c>
+      <c r="F303" t="str">
+        <f t="shared" si="87"/>
+        <v>502735.02</v>
+      </c>
+      <c r="G303" t="str">
+        <f t="shared" si="78"/>
+        <v>0042736.82</v>
+      </c>
+      <c r="H303">
+        <f t="shared" si="79"/>
+        <v>50</v>
+      </c>
+      <c r="I303">
+        <f t="shared" si="80"/>
+        <v>27</v>
+      </c>
+      <c r="J303">
+        <f t="shared" si="81"/>
+        <v>35.020000000018626</v>
+      </c>
+      <c r="K303">
+        <f t="shared" si="82"/>
+        <v>50.459727777777786</v>
+      </c>
+      <c r="L303">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="M303">
+        <f t="shared" si="84"/>
+        <v>27</v>
+      </c>
+      <c r="N303">
+        <f t="shared" si="85"/>
+        <v>36.819999999999709</v>
+      </c>
+      <c r="O303">
+        <f t="shared" si="86"/>
+        <v>4.4602277777777779</v>
+      </c>
+    </row>
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>749</v>
+      </c>
+      <c r="B304" t="s">
+        <v>659</v>
+      </c>
+      <c r="C304" s="2">
+        <v>30</v>
+      </c>
+      <c r="D304" t="s">
+        <v>731</v>
+      </c>
+      <c r="E304" t="s">
+        <v>732</v>
+      </c>
+      <c r="F304" t="str">
+        <f t="shared" si="87"/>
+        <v>502736.58</v>
+      </c>
+      <c r="G304" t="str">
+        <f t="shared" si="78"/>
+        <v>0042738.55</v>
+      </c>
+      <c r="H304">
+        <f t="shared" si="79"/>
+        <v>50</v>
+      </c>
+      <c r="I304">
+        <f t="shared" si="80"/>
+        <v>27</v>
+      </c>
+      <c r="J304">
+        <f t="shared" si="81"/>
+        <v>36.580000000016298</v>
+      </c>
+      <c r="K304">
+        <f t="shared" si="82"/>
+        <v>50.46016111111112</v>
+      </c>
+      <c r="L304">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="M304">
+        <f t="shared" si="84"/>
+        <v>27</v>
+      </c>
+      <c r="N304">
+        <f t="shared" si="85"/>
+        <v>38.55000000000291</v>
+      </c>
+      <c r="O304">
+        <f t="shared" si="86"/>
+        <v>4.4607083333333346</v>
+      </c>
+    </row>
+    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>749</v>
+      </c>
+      <c r="B305" t="s">
+        <v>659</v>
+      </c>
+      <c r="C305" s="2">
+        <v>31</v>
+      </c>
+      <c r="D305" t="s">
+        <v>733</v>
+      </c>
+      <c r="E305" t="s">
+        <v>734</v>
+      </c>
+      <c r="F305" t="str">
+        <f t="shared" si="87"/>
+        <v>502736.02</v>
+      </c>
+      <c r="G305" t="str">
+        <f t="shared" si="78"/>
+        <v>0042742.43</v>
+      </c>
+      <c r="H305">
+        <f t="shared" si="79"/>
+        <v>50</v>
+      </c>
+      <c r="I305">
+        <f t="shared" si="80"/>
+        <v>27</v>
+      </c>
+      <c r="J305">
+        <f t="shared" si="81"/>
+        <v>36.020000000018626</v>
+      </c>
+      <c r="K305">
+        <f t="shared" si="82"/>
+        <v>50.460005555555561</v>
+      </c>
+      <c r="L305">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="M305">
+        <f t="shared" si="84"/>
+        <v>27</v>
+      </c>
+      <c r="N305">
+        <f t="shared" si="85"/>
+        <v>42.430000000000291</v>
+      </c>
+      <c r="O305">
+        <f t="shared" si="86"/>
+        <v>4.4617861111111115</v>
+      </c>
+    </row>
+    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>749</v>
+      </c>
+      <c r="B306" t="s">
+        <v>659</v>
+      </c>
+      <c r="C306" s="2">
+        <v>32</v>
+      </c>
+      <c r="D306" t="s">
+        <v>735</v>
+      </c>
+      <c r="E306" t="s">
+        <v>736</v>
+      </c>
+      <c r="F306" t="str">
+        <f t="shared" si="87"/>
+        <v>502736.54</v>
+      </c>
+      <c r="G306" t="str">
+        <f t="shared" si="78"/>
+        <v>0042744.22</v>
+      </c>
+      <c r="H306">
+        <f t="shared" si="79"/>
+        <v>50</v>
+      </c>
+      <c r="I306">
+        <f t="shared" si="80"/>
+        <v>27</v>
+      </c>
+      <c r="J306">
+        <f t="shared" si="81"/>
+        <v>36.539999999979045</v>
+      </c>
+      <c r="K306">
+        <f t="shared" si="82"/>
+        <v>50.460149999999999</v>
+      </c>
+      <c r="L306">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="M306">
+        <f t="shared" si="84"/>
+        <v>27</v>
+      </c>
+      <c r="N306">
+        <f t="shared" si="85"/>
+        <v>44.220000000001164</v>
+      </c>
+      <c r="O306">
+        <f t="shared" si="86"/>
+        <v>4.4622833333333336</v>
+      </c>
+    </row>
+    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>749</v>
+      </c>
+      <c r="B307" t="s">
+        <v>659</v>
+      </c>
+      <c r="C307" s="2">
+        <v>33</v>
+      </c>
+      <c r="D307" t="s">
+        <v>737</v>
+      </c>
+      <c r="E307" t="s">
+        <v>738</v>
+      </c>
+      <c r="F307" t="str">
+        <f t="shared" si="87"/>
+        <v>502737.06</v>
+      </c>
+      <c r="G307" t="str">
+        <f t="shared" si="78"/>
+        <v>0042746.01</v>
+      </c>
+      <c r="H307">
+        <f t="shared" si="79"/>
+        <v>50</v>
+      </c>
+      <c r="I307">
+        <f t="shared" si="80"/>
+        <v>27</v>
+      </c>
+      <c r="J307">
+        <f t="shared" si="81"/>
+        <v>37.059999999997672</v>
+      </c>
+      <c r="K307">
+        <f t="shared" si="82"/>
+        <v>50.460294444444443</v>
+      </c>
+      <c r="L307">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="M307">
+        <f t="shared" si="84"/>
+        <v>27</v>
+      </c>
+      <c r="N307">
+        <f t="shared" si="85"/>
+        <v>46.010000000002037</v>
+      </c>
+      <c r="O307">
+        <f t="shared" si="86"/>
+        <v>4.4627805555555566</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>749</v>
+      </c>
+      <c r="B308" t="s">
+        <v>659</v>
+      </c>
+      <c r="C308" s="2">
+        <v>34</v>
+      </c>
+      <c r="D308" t="s">
+        <v>739</v>
+      </c>
+      <c r="E308" t="s">
+        <v>740</v>
+      </c>
+      <c r="F308" t="str">
+        <f t="shared" si="87"/>
+        <v>502737.58</v>
+      </c>
+      <c r="G308" t="str">
+        <f t="shared" si="78"/>
+        <v>0042747.79</v>
+      </c>
+      <c r="H308">
+        <f t="shared" si="79"/>
+        <v>50</v>
+      </c>
+      <c r="I308">
+        <f t="shared" si="80"/>
+        <v>27</v>
+      </c>
+      <c r="J308">
+        <f t="shared" si="81"/>
+        <v>37.580000000016298</v>
+      </c>
+      <c r="K308">
+        <f t="shared" si="82"/>
+        <v>50.460438888888895</v>
+      </c>
+      <c r="L308">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="M308">
+        <f t="shared" si="84"/>
+        <v>27</v>
+      </c>
+      <c r="N308">
+        <f t="shared" si="85"/>
+        <v>47.790000000000873</v>
+      </c>
+      <c r="O308">
+        <f t="shared" si="86"/>
+        <v>4.4632750000000003</v>
+      </c>
+    </row>
+    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>749</v>
+      </c>
+      <c r="B309" t="s">
+        <v>659</v>
+      </c>
+      <c r="C309" s="2">
+        <v>36</v>
+      </c>
+      <c r="D309" t="s">
+        <v>741</v>
+      </c>
+      <c r="E309" t="s">
+        <v>742</v>
+      </c>
+      <c r="F309" t="str">
+        <f t="shared" si="87"/>
+        <v>502738.56</v>
+      </c>
+      <c r="G309" t="str">
+        <f t="shared" si="78"/>
+        <v>0042751.51</v>
+      </c>
+      <c r="H309">
+        <f t="shared" si="79"/>
+        <v>50</v>
+      </c>
+      <c r="I309">
+        <f t="shared" si="80"/>
+        <v>27</v>
+      </c>
+      <c r="J309">
+        <f t="shared" si="81"/>
+        <v>38.559999999997672</v>
+      </c>
+      <c r="K309">
+        <f t="shared" si="82"/>
+        <v>50.460711111111117</v>
+      </c>
+      <c r="L309">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="M309">
+        <f t="shared" si="84"/>
+        <v>27</v>
+      </c>
+      <c r="N309">
+        <f t="shared" si="85"/>
+        <v>51.510000000002037</v>
+      </c>
+      <c r="O309">
+        <f t="shared" si="86"/>
+        <v>4.4643083333333342</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>749</v>
+      </c>
+      <c r="B310" t="s">
+        <v>659</v>
+      </c>
+      <c r="C310" s="2">
+        <v>37</v>
+      </c>
+      <c r="D310" t="s">
+        <v>743</v>
+      </c>
+      <c r="E310" t="s">
+        <v>744</v>
+      </c>
+      <c r="F310" t="str">
+        <f t="shared" si="87"/>
+        <v>502739.04</v>
+      </c>
+      <c r="G310" t="str">
+        <f t="shared" si="78"/>
+        <v>0042753.15</v>
+      </c>
+      <c r="H310">
+        <f t="shared" si="79"/>
+        <v>50</v>
+      </c>
+      <c r="I310">
+        <f t="shared" si="80"/>
+        <v>27</v>
+      </c>
+      <c r="J310">
+        <f t="shared" si="81"/>
+        <v>39.039999999979045</v>
+      </c>
+      <c r="K310">
+        <f t="shared" si="82"/>
+        <v>50.46084444444444</v>
+      </c>
+      <c r="L310">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="M310">
+        <f t="shared" si="84"/>
+        <v>27</v>
+      </c>
+      <c r="N310">
+        <f t="shared" si="85"/>
+        <v>53.150000000001455</v>
+      </c>
+      <c r="O310">
+        <f t="shared" si="86"/>
+        <v>4.4647638888888892</v>
+      </c>
+    </row>
+    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>749</v>
+      </c>
+      <c r="B311" t="s">
+        <v>659</v>
+      </c>
+      <c r="C311" s="2">
+        <v>38</v>
+      </c>
+      <c r="D311" t="s">
+        <v>745</v>
+      </c>
+      <c r="E311" t="s">
+        <v>746</v>
+      </c>
+      <c r="F311" t="str">
+        <f t="shared" si="87"/>
+        <v>502739.65</v>
+      </c>
+      <c r="G311" t="str">
+        <f t="shared" si="78"/>
+        <v>0042755.25</v>
+      </c>
+      <c r="H311">
+        <f t="shared" si="79"/>
+        <v>50</v>
+      </c>
+      <c r="I311">
+        <f t="shared" si="80"/>
+        <v>27</v>
+      </c>
+      <c r="J311">
+        <f t="shared" si="81"/>
+        <v>39.650000000023283</v>
+      </c>
+      <c r="K311">
+        <f t="shared" si="82"/>
+        <v>50.4610138888889</v>
+      </c>
+      <c r="L311">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="M311">
+        <f t="shared" si="84"/>
+        <v>27</v>
+      </c>
+      <c r="N311">
+        <f t="shared" si="85"/>
+        <v>55.25</v>
+      </c>
+      <c r="O311">
+        <f t="shared" si="86"/>
+        <v>4.4653472222222224</v>
+      </c>
+    </row>
+    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>749</v>
+      </c>
+      <c r="B312" t="s">
+        <v>659</v>
+      </c>
+      <c r="C312" s="2">
+        <v>39</v>
+      </c>
+      <c r="D312" t="s">
+        <v>747</v>
+      </c>
+      <c r="E312" t="s">
+        <v>748</v>
+      </c>
+      <c r="F312" t="str">
+        <f t="shared" si="87"/>
+        <v>502740.42</v>
+      </c>
+      <c r="G312" t="str">
+        <f t="shared" si="78"/>
+        <v>0042757.90</v>
+      </c>
+      <c r="H312">
+        <f t="shared" si="79"/>
+        <v>50</v>
+      </c>
+      <c r="I312">
+        <f t="shared" si="80"/>
+        <v>27</v>
+      </c>
+      <c r="J312">
+        <f t="shared" si="81"/>
+        <v>40.419999999983702</v>
+      </c>
+      <c r="K312">
+        <f t="shared" si="82"/>
+        <v>50.461227777777779</v>
+      </c>
+      <c r="L312">
+        <f t="shared" si="83"/>
+        <v>4</v>
+      </c>
+      <c r="M312">
+        <f t="shared" si="84"/>
+        <v>27</v>
+      </c>
+      <c r="N312">
+        <f t="shared" si="85"/>
+        <v>57.900000000001455</v>
+      </c>
+      <c r="O312">
+        <f t="shared" si="86"/>
+        <v>4.4660833333333336</v>
+      </c>
+    </row>
+    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>749</v>
+      </c>
+      <c r="B313" t="s">
+        <v>810</v>
+      </c>
+      <c r="C313">
+        <v>51</v>
+      </c>
+      <c r="D313" t="s">
+        <v>753</v>
+      </c>
+      <c r="E313" t="s">
+        <v>754</v>
+      </c>
+      <c r="F313" t="str">
+        <f t="shared" ref="F313:F339" si="88">SUBSTITUTE( SUBSTITUTE(D313,"N",""),",",".")</f>
+        <v>502800.50</v>
+      </c>
+      <c r="G313" t="str">
+        <f t="shared" ref="G313:G339" si="89">SUBSTITUTE( SUBSTITUTE(E313,"E",""),",",".")</f>
+        <v>0042750.45</v>
+      </c>
+      <c r="H313">
+        <f t="shared" ref="H313:H339" si="90">_xlfn.FLOOR.MATH(F313/10000)</f>
+        <v>50</v>
+      </c>
+      <c r="I313">
+        <f t="shared" ref="I313:I339" si="91">_xlfn.FLOOR.MATH((F313-H313*10000)/100)</f>
+        <v>28</v>
+      </c>
+      <c r="J313">
+        <f t="shared" ref="J313:J339" si="92">(F313-(H313*10000)-(I313*100))</f>
+        <v>0.5</v>
+      </c>
+      <c r="K313">
+        <f t="shared" ref="K313:K339" si="93" xml:space="preserve"> H313 + (I313/60) + (J313/3600)</f>
+        <v>50.46680555555556</v>
+      </c>
+      <c r="L313">
+        <f t="shared" ref="L313:L339" si="94">_xlfn.FLOOR.MATH(G313/10000)</f>
+        <v>4</v>
+      </c>
+      <c r="M313">
+        <f t="shared" ref="M313:M339" si="95">_xlfn.FLOOR.MATH((G313-L313*10000)/100)</f>
+        <v>27</v>
+      </c>
+      <c r="N313">
+        <f t="shared" ref="N313:N339" si="96">(G313-(L313*10000)-(M313*100))</f>
+        <v>50.44999999999709</v>
+      </c>
+      <c r="O313">
+        <f t="shared" ref="O313:O339" si="97" xml:space="preserve"> L313 + (M313/60) + (N313/3600)</f>
+        <v>4.4640138888888883</v>
+      </c>
+    </row>
+    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>749</v>
+      </c>
+      <c r="B314" t="s">
+        <v>812</v>
+      </c>
+      <c r="C314" s="21" t="s">
+        <v>811</v>
+      </c>
+      <c r="D314" t="s">
+        <v>755</v>
+      </c>
+      <c r="E314" t="s">
+        <v>756</v>
+      </c>
+      <c r="F314" t="str">
+        <f t="shared" si="88"/>
+        <v>502800.67</v>
+      </c>
+      <c r="G314" t="str">
+        <f t="shared" si="89"/>
+        <v>0042750.44</v>
+      </c>
+      <c r="H314">
+        <f t="shared" si="90"/>
+        <v>50</v>
+      </c>
+      <c r="I314">
+        <f t="shared" si="91"/>
+        <v>28</v>
+      </c>
+      <c r="J314">
+        <f t="shared" si="92"/>
+        <v>0.66999999998370185</v>
+      </c>
+      <c r="K314">
+        <f t="shared" si="93"/>
+        <v>50.466852777777774</v>
+      </c>
+      <c r="L314">
+        <f t="shared" si="94"/>
+        <v>4</v>
+      </c>
+      <c r="M314">
+        <f t="shared" si="95"/>
+        <v>27</v>
+      </c>
+      <c r="N314">
+        <f t="shared" si="96"/>
+        <v>50.440000000002328</v>
+      </c>
+      <c r="O314">
+        <f t="shared" si="97"/>
+        <v>4.4640111111111116</v>
+      </c>
+    </row>
+    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>749</v>
+      </c>
+      <c r="B315" t="s">
+        <v>810</v>
+      </c>
+      <c r="C315">
+        <v>52</v>
+      </c>
+      <c r="D315" t="s">
+        <v>757</v>
+      </c>
+      <c r="E315" t="s">
+        <v>758</v>
+      </c>
+      <c r="F315" t="str">
+        <f t="shared" si="88"/>
+        <v>502801.09</v>
+      </c>
+      <c r="G315" t="str">
+        <f t="shared" si="89"/>
+        <v>0042752.46</v>
+      </c>
+      <c r="H315">
+        <f t="shared" si="90"/>
+        <v>50</v>
+      </c>
+      <c r="I315">
+        <f t="shared" si="91"/>
+        <v>28</v>
+      </c>
+      <c r="J315">
+        <f t="shared" si="92"/>
+        <v>1.0900000000256114</v>
+      </c>
+      <c r="K315">
+        <f t="shared" si="93"/>
+        <v>50.466969444444452</v>
+      </c>
+      <c r="L315">
+        <f t="shared" si="94"/>
+        <v>4</v>
+      </c>
+      <c r="M315">
+        <f t="shared" si="95"/>
+        <v>27</v>
+      </c>
+      <c r="N315">
+        <f t="shared" si="96"/>
+        <v>52.459999999999127</v>
+      </c>
+      <c r="O315">
+        <f t="shared" si="97"/>
+        <v>4.4645722222222224</v>
+      </c>
+    </row>
+    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>749</v>
+      </c>
+      <c r="B316" t="s">
+        <v>810</v>
+      </c>
+      <c r="C316">
+        <v>53</v>
+      </c>
+      <c r="D316" t="s">
+        <v>759</v>
+      </c>
+      <c r="E316" t="s">
+        <v>760</v>
+      </c>
+      <c r="F316" t="str">
+        <f t="shared" si="88"/>
+        <v>502801.67</v>
+      </c>
+      <c r="G316" t="str">
+        <f t="shared" si="89"/>
+        <v>0042754.47</v>
+      </c>
+      <c r="H316">
+        <f t="shared" si="90"/>
+        <v>50</v>
+      </c>
+      <c r="I316">
+        <f t="shared" si="91"/>
+        <v>28</v>
+      </c>
+      <c r="J316">
+        <f t="shared" si="92"/>
+        <v>1.6699999999837019</v>
+      </c>
+      <c r="K316">
+        <f t="shared" si="93"/>
+        <v>50.467130555555556</v>
+      </c>
+      <c r="L316">
+        <f t="shared" si="94"/>
+        <v>4</v>
+      </c>
+      <c r="M316">
+        <f t="shared" si="95"/>
+        <v>27</v>
+      </c>
+      <c r="N316">
+        <f t="shared" si="96"/>
+        <v>54.470000000001164</v>
+      </c>
+      <c r="O316">
+        <f t="shared" si="97"/>
+        <v>4.4651305555555565</v>
+      </c>
+    </row>
+    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>749</v>
+      </c>
+      <c r="B317" t="s">
+        <v>810</v>
+      </c>
+      <c r="C317">
+        <v>54</v>
+      </c>
+      <c r="D317" t="s">
+        <v>761</v>
+      </c>
+      <c r="E317" t="s">
+        <v>762</v>
+      </c>
+      <c r="F317" t="str">
+        <f t="shared" si="88"/>
+        <v>502802.29</v>
+      </c>
+      <c r="G317" t="str">
+        <f t="shared" si="89"/>
+        <v>0042756.60</v>
+      </c>
+      <c r="H317">
+        <f t="shared" si="90"/>
+        <v>50</v>
+      </c>
+      <c r="I317">
+        <f t="shared" si="91"/>
+        <v>28</v>
+      </c>
+      <c r="J317">
+        <f t="shared" si="92"/>
+        <v>2.2899999999790452</v>
+      </c>
+      <c r="K317">
+        <f t="shared" si="93"/>
+        <v>50.467302777777775</v>
+      </c>
+      <c r="L317">
+        <f t="shared" si="94"/>
+        <v>4</v>
+      </c>
+      <c r="M317">
+        <f t="shared" si="95"/>
+        <v>27</v>
+      </c>
+      <c r="N317">
+        <f t="shared" si="96"/>
+        <v>56.599999999998545</v>
+      </c>
+      <c r="O317">
+        <f t="shared" si="97"/>
+        <v>4.4657222222222224</v>
+      </c>
+    </row>
+    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>749</v>
+      </c>
+      <c r="B318" t="s">
+        <v>810</v>
+      </c>
+      <c r="C318">
+        <v>55</v>
+      </c>
+      <c r="D318" t="s">
+        <v>763</v>
+      </c>
+      <c r="E318" t="s">
+        <v>764</v>
+      </c>
+      <c r="F318" t="str">
+        <f t="shared" si="88"/>
+        <v>502802.87</v>
+      </c>
+      <c r="G318" t="str">
+        <f t="shared" si="89"/>
+        <v>0042758.61</v>
+      </c>
+      <c r="H318">
+        <f t="shared" si="90"/>
+        <v>50</v>
+      </c>
+      <c r="I318">
+        <f t="shared" si="91"/>
+        <v>28</v>
+      </c>
+      <c r="J318">
+        <f t="shared" si="92"/>
+        <v>2.8699999999953434</v>
+      </c>
+      <c r="K318">
+        <f t="shared" si="93"/>
+        <v>50.467463888888886</v>
+      </c>
+      <c r="L318">
+        <f t="shared" si="94"/>
+        <v>4</v>
+      </c>
+      <c r="M318">
+        <f t="shared" si="95"/>
+        <v>27</v>
+      </c>
+      <c r="N318">
+        <f t="shared" si="96"/>
+        <v>58.610000000000582</v>
+      </c>
+      <c r="O318">
+        <f t="shared" si="97"/>
+        <v>4.4662805555555556</v>
+      </c>
+    </row>
+    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>749</v>
+      </c>
+      <c r="B319" t="s">
+        <v>812</v>
+      </c>
+      <c r="C319" s="21" t="s">
+        <v>765</v>
+      </c>
+      <c r="D319" t="s">
+        <v>766</v>
+      </c>
+      <c r="E319" t="s">
+        <v>767</v>
+      </c>
+      <c r="F319" t="str">
+        <f t="shared" si="88"/>
+        <v>502802.89</v>
+      </c>
+      <c r="G319" t="str">
+        <f t="shared" si="89"/>
+        <v>0042758.08</v>
+      </c>
+      <c r="H319">
+        <f t="shared" si="90"/>
+        <v>50</v>
+      </c>
+      <c r="I319">
+        <f t="shared" si="91"/>
+        <v>28</v>
+      </c>
+      <c r="J319">
+        <f t="shared" si="92"/>
+        <v>2.8900000000139698</v>
+      </c>
+      <c r="K319">
+        <f t="shared" si="93"/>
+        <v>50.467469444444447</v>
+      </c>
+      <c r="L319">
+        <f t="shared" si="94"/>
+        <v>4</v>
+      </c>
+      <c r="M319">
+        <f t="shared" si="95"/>
+        <v>27</v>
+      </c>
+      <c r="N319">
+        <f t="shared" si="96"/>
+        <v>58.080000000001746</v>
+      </c>
+      <c r="O319">
+        <f t="shared" si="97"/>
+        <v>4.4661333333333344</v>
+      </c>
+    </row>
+    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>749</v>
+      </c>
+      <c r="B320" t="s">
+        <v>810</v>
+      </c>
+      <c r="C320">
+        <v>56</v>
+      </c>
+      <c r="D320" t="s">
+        <v>768</v>
+      </c>
+      <c r="E320" t="s">
+        <v>769</v>
+      </c>
+      <c r="F320" t="str">
+        <f t="shared" si="88"/>
+        <v>502803.54</v>
+      </c>
+      <c r="G320" t="str">
+        <f t="shared" si="89"/>
+        <v>0042800.29</v>
+      </c>
+      <c r="H320">
+        <f t="shared" si="90"/>
+        <v>50</v>
+      </c>
+      <c r="I320">
+        <f t="shared" si="91"/>
+        <v>28</v>
+      </c>
+      <c r="J320">
+        <f t="shared" si="92"/>
+        <v>3.5399999999790452</v>
+      </c>
+      <c r="K320">
+        <f t="shared" si="93"/>
+        <v>50.467649999999999</v>
+      </c>
+      <c r="L320">
+        <f t="shared" si="94"/>
+        <v>4</v>
+      </c>
+      <c r="M320">
+        <f t="shared" si="95"/>
+        <v>28</v>
+      </c>
+      <c r="N320">
+        <f t="shared" si="96"/>
+        <v>0.29000000000087311</v>
+      </c>
+      <c r="O320">
+        <f t="shared" si="97"/>
+        <v>4.4667472222222226</v>
+      </c>
+    </row>
+    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>749</v>
+      </c>
+      <c r="B321" t="s">
+        <v>810</v>
+      </c>
+      <c r="C321">
+        <v>57</v>
+      </c>
+      <c r="D321" t="s">
+        <v>770</v>
+      </c>
+      <c r="E321" t="s">
+        <v>771</v>
+      </c>
+      <c r="F321" t="str">
+        <f t="shared" si="88"/>
+        <v>502804.25</v>
+      </c>
+      <c r="G321" t="str">
+        <f t="shared" si="89"/>
+        <v>0042802.61</v>
+      </c>
+      <c r="H321">
+        <f t="shared" si="90"/>
+        <v>50</v>
+      </c>
+      <c r="I321">
+        <f t="shared" si="91"/>
+        <v>28</v>
+      </c>
+      <c r="J321">
+        <f t="shared" si="92"/>
+        <v>4.25</v>
+      </c>
+      <c r="K321">
+        <f t="shared" si="93"/>
+        <v>50.467847222222225</v>
+      </c>
+      <c r="L321">
+        <f t="shared" si="94"/>
+        <v>4</v>
+      </c>
+      <c r="M321">
+        <f t="shared" si="95"/>
+        <v>28</v>
+      </c>
+      <c r="N321">
+        <f t="shared" si="96"/>
+        <v>2.6100000000005821</v>
+      </c>
+      <c r="O321">
+        <f t="shared" si="97"/>
+        <v>4.4673916666666669</v>
+      </c>
+    </row>
+    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>749</v>
+      </c>
+      <c r="B322" t="s">
+        <v>812</v>
+      </c>
+      <c r="C322" s="21" t="s">
+        <v>772</v>
+      </c>
+      <c r="D322" t="s">
+        <v>773</v>
+      </c>
+      <c r="E322" t="s">
+        <v>774</v>
+      </c>
+      <c r="F322" t="str">
+        <f t="shared" si="88"/>
+        <v>502804.08</v>
+      </c>
+      <c r="G322" t="str">
+        <f t="shared" si="89"/>
+        <v>0042802.16</v>
+      </c>
+      <c r="H322">
+        <f t="shared" si="90"/>
+        <v>50</v>
+      </c>
+      <c r="I322">
+        <f t="shared" si="91"/>
+        <v>28</v>
+      </c>
+      <c r="J322">
+        <f t="shared" si="92"/>
+        <v>4.0800000000162981</v>
+      </c>
+      <c r="K322">
+        <f t="shared" si="93"/>
+        <v>50.467800000000004</v>
+      </c>
+      <c r="L322">
+        <f t="shared" si="94"/>
+        <v>4</v>
+      </c>
+      <c r="M322">
+        <f t="shared" si="95"/>
+        <v>28</v>
+      </c>
+      <c r="N322">
+        <f t="shared" si="96"/>
+        <v>2.1600000000034925</v>
+      </c>
+      <c r="O322">
+        <f t="shared" si="97"/>
+        <v>4.4672666666666681</v>
+      </c>
+    </row>
+    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>749</v>
+      </c>
+      <c r="B323" t="s">
+        <v>810</v>
+      </c>
+      <c r="C323">
+        <v>58</v>
+      </c>
+      <c r="D323" t="s">
+        <v>775</v>
+      </c>
+      <c r="E323" t="s">
+        <v>776</v>
+      </c>
+      <c r="F323" t="str">
+        <f t="shared" si="88"/>
+        <v>502804.97</v>
+      </c>
+      <c r="G323" t="str">
+        <f t="shared" si="89"/>
+        <v>0042805.07</v>
+      </c>
+      <c r="H323">
+        <f t="shared" si="90"/>
+        <v>50</v>
+      </c>
+      <c r="I323">
+        <f t="shared" si="91"/>
+        <v>28</v>
+      </c>
+      <c r="J323">
+        <f t="shared" si="92"/>
+        <v>4.9699999999720603</v>
+      </c>
+      <c r="K323">
+        <f t="shared" si="93"/>
+        <v>50.468047222222218</v>
+      </c>
+      <c r="L323">
+        <f t="shared" si="94"/>
+        <v>4</v>
+      </c>
+      <c r="M323">
+        <f t="shared" si="95"/>
+        <v>28</v>
+      </c>
+      <c r="N323">
+        <f t="shared" si="96"/>
+        <v>5.069999999999709</v>
+      </c>
+      <c r="O323">
+        <f t="shared" si="97"/>
+        <v>4.4680749999999998</v>
+      </c>
+    </row>
+    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>749</v>
+      </c>
+      <c r="B324" t="s">
+        <v>810</v>
+      </c>
+      <c r="C324">
+        <v>59</v>
+      </c>
+      <c r="D324" t="s">
+        <v>777</v>
+      </c>
+      <c r="E324" t="s">
+        <v>778</v>
+      </c>
+      <c r="F324" t="str">
+        <f t="shared" si="88"/>
+        <v>502805.55</v>
+      </c>
+      <c r="G324" t="str">
+        <f t="shared" si="89"/>
+        <v>0042807.08</v>
+      </c>
+      <c r="H324">
+        <f t="shared" si="90"/>
+        <v>50</v>
+      </c>
+      <c r="I324">
+        <f t="shared" si="91"/>
+        <v>28</v>
+      </c>
+      <c r="J324">
+        <f t="shared" si="92"/>
+        <v>5.5499999999883585</v>
+      </c>
+      <c r="K324">
+        <f t="shared" si="93"/>
+        <v>50.46820833333333</v>
+      </c>
+      <c r="L324">
+        <f t="shared" si="94"/>
+        <v>4</v>
+      </c>
+      <c r="M324">
+        <f t="shared" si="95"/>
+        <v>28</v>
+      </c>
+      <c r="N324">
+        <f t="shared" si="96"/>
+        <v>7.0800000000017462</v>
+      </c>
+      <c r="O324">
+        <f t="shared" si="97"/>
+        <v>4.4686333333333339</v>
+      </c>
+    </row>
+    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>749</v>
+      </c>
+      <c r="B325" t="s">
+        <v>810</v>
+      </c>
+      <c r="C325">
+        <v>60</v>
+      </c>
+      <c r="D325" t="s">
+        <v>779</v>
+      </c>
+      <c r="E325" t="s">
+        <v>780</v>
+      </c>
+      <c r="F325" t="str">
+        <f t="shared" si="88"/>
+        <v>502806.13</v>
+      </c>
+      <c r="G325" t="str">
+        <f t="shared" si="89"/>
+        <v>0042809.08</v>
+      </c>
+      <c r="H325">
+        <f t="shared" si="90"/>
+        <v>50</v>
+      </c>
+      <c r="I325">
+        <f t="shared" si="91"/>
+        <v>28</v>
+      </c>
+      <c r="J325">
+        <f t="shared" si="92"/>
+        <v>6.1300000000046566</v>
+      </c>
+      <c r="K325">
+        <f t="shared" si="93"/>
+        <v>50.468369444444448</v>
+      </c>
+      <c r="L325">
+        <f t="shared" si="94"/>
+        <v>4</v>
+      </c>
+      <c r="M325">
+        <f t="shared" si="95"/>
+        <v>28</v>
+      </c>
+      <c r="N325">
+        <f t="shared" si="96"/>
+        <v>9.0800000000017462</v>
+      </c>
+      <c r="O325">
+        <f t="shared" si="97"/>
+        <v>4.4691888888888895</v>
+      </c>
+    </row>
+    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>749</v>
+      </c>
+      <c r="B326" t="s">
+        <v>810</v>
+      </c>
+      <c r="C326">
+        <v>61</v>
+      </c>
+      <c r="D326" t="s">
+        <v>781</v>
+      </c>
+      <c r="E326" t="s">
+        <v>782</v>
+      </c>
+      <c r="F326" t="str">
+        <f t="shared" si="88"/>
+        <v>502806.71</v>
+      </c>
+      <c r="G326" t="str">
+        <f t="shared" si="89"/>
+        <v>0042811.09</v>
+      </c>
+      <c r="H326">
+        <f t="shared" si="90"/>
+        <v>50</v>
+      </c>
+      <c r="I326">
+        <f t="shared" si="91"/>
+        <v>28</v>
+      </c>
+      <c r="J326">
+        <f t="shared" si="92"/>
+        <v>6.7100000000209548</v>
+      </c>
+      <c r="K326">
+        <f t="shared" si="93"/>
+        <v>50.46853055555556</v>
+      </c>
+      <c r="L326">
+        <f t="shared" si="94"/>
+        <v>4</v>
+      </c>
+      <c r="M326">
+        <f t="shared" si="95"/>
+        <v>28</v>
+      </c>
+      <c r="N326">
+        <f t="shared" si="96"/>
+        <v>11.089999999996508</v>
+      </c>
+      <c r="O326">
+        <f t="shared" si="97"/>
+        <v>4.469747222222221</v>
+      </c>
+    </row>
+    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>749</v>
+      </c>
+      <c r="B327" t="s">
+        <v>810</v>
+      </c>
+      <c r="C327">
+        <v>62</v>
+      </c>
+      <c r="D327" t="s">
+        <v>783</v>
+      </c>
+      <c r="E327" t="s">
+        <v>784</v>
+      </c>
+      <c r="F327" t="str">
+        <f t="shared" si="88"/>
+        <v>502807.29</v>
+      </c>
+      <c r="G327" t="str">
+        <f t="shared" si="89"/>
+        <v>0042813.09</v>
+      </c>
+      <c r="H327">
+        <f t="shared" si="90"/>
+        <v>50</v>
+      </c>
+      <c r="I327">
+        <f t="shared" si="91"/>
+        <v>28</v>
+      </c>
+      <c r="J327">
+        <f t="shared" si="92"/>
+        <v>7.2899999999790452</v>
+      </c>
+      <c r="K327">
+        <f t="shared" si="93"/>
+        <v>50.468691666666665</v>
+      </c>
+      <c r="L327">
+        <f t="shared" si="94"/>
+        <v>4</v>
+      </c>
+      <c r="M327">
+        <f t="shared" si="95"/>
+        <v>28</v>
+      </c>
+      <c r="N327">
+        <f t="shared" si="96"/>
+        <v>13.089999999996508</v>
+      </c>
+      <c r="O327">
+        <f t="shared" si="97"/>
+        <v>4.4703027777777766</v>
+      </c>
+    </row>
+    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>749</v>
+      </c>
+      <c r="B328" t="s">
+        <v>810</v>
+      </c>
+      <c r="C328">
+        <v>63</v>
+      </c>
+      <c r="D328" t="s">
+        <v>785</v>
+      </c>
+      <c r="E328" t="s">
+        <v>786</v>
+      </c>
+      <c r="F328" t="str">
+        <f t="shared" si="88"/>
+        <v>502807.88</v>
+      </c>
+      <c r="G328" t="str">
+        <f t="shared" si="89"/>
+        <v>0042815.10</v>
+      </c>
+      <c r="H328">
+        <f t="shared" si="90"/>
+        <v>50</v>
+      </c>
+      <c r="I328">
+        <f t="shared" si="91"/>
+        <v>28</v>
+      </c>
+      <c r="J328">
+        <f t="shared" si="92"/>
+        <v>7.8800000000046566</v>
+      </c>
+      <c r="K328">
+        <f t="shared" si="93"/>
+        <v>50.468855555555557</v>
+      </c>
+      <c r="L328">
+        <f t="shared" si="94"/>
+        <v>4</v>
+      </c>
+      <c r="M328">
+        <f t="shared" si="95"/>
+        <v>28</v>
+      </c>
+      <c r="N328">
+        <f t="shared" si="96"/>
+        <v>15.099999999998545</v>
+      </c>
+      <c r="O328">
+        <f t="shared" si="97"/>
+        <v>4.4708611111111107</v>
+      </c>
+    </row>
+    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>749</v>
+      </c>
+      <c r="B329" t="s">
+        <v>810</v>
+      </c>
+      <c r="C329">
+        <v>64</v>
+      </c>
+      <c r="D329" t="s">
+        <v>787</v>
+      </c>
+      <c r="E329" t="s">
+        <v>788</v>
+      </c>
+      <c r="F329" t="str">
+        <f t="shared" si="88"/>
+        <v>502808.59</v>
+      </c>
+      <c r="G329" t="str">
+        <f t="shared" si="89"/>
+        <v>0042817.57</v>
+      </c>
+      <c r="H329">
+        <f t="shared" si="90"/>
+        <v>50</v>
+      </c>
+      <c r="I329">
+        <f t="shared" si="91"/>
+        <v>28</v>
+      </c>
+      <c r="J329">
+        <f t="shared" si="92"/>
+        <v>8.5900000000256114</v>
+      </c>
+      <c r="K329">
+        <f t="shared" si="93"/>
+        <v>50.46905277777779</v>
+      </c>
+      <c r="L329">
+        <f t="shared" si="94"/>
+        <v>4</v>
+      </c>
+      <c r="M329">
+        <f t="shared" si="95"/>
+        <v>28</v>
+      </c>
+      <c r="N329">
+        <f t="shared" si="96"/>
+        <v>17.569999999999709</v>
+      </c>
+      <c r="O329">
+        <f t="shared" si="97"/>
+        <v>4.4715472222222221</v>
+      </c>
+    </row>
+    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>749</v>
+      </c>
+      <c r="B330" t="s">
+        <v>810</v>
+      </c>
+      <c r="C330">
+        <v>65</v>
+      </c>
+      <c r="D330" t="s">
+        <v>789</v>
+      </c>
+      <c r="E330" t="s">
+        <v>790</v>
+      </c>
+      <c r="F330" t="str">
+        <f t="shared" si="88"/>
+        <v>502809.17</v>
+      </c>
+      <c r="G330" t="str">
+        <f t="shared" si="89"/>
+        <v>0042819.57</v>
+      </c>
+      <c r="H330">
+        <f t="shared" si="90"/>
+        <v>50</v>
+      </c>
+      <c r="I330">
+        <f t="shared" si="91"/>
+        <v>28</v>
+      </c>
+      <c r="J330">
+        <f t="shared" si="92"/>
+        <v>9.1699999999837019</v>
+      </c>
+      <c r="K330">
+        <f t="shared" si="93"/>
+        <v>50.469213888888888</v>
+      </c>
+      <c r="L330">
+        <f t="shared" si="94"/>
+        <v>4</v>
+      </c>
+      <c r="M330">
+        <f t="shared" si="95"/>
+        <v>28</v>
+      </c>
+      <c r="N330">
+        <f t="shared" si="96"/>
+        <v>19.569999999999709</v>
+      </c>
+      <c r="O330">
+        <f t="shared" si="97"/>
+        <v>4.4721027777777778</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>749</v>
+      </c>
+      <c r="B331" t="s">
+        <v>810</v>
+      </c>
+      <c r="C331">
+        <v>93</v>
+      </c>
+      <c r="D331" t="s">
+        <v>791</v>
+      </c>
+      <c r="E331" t="s">
+        <v>792</v>
+      </c>
+      <c r="F331" t="str">
+        <f t="shared" si="88"/>
+        <v>502804.65</v>
+      </c>
+      <c r="G331" t="str">
+        <f t="shared" si="89"/>
+        <v>0042817.39</v>
+      </c>
+      <c r="H331">
+        <f t="shared" si="90"/>
+        <v>50</v>
+      </c>
+      <c r="I331">
+        <f t="shared" si="91"/>
+        <v>28</v>
+      </c>
+      <c r="J331">
+        <f t="shared" si="92"/>
+        <v>4.6500000000232831</v>
+      </c>
+      <c r="K331">
+        <f t="shared" si="93"/>
+        <v>50.467958333333343</v>
+      </c>
+      <c r="L331">
+        <f t="shared" si="94"/>
+        <v>4</v>
+      </c>
+      <c r="M331">
+        <f t="shared" si="95"/>
+        <v>28</v>
+      </c>
+      <c r="N331">
+        <f t="shared" si="96"/>
+        <v>17.389999999999418</v>
+      </c>
+      <c r="O331">
+        <f t="shared" si="97"/>
+        <v>4.4714972222222222</v>
+      </c>
+    </row>
+    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>749</v>
+      </c>
+      <c r="B332" t="s">
+        <v>810</v>
+      </c>
+      <c r="C332">
+        <v>66</v>
+      </c>
+      <c r="D332" t="s">
+        <v>793</v>
+      </c>
+      <c r="E332" t="s">
+        <v>794</v>
+      </c>
+      <c r="F332" t="str">
+        <f t="shared" si="88"/>
+        <v>502809.89</v>
+      </c>
+      <c r="G332" t="str">
+        <f t="shared" si="89"/>
+        <v>0042822.04</v>
+      </c>
+      <c r="H332">
+        <f t="shared" si="90"/>
+        <v>50</v>
+      </c>
+      <c r="I332">
+        <f t="shared" si="91"/>
+        <v>28</v>
+      </c>
+      <c r="J332">
+        <f t="shared" si="92"/>
+        <v>9.8900000000139698</v>
+      </c>
+      <c r="K332">
+        <f t="shared" si="93"/>
+        <v>50.469413888888894</v>
+      </c>
+      <c r="L332">
+        <f t="shared" si="94"/>
+        <v>4</v>
+      </c>
+      <c r="M332">
+        <f t="shared" si="95"/>
+        <v>28</v>
+      </c>
+      <c r="N332">
+        <f t="shared" si="96"/>
+        <v>22.040000000000873</v>
+      </c>
+      <c r="O332">
+        <f t="shared" si="97"/>
+        <v>4.4727888888888891</v>
+      </c>
+    </row>
+    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>749</v>
+      </c>
+      <c r="B333" t="s">
+        <v>810</v>
+      </c>
+      <c r="C333">
+        <v>67</v>
+      </c>
+      <c r="D333" t="s">
+        <v>795</v>
+      </c>
+      <c r="E333" t="s">
+        <v>796</v>
+      </c>
+      <c r="F333" t="str">
+        <f t="shared" si="88"/>
+        <v>502810.54</v>
+      </c>
+      <c r="G333" t="str">
+        <f t="shared" si="89"/>
+        <v>0042824.40</v>
+      </c>
+      <c r="H333">
+        <f t="shared" si="90"/>
+        <v>50</v>
+      </c>
+      <c r="I333">
+        <f t="shared" si="91"/>
+        <v>28</v>
+      </c>
+      <c r="J333">
+        <f t="shared" si="92"/>
+        <v>10.539999999979045</v>
+      </c>
+      <c r="K333">
+        <f t="shared" si="93"/>
+        <v>50.469594444444439</v>
+      </c>
+      <c r="L333">
+        <f t="shared" si="94"/>
+        <v>4</v>
+      </c>
+      <c r="M333">
+        <f t="shared" si="95"/>
+        <v>28</v>
+      </c>
+      <c r="N333">
+        <f t="shared" si="96"/>
+        <v>24.400000000001455</v>
+      </c>
+      <c r="O333">
+        <f t="shared" si="97"/>
+        <v>4.4734444444444446</v>
+      </c>
+    </row>
+    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>749</v>
+      </c>
+      <c r="B334" t="s">
+        <v>812</v>
+      </c>
+      <c r="C334" s="21" t="s">
+        <v>797</v>
+      </c>
+      <c r="D334" t="s">
+        <v>798</v>
+      </c>
+      <c r="E334" t="s">
+        <v>799</v>
+      </c>
+      <c r="F334" t="str">
+        <f t="shared" si="88"/>
+        <v>502810.49</v>
+      </c>
+      <c r="G334" t="str">
+        <f t="shared" si="89"/>
+        <v>0042824.11</v>
+      </c>
+      <c r="H334">
+        <f t="shared" si="90"/>
+        <v>50</v>
+      </c>
+      <c r="I334">
+        <f t="shared" si="91"/>
+        <v>28</v>
+      </c>
+      <c r="J334">
+        <f t="shared" si="92"/>
+        <v>10.489999999990687</v>
+      </c>
+      <c r="K334">
+        <f t="shared" si="93"/>
+        <v>50.469580555555552</v>
+      </c>
+      <c r="L334">
+        <f t="shared" si="94"/>
+        <v>4</v>
+      </c>
+      <c r="M334">
+        <f t="shared" si="95"/>
+        <v>28</v>
+      </c>
+      <c r="N334">
+        <f t="shared" si="96"/>
+        <v>24.110000000000582</v>
+      </c>
+      <c r="O334">
+        <f t="shared" si="97"/>
+        <v>4.4733638888888896</v>
+      </c>
+    </row>
+    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>749</v>
+      </c>
+      <c r="B335" t="s">
+        <v>810</v>
+      </c>
+      <c r="C335">
+        <v>68</v>
+      </c>
+      <c r="D335" t="s">
+        <v>800</v>
+      </c>
+      <c r="E335" t="s">
+        <v>801</v>
+      </c>
+      <c r="F335" t="str">
+        <f t="shared" si="88"/>
+        <v>502810.90</v>
+      </c>
+      <c r="G335" t="str">
+        <f t="shared" si="89"/>
+        <v>0042826.26</v>
+      </c>
+      <c r="H335">
+        <f t="shared" si="90"/>
+        <v>50</v>
+      </c>
+      <c r="I335">
+        <f t="shared" si="91"/>
+        <v>28</v>
+      </c>
+      <c r="J335">
+        <f t="shared" si="92"/>
+        <v>10.900000000023283</v>
+      </c>
+      <c r="K335">
+        <f t="shared" si="93"/>
+        <v>50.46969444444445</v>
+      </c>
+      <c r="L335">
+        <f t="shared" si="94"/>
+        <v>4</v>
+      </c>
+      <c r="M335">
+        <f t="shared" si="95"/>
+        <v>28</v>
+      </c>
+      <c r="N335">
+        <f t="shared" si="96"/>
+        <v>26.260000000002037</v>
+      </c>
+      <c r="O335">
+        <f t="shared" si="97"/>
+        <v>4.4739611111111115</v>
+      </c>
+    </row>
+    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>749</v>
+      </c>
+      <c r="B336" t="s">
+        <v>810</v>
+      </c>
+      <c r="C336">
+        <v>69</v>
+      </c>
+      <c r="D336" t="s">
+        <v>802</v>
+      </c>
+      <c r="E336" t="s">
+        <v>803</v>
+      </c>
+      <c r="F336" t="str">
+        <f t="shared" si="88"/>
+        <v>502811.48</v>
+      </c>
+      <c r="G336" t="str">
+        <f t="shared" si="89"/>
+        <v>0042828.27</v>
+      </c>
+      <c r="H336">
+        <f t="shared" si="90"/>
+        <v>50</v>
+      </c>
+      <c r="I336">
+        <f t="shared" si="91"/>
+        <v>28</v>
+      </c>
+      <c r="J336">
+        <f t="shared" si="92"/>
+        <v>11.479999999981374</v>
+      </c>
+      <c r="K336">
+        <f t="shared" si="93"/>
+        <v>50.469855555555554</v>
+      </c>
+      <c r="L336">
+        <f t="shared" si="94"/>
+        <v>4</v>
+      </c>
+      <c r="M336">
+        <f t="shared" si="95"/>
+        <v>28</v>
+      </c>
+      <c r="N336">
+        <f t="shared" si="96"/>
+        <v>28.269999999996799</v>
+      </c>
+      <c r="O336">
+        <f t="shared" si="97"/>
+        <v>4.4745194444444438</v>
+      </c>
+    </row>
+    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>749</v>
+      </c>
+      <c r="B337" t="s">
+        <v>810</v>
+      </c>
+      <c r="C337">
+        <v>70</v>
+      </c>
+      <c r="D337" t="s">
+        <v>804</v>
+      </c>
+      <c r="E337" t="s">
+        <v>805</v>
+      </c>
+      <c r="F337" t="str">
+        <f t="shared" si="88"/>
+        <v>502812.06</v>
+      </c>
+      <c r="G337" t="str">
+        <f t="shared" si="89"/>
+        <v>0042830.28</v>
+      </c>
+      <c r="H337">
+        <f t="shared" si="90"/>
+        <v>50</v>
+      </c>
+      <c r="I337">
+        <f t="shared" si="91"/>
+        <v>28</v>
+      </c>
+      <c r="J337">
+        <f t="shared" si="92"/>
+        <v>12.059999999997672</v>
+      </c>
+      <c r="K337">
+        <f t="shared" si="93"/>
+        <v>50.470016666666666</v>
+      </c>
+      <c r="L337">
+        <f t="shared" si="94"/>
+        <v>4</v>
+      </c>
+      <c r="M337">
+        <f t="shared" si="95"/>
+        <v>28</v>
+      </c>
+      <c r="N337">
+        <f t="shared" si="96"/>
+        <v>30.279999999998836</v>
+      </c>
+      <c r="O337">
+        <f t="shared" si="97"/>
+        <v>4.4750777777777779</v>
+      </c>
+    </row>
+    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>749</v>
+      </c>
+      <c r="B338" t="s">
+        <v>810</v>
+      </c>
+      <c r="C338">
+        <v>71</v>
+      </c>
+      <c r="D338" t="s">
+        <v>806</v>
+      </c>
+      <c r="E338" t="s">
+        <v>807</v>
+      </c>
+      <c r="F338" t="str">
+        <f t="shared" si="88"/>
+        <v>502812.84</v>
+      </c>
+      <c r="G338" t="str">
+        <f t="shared" si="89"/>
+        <v>0042832.20</v>
+      </c>
+      <c r="H338">
+        <f t="shared" si="90"/>
+        <v>50</v>
+      </c>
+      <c r="I338">
+        <f t="shared" si="91"/>
+        <v>28</v>
+      </c>
+      <c r="J338">
+        <f t="shared" si="92"/>
+        <v>12.840000000025611</v>
+      </c>
+      <c r="K338">
+        <f t="shared" si="93"/>
+        <v>50.47023333333334</v>
+      </c>
+      <c r="L338">
+        <f t="shared" si="94"/>
+        <v>4</v>
+      </c>
+      <c r="M338">
+        <f t="shared" si="95"/>
+        <v>28</v>
+      </c>
+      <c r="N338">
+        <f t="shared" si="96"/>
+        <v>32.19999999999709</v>
+      </c>
+      <c r="O338">
+        <f t="shared" si="97"/>
+        <v>4.4756111111111103</v>
+      </c>
+    </row>
+    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>749</v>
+      </c>
+      <c r="B339" t="s">
+        <v>810</v>
+      </c>
+      <c r="C339">
+        <v>72</v>
+      </c>
+      <c r="D339" t="s">
+        <v>808</v>
+      </c>
+      <c r="E339" t="s">
+        <v>809</v>
+      </c>
+      <c r="F339" t="str">
+        <f t="shared" si="88"/>
+        <v>502813.42</v>
+      </c>
+      <c r="G339" t="str">
+        <f t="shared" si="89"/>
+        <v>0042834.21</v>
+      </c>
+      <c r="H339">
+        <f t="shared" si="90"/>
+        <v>50</v>
+      </c>
+      <c r="I339">
+        <f t="shared" si="91"/>
+        <v>28</v>
+      </c>
+      <c r="J339">
+        <f t="shared" si="92"/>
+        <v>13.419999999983702</v>
+      </c>
+      <c r="K339">
+        <f t="shared" si="93"/>
+        <v>50.470394444444445</v>
+      </c>
+      <c r="L339">
+        <f t="shared" si="94"/>
+        <v>4</v>
+      </c>
+      <c r="M339">
+        <f t="shared" si="95"/>
+        <v>28</v>
+      </c>
+      <c r="N339">
+        <f t="shared" si="96"/>
+        <v>34.209999999999127</v>
+      </c>
+      <c r="O339">
+        <f t="shared" si="97"/>
+        <v>4.4761694444444444</v>
       </c>
     </row>
   </sheetData>

--- a/api/data/gates_db.xlsx
+++ b/api/data/gates_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\belux\belux-gate-manager-api\api\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11618F5-F81F-47F0-B4F6-A8E3F2AF3AC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06334332-78DA-45EF-B83C-DA2D7A5E8BCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14385" yWindow="1050" windowWidth="21600" windowHeight="11385" xr2:uid="{A18B69D9-28ED-47D3-8556-C314F1DB8CFD}"/>
+    <workbookView xWindow="7200" yWindow="1050" windowWidth="21600" windowHeight="11385" xr2:uid="{A18B69D9-28ED-47D3-8556-C314F1DB8CFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="1290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="1291">
   <si>
     <t>505335.23N</t>
   </si>
@@ -7001,6 +7001,9 @@
   </si>
   <si>
     <t>apron-2-overflow</t>
+  </si>
+  <si>
+    <t>apron-north-new</t>
   </si>
 </sst>
 </file>
@@ -7460,8 +7463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A74C131-8C0C-4CF6-B99D-A6421F63E231}">
   <dimension ref="A1:O479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A417" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B435" sqref="B435"/>
+    <sheetView tabSelected="1" topLeftCell="A378" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B393" sqref="B393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28930,7 +28933,7 @@
         <v>857</v>
       </c>
       <c r="B392" t="s">
-        <v>904</v>
+        <v>1290</v>
       </c>
       <c r="C392" s="22">
         <v>130</v>
@@ -28986,8 +28989,8 @@
       <c r="A393" t="s">
         <v>857</v>
       </c>
-      <c r="B393" t="s">
-        <v>904</v>
+      <c r="B393" s="29" t="s">
+        <v>1290</v>
       </c>
       <c r="C393" s="22">
         <v>132</v>
@@ -29043,8 +29046,8 @@
       <c r="A394" t="s">
         <v>857</v>
       </c>
-      <c r="B394" t="s">
-        <v>904</v>
+      <c r="B394" s="29" t="s">
+        <v>1290</v>
       </c>
       <c r="C394" s="22">
         <v>134</v>
@@ -29100,8 +29103,8 @@
       <c r="A395" t="s">
         <v>857</v>
       </c>
-      <c r="B395" t="s">
-        <v>904</v>
+      <c r="B395" s="29" t="s">
+        <v>1290</v>
       </c>
       <c r="C395" s="22">
         <v>136</v>
@@ -29157,8 +29160,8 @@
       <c r="A396" t="s">
         <v>857</v>
       </c>
-      <c r="B396" t="s">
-        <v>904</v>
+      <c r="B396" s="29" t="s">
+        <v>1290</v>
       </c>
       <c r="C396" s="22">
         <v>138</v>
@@ -29214,8 +29217,8 @@
       <c r="A397" t="s">
         <v>857</v>
       </c>
-      <c r="B397" t="s">
-        <v>904</v>
+      <c r="B397" s="29" t="s">
+        <v>1290</v>
       </c>
       <c r="C397" s="22">
         <v>140</v>

--- a/api/data/gates_db.xlsx
+++ b/api/data/gates_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\belux\belux-gate-manager-api\api\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06334332-78DA-45EF-B83C-DA2D7A5E8BCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870324B3-CE22-46E5-8AF4-226DD4CD1046}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1050" windowWidth="21600" windowHeight="11385" xr2:uid="{A18B69D9-28ED-47D3-8556-C314F1DB8CFD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A18B69D9-28ED-47D3-8556-C314F1DB8CFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="1291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2234" uniqueCount="1303">
   <si>
     <t>505335.23N</t>
   </si>
@@ -7004,6 +7004,42 @@
   </si>
   <si>
     <t>apron-north-new</t>
+  </si>
+  <si>
+    <t>P1-1</t>
+  </si>
+  <si>
+    <t>P1-2</t>
+  </si>
+  <si>
+    <t>P1-3</t>
+  </si>
+  <si>
+    <t>P1-4</t>
+  </si>
+  <si>
+    <t>P1-5</t>
+  </si>
+  <si>
+    <t>P1-6</t>
+  </si>
+  <si>
+    <t>P2-1</t>
+  </si>
+  <si>
+    <t>P2-2</t>
+  </si>
+  <si>
+    <t>P2-3</t>
+  </si>
+  <si>
+    <t>P2-4</t>
+  </si>
+  <si>
+    <t>P2-5</t>
+  </si>
+  <si>
+    <t>P2-6</t>
   </si>
 </sst>
 </file>
@@ -7463,8 +7499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A74C131-8C0C-4CF6-B99D-A6421F63E231}">
   <dimension ref="A1:O479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A378" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B393" sqref="B393"/>
+    <sheetView tabSelected="1" topLeftCell="A417" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C431" sqref="C431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30439,8 +30475,8 @@
       <c r="B424" s="30" t="s">
         <v>938</v>
       </c>
-      <c r="C424" s="28">
-        <v>1</v>
+      <c r="C424" s="28" t="s">
+        <v>1291</v>
       </c>
       <c r="D424" s="30" t="s">
         <v>1040</v>
@@ -30486,8 +30522,8 @@
       <c r="B425" s="30" t="s">
         <v>938</v>
       </c>
-      <c r="C425" s="28">
-        <v>2</v>
+      <c r="C425" s="28" t="s">
+        <v>1292</v>
       </c>
       <c r="D425" s="30" t="s">
         <v>1044</v>
@@ -30533,8 +30569,8 @@
       <c r="B426" s="30" t="s">
         <v>938</v>
       </c>
-      <c r="C426" s="28">
-        <v>3</v>
+      <c r="C426" s="28" t="s">
+        <v>1293</v>
       </c>
       <c r="D426" s="30" t="s">
         <v>1048</v>
@@ -30580,8 +30616,8 @@
       <c r="B427" s="30" t="s">
         <v>938</v>
       </c>
-      <c r="C427" s="28">
-        <v>4</v>
+      <c r="C427" s="28" t="s">
+        <v>1294</v>
       </c>
       <c r="D427" s="30" t="s">
         <v>1052</v>
@@ -30627,8 +30663,8 @@
       <c r="B428" s="30" t="s">
         <v>938</v>
       </c>
-      <c r="C428" s="28">
-        <v>5</v>
+      <c r="C428" s="28" t="s">
+        <v>1295</v>
       </c>
       <c r="D428" s="30" t="s">
         <v>1056</v>
@@ -30674,8 +30710,8 @@
       <c r="B429" s="30" t="s">
         <v>938</v>
       </c>
-      <c r="C429" s="28">
-        <v>6</v>
+      <c r="C429" s="28" t="s">
+        <v>1296</v>
       </c>
       <c r="D429" s="30" t="s">
         <v>1060</v>
@@ -30721,8 +30757,8 @@
       <c r="B430" s="30" t="s">
         <v>983</v>
       </c>
-      <c r="C430" s="28">
-        <v>1</v>
+      <c r="C430" s="28" t="s">
+        <v>1297</v>
       </c>
       <c r="D430" s="30" t="s">
         <v>1064</v>
@@ -30768,8 +30804,8 @@
       <c r="B431" s="30" t="s">
         <v>983</v>
       </c>
-      <c r="C431" s="28">
-        <v>2</v>
+      <c r="C431" s="28" t="s">
+        <v>1298</v>
       </c>
       <c r="D431" s="30" t="s">
         <v>1068</v>
@@ -30815,8 +30851,8 @@
       <c r="B432" s="30" t="s">
         <v>983</v>
       </c>
-      <c r="C432" s="28">
-        <v>3</v>
+      <c r="C432" s="28" t="s">
+        <v>1299</v>
       </c>
       <c r="D432" s="30" t="s">
         <v>1072</v>
@@ -30862,8 +30898,8 @@
       <c r="B433" s="30" t="s">
         <v>983</v>
       </c>
-      <c r="C433" s="28">
-        <v>4</v>
+      <c r="C433" s="28" t="s">
+        <v>1300</v>
       </c>
       <c r="D433" s="30" t="s">
         <v>1076</v>
@@ -30909,8 +30945,8 @@
       <c r="B434" s="30" t="s">
         <v>1287</v>
       </c>
-      <c r="C434" s="28">
-        <v>5</v>
+      <c r="C434" s="28" t="s">
+        <v>1301</v>
       </c>
       <c r="D434" s="30" t="s">
         <v>1080</v>
@@ -30956,8 +30992,8 @@
       <c r="B435" s="30" t="s">
         <v>1287</v>
       </c>
-      <c r="C435" s="28">
-        <v>6</v>
+      <c r="C435" s="28" t="s">
+        <v>1302</v>
       </c>
       <c r="D435" s="30" t="s">
         <v>1084</v>

--- a/api/data/gates_db.xlsx
+++ b/api/data/gates_db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\belux\belux-gate-manager-api\api\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870324B3-CE22-46E5-8AF4-226DD4CD1046}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68F828F-8AAA-4774-8FD3-BAE085799D58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A18B69D9-28ED-47D3-8556-C314F1DB8CFD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2234" uniqueCount="1303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="1335">
   <si>
     <t>505335.23N</t>
   </si>
@@ -7040,6 +7040,102 @@
   </si>
   <si>
     <t>P2-6</t>
+  </si>
+  <si>
+    <t>P1-45</t>
+  </si>
+  <si>
+    <t>P1-46</t>
+  </si>
+  <si>
+    <t>P2-45</t>
+  </si>
+  <si>
+    <t>P2-46</t>
+  </si>
+  <si>
+    <t>P1-50</t>
+  </si>
+  <si>
+    <t>P1-51</t>
+  </si>
+  <si>
+    <t>P1-52</t>
+  </si>
+  <si>
+    <t>P1-53</t>
+  </si>
+  <si>
+    <t>P1-54</t>
+  </si>
+  <si>
+    <t>P1-55</t>
+  </si>
+  <si>
+    <t>P1-56</t>
+  </si>
+  <si>
+    <t>P1-57</t>
+  </si>
+  <si>
+    <t>P1-58</t>
+  </si>
+  <si>
+    <t>P1-59</t>
+  </si>
+  <si>
+    <t>P1-60</t>
+  </si>
+  <si>
+    <t>P1-61</t>
+  </si>
+  <si>
+    <t>P1-62</t>
+  </si>
+  <si>
+    <t>P1-63</t>
+  </si>
+  <si>
+    <t>P2-50</t>
+  </si>
+  <si>
+    <t>P2-51</t>
+  </si>
+  <si>
+    <t>P2-52</t>
+  </si>
+  <si>
+    <t>P2-53</t>
+  </si>
+  <si>
+    <t>P2-54</t>
+  </si>
+  <si>
+    <t>P2-55</t>
+  </si>
+  <si>
+    <t>P2-56</t>
+  </si>
+  <si>
+    <t>P2-57</t>
+  </si>
+  <si>
+    <t>P2-58</t>
+  </si>
+  <si>
+    <t>P2-59</t>
+  </si>
+  <si>
+    <t>P2-60</t>
+  </si>
+  <si>
+    <t>P2-61</t>
+  </si>
+  <si>
+    <t>P2-62</t>
+  </si>
+  <si>
+    <t>P2-63</t>
   </si>
 </sst>
 </file>
@@ -7499,8 +7595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A74C131-8C0C-4CF6-B99D-A6421F63E231}">
   <dimension ref="A1:O479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A417" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C431" sqref="C431"/>
+    <sheetView tabSelected="1" topLeftCell="A326" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C339" sqref="C339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25950,8 +26046,8 @@
       <c r="B339" t="s">
         <v>750</v>
       </c>
-      <c r="C339" s="21">
-        <v>45</v>
+      <c r="C339" s="21" t="s">
+        <v>1303</v>
       </c>
       <c r="D339" t="s">
         <v>811</v>
@@ -26007,8 +26103,8 @@
       <c r="B340" t="s">
         <v>750</v>
       </c>
-      <c r="C340" s="21">
-        <v>46</v>
+      <c r="C340" s="21" t="s">
+        <v>1304</v>
       </c>
       <c r="D340" t="s">
         <v>813</v>
@@ -26235,8 +26331,8 @@
       <c r="B344" t="s">
         <v>750</v>
       </c>
-      <c r="C344" s="21">
-        <v>50</v>
+      <c r="C344" s="21" t="s">
+        <v>1307</v>
       </c>
       <c r="D344" t="s">
         <v>821</v>
@@ -26292,8 +26388,8 @@
       <c r="B345" t="s">
         <v>750</v>
       </c>
-      <c r="C345" s="21">
-        <v>51</v>
+      <c r="C345" s="21" t="s">
+        <v>1308</v>
       </c>
       <c r="D345" t="s">
         <v>823</v>
@@ -26349,8 +26445,8 @@
       <c r="B346" t="s">
         <v>750</v>
       </c>
-      <c r="C346" s="21">
-        <v>52</v>
+      <c r="C346" s="21" t="s">
+        <v>1309</v>
       </c>
       <c r="D346" t="s">
         <v>825</v>
@@ -26406,8 +26502,8 @@
       <c r="B347" t="s">
         <v>750</v>
       </c>
-      <c r="C347" s="21">
-        <v>53</v>
+      <c r="C347" s="21" t="s">
+        <v>1310</v>
       </c>
       <c r="D347" t="s">
         <v>827</v>
@@ -26520,8 +26616,8 @@
       <c r="B349" t="s">
         <v>750</v>
       </c>
-      <c r="C349" s="21">
-        <v>54</v>
+      <c r="C349" s="21" t="s">
+        <v>1311</v>
       </c>
       <c r="D349" t="s">
         <v>832</v>
@@ -26577,8 +26673,8 @@
       <c r="B350" t="s">
         <v>750</v>
       </c>
-      <c r="C350" s="21">
-        <v>55</v>
+      <c r="C350" s="21" t="s">
+        <v>1312</v>
       </c>
       <c r="D350" t="s">
         <v>834</v>
@@ -26691,8 +26787,8 @@
       <c r="B352" t="s">
         <v>750</v>
       </c>
-      <c r="C352" s="21">
-        <v>56</v>
+      <c r="C352" s="21" t="s">
+        <v>1313</v>
       </c>
       <c r="D352" t="s">
         <v>839</v>
@@ -26748,8 +26844,8 @@
       <c r="B353" t="s">
         <v>750</v>
       </c>
-      <c r="C353" s="21">
-        <v>57</v>
+      <c r="C353" s="21" t="s">
+        <v>1314</v>
       </c>
       <c r="D353" t="s">
         <v>841</v>
@@ -26805,8 +26901,8 @@
       <c r="B354" t="s">
         <v>750</v>
       </c>
-      <c r="C354" s="21">
-        <v>58</v>
+      <c r="C354" s="21" t="s">
+        <v>1315</v>
       </c>
       <c r="D354" t="s">
         <v>843</v>
@@ -26862,8 +26958,8 @@
       <c r="B355" t="s">
         <v>750</v>
       </c>
-      <c r="C355" s="21">
-        <v>59</v>
+      <c r="C355" s="21" t="s">
+        <v>1316</v>
       </c>
       <c r="D355" t="s">
         <v>845</v>
@@ -26919,8 +27015,8 @@
       <c r="B356" t="s">
         <v>750</v>
       </c>
-      <c r="C356" s="21">
-        <v>60</v>
+      <c r="C356" s="21" t="s">
+        <v>1317</v>
       </c>
       <c r="D356" t="s">
         <v>847</v>
@@ -26976,8 +27072,8 @@
       <c r="B357" t="s">
         <v>750</v>
       </c>
-      <c r="C357" s="21">
-        <v>61</v>
+      <c r="C357" s="21" t="s">
+        <v>1318</v>
       </c>
       <c r="D357" t="s">
         <v>849</v>
@@ -27033,8 +27129,8 @@
       <c r="B358" t="s">
         <v>750</v>
       </c>
-      <c r="C358" s="21">
-        <v>62</v>
+      <c r="C358" s="21" t="s">
+        <v>1319</v>
       </c>
       <c r="D358" t="s">
         <v>851</v>
@@ -27090,8 +27186,8 @@
       <c r="B359" t="s">
         <v>750</v>
       </c>
-      <c r="C359" s="21">
-        <v>63</v>
+      <c r="C359" s="21" t="s">
+        <v>1320</v>
       </c>
       <c r="D359" t="s">
         <v>853</v>
@@ -27261,8 +27357,8 @@
       <c r="B362" t="s">
         <v>658</v>
       </c>
-      <c r="C362" s="21">
-        <v>45</v>
+      <c r="C362" s="21" t="s">
+        <v>1305</v>
       </c>
       <c r="D362" t="s">
         <v>860</v>
@@ -27318,8 +27414,8 @@
       <c r="B363" t="s">
         <v>658</v>
       </c>
-      <c r="C363" s="21">
-        <v>46</v>
+      <c r="C363" s="21" t="s">
+        <v>1306</v>
       </c>
       <c r="D363" t="s">
         <v>862</v>
@@ -27375,8 +27471,8 @@
       <c r="B364" t="s">
         <v>658</v>
       </c>
-      <c r="C364" s="21">
-        <v>50</v>
+      <c r="C364" s="21" t="s">
+        <v>1321</v>
       </c>
       <c r="D364" t="s">
         <v>864</v>
@@ -27432,8 +27528,8 @@
       <c r="B365" t="s">
         <v>658</v>
       </c>
-      <c r="C365" s="21">
-        <v>51</v>
+      <c r="C365" s="21" t="s">
+        <v>1322</v>
       </c>
       <c r="D365" t="s">
         <v>866</v>
@@ -27489,8 +27585,8 @@
       <c r="B366" t="s">
         <v>658</v>
       </c>
-      <c r="C366" s="21">
-        <v>52</v>
+      <c r="C366" s="21" t="s">
+        <v>1323</v>
       </c>
       <c r="D366" t="s">
         <v>868</v>
@@ -27546,8 +27642,8 @@
       <c r="B367" t="s">
         <v>658</v>
       </c>
-      <c r="C367" s="21">
-        <v>53</v>
+      <c r="C367" s="21" t="s">
+        <v>1324</v>
       </c>
       <c r="D367" t="s">
         <v>870</v>
@@ -27603,8 +27699,8 @@
       <c r="B368" t="s">
         <v>658</v>
       </c>
-      <c r="C368" s="21">
-        <v>54</v>
+      <c r="C368" s="21" t="s">
+        <v>1325</v>
       </c>
       <c r="D368" t="s">
         <v>872</v>
@@ -27660,8 +27756,8 @@
       <c r="B369" t="s">
         <v>658</v>
       </c>
-      <c r="C369" s="21">
-        <v>55</v>
+      <c r="C369" s="21" t="s">
+        <v>1326</v>
       </c>
       <c r="D369" t="s">
         <v>874</v>
@@ -27717,8 +27813,8 @@
       <c r="B370" t="s">
         <v>658</v>
       </c>
-      <c r="C370" s="21">
-        <v>56</v>
+      <c r="C370" s="21" t="s">
+        <v>1327</v>
       </c>
       <c r="D370" t="s">
         <v>876</v>
@@ -27774,8 +27870,8 @@
       <c r="B371" t="s">
         <v>658</v>
       </c>
-      <c r="C371" s="21">
-        <v>57</v>
+      <c r="C371" s="21" t="s">
+        <v>1328</v>
       </c>
       <c r="D371" t="s">
         <v>878</v>
@@ -27831,8 +27927,8 @@
       <c r="B372" t="s">
         <v>658</v>
       </c>
-      <c r="C372" s="21">
-        <v>58</v>
+      <c r="C372" s="21" t="s">
+        <v>1329</v>
       </c>
       <c r="D372" t="s">
         <v>880</v>
@@ -27888,8 +27984,8 @@
       <c r="B373" t="s">
         <v>658</v>
       </c>
-      <c r="C373" s="21">
-        <v>59</v>
+      <c r="C373" s="21" t="s">
+        <v>1330</v>
       </c>
       <c r="D373" t="s">
         <v>882</v>
@@ -27945,8 +28041,8 @@
       <c r="B374" t="s">
         <v>658</v>
       </c>
-      <c r="C374" s="21">
-        <v>60</v>
+      <c r="C374" s="21" t="s">
+        <v>1331</v>
       </c>
       <c r="D374" t="s">
         <v>884</v>
@@ -28002,8 +28098,8 @@
       <c r="B375" t="s">
         <v>658</v>
       </c>
-      <c r="C375" s="21">
-        <v>61</v>
+      <c r="C375" s="21" t="s">
+        <v>1332</v>
       </c>
       <c r="D375" t="s">
         <v>886</v>
@@ -28059,8 +28155,8 @@
       <c r="B376" t="s">
         <v>658</v>
       </c>
-      <c r="C376" s="21">
-        <v>62</v>
+      <c r="C376" s="21" t="s">
+        <v>1333</v>
       </c>
       <c r="D376" t="s">
         <v>888</v>
@@ -28116,8 +28212,8 @@
       <c r="B377" t="s">
         <v>658</v>
       </c>
-      <c r="C377" s="21">
-        <v>63</v>
+      <c r="C377" s="21" t="s">
+        <v>1334</v>
       </c>
       <c r="D377" t="s">
         <v>890</v>
